--- a/crawling_data/SW교육/comments+2015.08.01-2015.08.31+1_100.xlsx
+++ b/crawling_data/SW교육/comments+2015.08.01-2015.08.31+1_100.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2445" uniqueCount="1247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2445" uniqueCount="1339">
   <si>
     <t>path</t>
   </si>
@@ -3754,7 +3754,283 @@
     <t>[]</t>
   </si>
   <si>
+    <t>[('사랑해♥♥♥♥나누군지알지??♥♥', 0, 0)]</t>
+  </si>
+  <si>
+    <t>[('창조 붙이면 다쳐망하니까창조는 빼자^^', 1, 0), ('정부는 서구열강의 과학발전에 한발씩 늦추는행보를 하는것같습니다 일본은 무선양자암호통신용 단말기도 2010년에 프로토타입도 학회에서제시했다는 내용이 kaist교수님들강의서에 나왔는데요 우리 스마트폰업계는 프로토타입출시한상태인건지요 무선양자암호로 이지스함과 해군사령부통신을못하면 또다시 서구열강들의 침략에 속수무책일텐데말이죠 5G통신에서 그부분이모호한상태아닌지요 6G로 넘기기엔 너무나느린거아닙니까 그리고 미국은이미 3d프린터의 100배빠른생산속도와 저렴한구축비용을가진 나노인쇄연구에 돌입한상태라는데요 wired지에서언급하던데요', 0, 0), ('3d프린터라... 확실히 몇몇 분야에서는 성과가 나온다고는 하고 있는데.. 너무 과민반응하는게 아닌지 모르겠다.', 2, 1), ('창조경제란 없는걸 만든게 아니라 잡스처럼 다른기술을 전부합쳐 다시신재품처럼 만든게 창조경제다', 1, 1), ('ㅋㅋ창조랑 없는걸 만든는게 아니라 잡스처럼 남걸 다른회사에서 단든 아이디여 기술 그걸 전부 합쳐 만든기술이 창조다 없던걸 단든게 아니라 기존에 있던아이디여와기술 ㅎㅎㅎㅎ잡스는 이런걸 다른 회사을 인수 다른 아이디여을 돈주고 사던지 아니면 특혀가 시간이 말료된 아이디여을 지마음되로 사용했는걸 (잡스는 그걸 창조라한다 ) 한국사람들이 창조라하면 에이 쌍 다른사람들 기술과아이디여을 사용한게 그게 뭐가 창조야 하지만 다른나라 미국이 또같이하면 그건 창조경제란다 ㅋㅋㅋㅋㅋ', 0, 1)]</t>
+  </si>
+  <si>
+    <t>[('국제수학올림피아드 3위, 국제화학올림피아드 1위,국제정보올림피아드 1위, 국제물리올림피아드 2위 대한민국 과학영재들이 자랑스럽다 요새는 자기 하고픈게 딱 있어서 이런 인재들 의대로 잘 안감', 16, 5), ('저정도면 국내기업은 비추', 1, 0), ('썩은김치...된장비벼먹어???', 1, 1), ('세종시 L장학사도 감사기간인 사람한테 저녁먹자고 꼬셔가지고 잘봐줄테니 돈 빌려달라고 했다는데요 뭘.. 윗물이 이 정도니..네이버에 세종시 L장학사라고치면 기사떠요. 아 이 장학사도 전교조였대요.', 6, 3), ('역시 대단해...기능올림픽도 석권하더니..', 9, 6), ('이제 중국으로 떠나라... 이 나라 기업들 쓰레기임', 10, 10)]</t>
+  </si>
+  <si>
+    <t>[('난 하고싶어도 못하는데학력도 높은편인데.. ㅜㅜ', 39, 2), ('방과후 강사 경험 있는데 가르치는거 외에 행정적으로 처리해야 할 일 많고 그때 당시 스쿨뱅킹인가에서 돈이 입금 안된 몇몇 학부모한테 몇 차례 전화넣고 문자 보내고 아주 끔찍했다.3만원 때문에...또 그 학교는 재신청을 하지 않으면 확인 전화 넣어 왜 안하냐고 확인해야 하고...짧은 시간에 많은 아이들을 하니 일한 대비 수입은 괜찮았으나 나 같은 경우는 수업의 질이 낮다고 느꼈고 다시 자리가 있어도 안하고 싶다.', 25, 1), ('일단 대학생들 신규채용을 늘이기위해 방과후강사를 늘인다는 의견에는 반대ㅡ경력있는샘 몰아내고 업체신출초짜선생님 들어와서 수업분위기 못 잡고 산만 그자체에다 수업의 질 너무 떨어지더라능~~~', 15, 0), ('일반 학원 회비 절반 가량 내면서아줌마들끼리 수다떨때는 싼맛에 보내는 거지뭐 하다가 정작 강사들한테 요구하는건 개인교습 시키는 빙의.', 14, 0), ('그나마 방과후수업비도 알선회사가 제법 가져간다고 들었다. 알선회사가 학교에서 일을 따고, 회사가 시설비(악기 등)를 투지했다는 명목으로 강사들은 쥐꼬리만한 강사료도 회사와 나누어야 한단다. 학교입장에서는, 시설비를 투자해주는 회사를 끼고하는 편이 학교재정에 이익이 되기 때문에 회사를 선호한다.', 13, 1), ('그러게요.. 대우가 좋아져야 좋을텐데요..', 6, 2), ('학교에 학원 차리는거 부터가 이상', 0, 0), ('시간당 벌이 괜찮아요. 애로사항도 이해하지만 난 가르치기만 하고 싶다는 이기적인 강사들 때문에 뒤치닥거리 많다. 그저 가르치면 돈이 딱 계좌로 들어온다고 생각하는 인간들... 방과후강사들 제발 기본 교육 좀 합시다. 답답 가르치는 스킬도 전문적으로 배운사람은 손에 꼽을 정도임', 0, 2), ('좌마이도 쓰레기고용 하면서 수준이하의 기자들 양산하는 주제에ㅋㅋ', 4, 5), ('방과후 학교 강사 연합회ᆢ정부와 학교와 학부모와 학생을 상대하는 노조로 발전하겠구나ᆢ', 7, 9)]</t>
+  </si>
+  <si>
+    <t>[('신은 없다...진화론이 정답이네..권력이..신을 만들고..다시 언론을 통제하면서...무한의 권력을 소유하는거지..권력.신.언론', 2, 2), ('앞으로 한 사람이 하나의 직업을 가지고 한 기업에 고용되어 일하는게 아니라 여러 직업을 가지고 여러 기업에 고용관계를 가질것으로 보인다.', 6, 0)]</t>
+  </si>
+  <si>
+    <t>[('서피스 아이패드 삼성탭 저가중국산 어느 하나한테도 이길 구석이 없네', 1, 1), ('엑스페리아z3 컴팩트 태블릿 사용중인데 상당히 만족스럽다. z5 태블릿은 다시 컴팩트로 돌아온다는데 z4태블릿은 일본에서도 배터리문제와 발열, 그닥 향상되지 않은 성능에 유저들도 말들이 많다. 한국의 현재로선 아이패드와 갤럭시탭s2가 최선이라고 본다. 방수기능이 필요하거나 소니의 음향성능이 꼭 필요하다면 가격이 저렴하고 크기도 적당한 8인치의 z3태블릿을 대신 추천한다.', 2, 0), ('기자님 설마 구매하신 건 아니죠?', 1, 0), ('비판적 기사는 좋은데 그냥 무슨 감상기 수준이네;;', 2, 2), ('정신 못차려 레노버 요가나 아서스 트랜스는 40 50만원선 아닌가. 더 낮던가', 3, 1), ('새누리언론 동아일보(채널A) 2009년 새누리당은 삼성 이건희 유래 없는 원-포인트 단독사면 해준 이유를 밝혀라 삼성 이건희 회장 둘째딸 이서현 남편 김재열 아버지가 새누리언론 동아일보(채널A) 명예회장이였고, 형이 동아일보사장(채널A) 삼성 이건희 회장 특별사면, 아직도 논란 진행 중 http://www.ntoday.co.kr/news/articleView.html?idxno=27571', 1, 3), ('물론 이런식으로 하면 바로 망하는거고 항상 조심성있게 어느정도 장기적으로 생각해야할 문제인거고 아무 권리도 없는것들이 자금이 어쩌네 주접을 떨고 무시나 당하고 ㅉㅉㅉ', 3, 2), ('연봉 몇천억만 들어가냐고 회사 건물도 인수해야하고 기타 직원들 고용은 안하냐고 각종 부대비용에 사십넘은 최씨녀는 나하고 결혼으로 자금 분할이나 생각하고 미친,년이고 권리도 없는것들이 주접이나 떨고 회사 차리면 주식은 안하겠지 단어 표현적으로주식 중계를 하겠지 다른 부동산이니 채권 금 선박 투자 금융수학으로 투자 등등등 할거는많고 내가 말했는데 니들 꼴통들 같다고 니들 일이나 잘하시고 니들 있는곳에서나 잘하고 진짜 실력있다는 소리나 들으라고 빌어먹는 근성밖엔 없다는 얘기듣지말고', 0, 2), ('월스트리트에서 제일 잘한다는 사람들 연봉이 백억에서 몇백억 많으면 천억까지 가는데 그걸 고용하라고 열명만 고용해도 몇천억이네 그사람들이 정말 연봉대비 몇십배를 벌수있는 사람들이라면 당연히 괞찮은데 고용하는 순간 몇십배 순이익이 그냥 생기냐고 니들은 아무생각없이 돈이나 가질생각이나하고 아무 권리도 없는것들이 대나가나 떠들고 다니고 내가 장담하는데 니들은 계속 짓거리기나 할뿐 니들한테 가는건 없고 능력도 없는것들이 무슨 자금이 어쩌고 게다가 권리도 없고 그냥 니들은 멍청하다고 회사차리는게 혹은 인수를 하는게 간단한 문제도 아니고', 0, 3), ('솔직히 일례로 하나 말해주면 회사 차린다고 어떻게든 빚없이 자금을 불려야지 수익이 나야하는거고 주식 뿐만이 아니라 주식안해도 그만이고, 할수있는 모든곳에 투자를 해야지 단타가 아니라 장기적으로 안전성과 함께 그러다 금융위기가 온다고 그럴때 정경유착을 해야지 빚을 엄청나게 늘리는거고 정말 엄청나게 늘리면서 투자를 해야지 그런 방법이 있는데 이것도 투자를 제대로 못하면 훅가는거고 여러 방법들이 있다고 이것도 지금 얘기하는건 뜬구름 잡는 얘기고 니들 일이나 니들끼리 잘하세요 똑바로 이상한짓들 하지말고', 0, 3), ('회사 인수하는 형식으로 하라고 그러니까 뜬구름 잡는 얘기라고하는거고 그것도 괜찮은 방법이긴 한데 과연 그회사가 괜찮은 회사일까 나쁘게 말하면 직원들 실력이 허접한데 그냥 인수만하면 끝이냐고 저 나이든최씨들하고 다른사람이 과연 실력이 있을까나 없는거 같은데 뜬구름 잡는 얘기 그만하고 니들끼리 하고 귀찮게 하지말고', 0, 3), ('무슨 내가 세계 최고의 회사가서 나중에 회사차릴때 세계 최고들하고 회사 차린다고 했는데 진짜 고용하는 형식으로 할거 같아? 연봉을 정말 많이 줘야하는데 월스트리트에서 잘하는 사람들인데 진짜 고용하면 임금이 얼마이며 아무 생각없지? 그냥 대나가나 연관이나 지어볼까 뜬구름 잡는 얘기나 해대고 최씨들부터해서 내가 쓴글을 보고 그걸 가지고 과거부터 회사에 붙어있는다든지 이상한 짓들이나 하고 그냥 아무생각없지?그러니까 맨날 뜬구름 잡는 얘기나 하고다니는거고 좀 많이 한심하고 인생좀 똑바로 살고 짜증나그든 더할말 없고 귀찮게 하지말고', 0, 2), ('정말 나주얘기라 말을 안했는데 미국에서 회사를 차렸다고하면 내가 거기서의 단어자체가 좀 그렇지만 거기서 내가 이용할수있는 많은것들이 있고 한국 마찬가지고 한국의 정치부터 많은것들 이용할수있는데 당연히 한국에도 지사를 만들겠지 나한테 도움될수있는 조건들이 있는데 그것도 이용해야지 이용한다는 단어자체가 어감이 좀 그렇고 음 뭐라고해야하나 정치등과 금전적인 관계가 아닌 협력관계? 그정도 근데 나중얘기라 너무 뜬구름 잡는 얘기고 그리고 그쪽들이 지금 나하고 연관짓는것도 뜬구름 잡는 얘기고', 0, 2), ('박근혜나 정부한테 하고싶은말은 이런얘기 처음하는데 그쪽들이 나를 돕는다는것 자체가 불가능한일이고 아무 의미없는 연관짓기 해봐야 소용도 없고 그쪽들이 생각하는 국민들한테나 잘하길 바라고 진짜 사회 소외 계층한테는 대나가나 주접이면서 나같은 사람한테 잘보이려고 한다는게 어불성설이고 생각없이 한국에서 해야한다라는 그런 마인드가 있는데 나중얘기라 언급하 필요는 없는데 진짜 말을 해야 알아들을 만큼 생각이 없는거 같아서', 0, 3), ('총체적 난국이란 표현만큼 적절한 표현이 없지...소니 모바일기기쪽은...', 1, 1), ('네이버가 이런게 안좋은게 난 sungyunkim이고 즉 김성윤 삼십대 중반 참고로 회사생활은 저자금은 저자금이고 저기서 어쩌고하면 안되는거고 내가 돈을 버는게 회사 생활이고 착각을 너무 심하게 하고 말하는것 보면 전략이라는게 전혀 없는것들이 거의 전부라서 이런얘기가 있던데 내가 저 세명이 회사 생활하게끔 월급을 줘야한다고 그런일은 일어나지를 않고 그러니까 니들이 루져들이라는거고 니들 능력으로 살고 니들이 진짜로 능력이 있으면 니들 회사에서 속된말로 제대로 쉴드를 쳐준다고 주접을떨고 인생은 니들 능력으로 사는거고', 0, 3), ('비싸서 그런거.. 샘레기다 팔리는건 단지 공짜여서 ㅎㅎㅎ 팔리는게 아니지 ㅎㅎㅎㅎㅎㅎ', 0, 1), ('돈 모아서 소나타나 사지... 고딩, 대딩도 아니고 쯰즬하게 노트북, 카메라 같은거에 돈 좀 쓰지마라.', 0, 3), ('45이면 살 의향 있다 진심.... 안되겠지?? 쪽발?', 2, 2), ('Z3 타블렛은 참 잘나왔는데... 역시나 화룡이 문제...', 3, 0), ('마지막으로 박근혜 그쪽은 국민들에 포함되어있고 체스를 두는 사람들은 생물학적으로 나포함 다 남자라고 꼴깝 떨지말고 관심끊고', 0, 6), ('엑페 태블릿이 좋은 점도 물론 있긴 하죠. 근데 그건 스펙상의 강점이 대부분이고 제품이 지향하는 라이프스타일에서의 활용도를 살펴보자면 기자님이 지적한 것처럼 부족한 면이 많다는 것. 810 넣은 것도 이해가 잘 안 되는게. 발열이 많으니 물에 담가서 수랭으로 식히자라는 미친 발상이 아니면 좀처럼 택하기 어려운 물건이거든요. 차라리 엑시노스를 넣고 말지.', 0, 1), ('난 조용히 준비끝내고 아이비리그 대학원 합격하면 미국가서 미국에서 회사생활하면되고 이문장을 가지고 니들이 판단하고 싶을텐데 그런생각 자체가 잘못된거고 더할말 없고 자금 관련해서 떠들지말라고 했는데 그냥 심심해서 하는말이 아니라 니들은 상황을 만들 능력이 없고 어떻게 하는게 최선의 결과가 되는지 모른다고 체스는 니들이 두는게 아니라고', 0, 6), ('연예인들 아나운서는 무슨역할이냐고 특히나 연예인들 니들은 직업의 특성에 맞게 그냥 쑈나하면되고 니들은 나를 보는게 아니라 국민들을 보고 쑈를 하는거고 체스는 나포함 몇명만 두는거고 니들은 국민들에 포함되는거고 아 몰랐다고 얘기했었는데 니들이 알거라고 생각하는것자체가 잘못된거라고 체스그만 둬도될거 같은데 그리고 자금이라 자금은 다른이들의 의도에 의해 움직이지않는다와 손해가 생기면 안된다가 원칙이 되야하는거고 얘기했었는데 니들이 판단하는것 자체가 잘못된거라고 체스 그만둬도 될거 같은데', 0, 5), ('그냥 미국에서 나한테 너가 이길때까지 체스나 두자고 하는 사람들 있다만 아 그런사람들이 보이지는 않는다고? 니들한테 보이겠니 뭐 그건 그렇고 재미삼아 내가 이길때까지 두자고 해서 체스좀 뒀고 나보다 나이많은 최씨들 두명과 나보다 나이많은 다른 한명은 뭐였냐고? 체스판의 각각의 개체였지 그때그때 역할이 다른,니들의 없는 명예들에 명예 살인까지 시켜준걸 영광으로 생각하고 아 니들이 체스를 두면 안되겠냐고할텐데 니들은 상황을 만들거나 복원시킬 능력이 없어서', 0, 5), ('가격 야금야금 정책 소니 아쉽 한때 소빠였지만 진짜 가성비가 넘 구림 ps4와 카메라 말고는 GG', 2, 2), ('뉴스하고는 상관없고 책상이 좋든말든 뭐가 중요하겠냐만 도서관 책상처럼 노트북도 후지네 내가 글쓴거 같은글이라도 세가지 버전이 있고 하나는 국민들이 읽는 버전 하나는 연에인이나 아나운서들 즉 딴따라들 읽는 버젼 하나는 미국에서 나하고 체스나 한번 두자고 하는 사람들 읽는 버전', 0, 5), ('기자가 하나 달라했는데 돈성과는 달리 소니가 안줬나 보네...ㅋㅋㅋㅋㅋㅋ', 4, 5), ('추락하는것에는 이유가 있다, 갤럭시 s6 플랫/엣지.', 2, 4), ('이런 분위기 속에서 소니 엑스페리아 Z4 태블릿(SONY?XPERIA?Z4?Tablet)을 소개하는 것은 조금 불편해 보일 수 있다. 하지만 잘 살펴보면 왜 태블릿PC?시장이 추락하고 있는지를 잘 보여주는 제품이다.태블릿 pc 시장이 추락하는걸 z4에서 찾으니 답이 없지요 나름 메이져 언론사 기자가 태블릿 시장이 추락하는 이유를 메이져 제품도 아닌 others 제품군에 있는 제품 리뷰하면서 이유를 찾다니 인터넷 기자는 다 수준이 이런가 보네요', 0, 6), ('아톰이나 코어m달고 아에 윈도우태블릿을 만드는게 어떠냐 와콤까지 달면 내가 찬양해줄게', 3, 1), ('저기서 운영체제를 윈도로 바꾸고, ap를 코어M으로 바꾸면 완벽할텐데...', 1, 1), ('별그지같은 기사다보겠네.. 가성비만 따지면 현대차 사지 뭐하러 비싼돈주고 BMW나 포르쉐사나? 소니 브랜드 및 디자인이 잡제품들하고 클라스가 같은줄 아나.', 3, 11), ('삼성 대만에서 아르바이트생을 고용해 댓글 여론조작 들통 경쟁사인 HTC에 대한 비방 댓글 2만~3만건을 달아 대만 공평무역위원회로부터 1000만대만달러(약 3억6000만원)의 벌금을 부과받았다. 한국에서도 삼성 여론조작 댓글팀 활동중 http://news.khan.co.kr/kh_news/khan_art_view.html?artid=201311152205045&amp;code=940202', 2, 6), ('역시나 화룡.. 이름값하네...', 2, 2), ('안드로이드라 일단 제끼고 있음. 안드로이드이면서 비싸도 너무 비쌈. 차라리 윈도우 태블릿을 내놓아라! 저렴하게 말이야!', 2, 2), ('가격 좀 내리지. 그러면 성능이 모자라도 , 디자인 멋져서라도 살 텐데.', 4, 3), ('소니가 밀린 이유는 중가품을 브랜드 이미지로 팔아먹을려고 했기 때문. 고사양 제품들은 사줄만 했어. 중저가를 만들지 말던가 다른기업과 비슷한 가격에 팔았어야 했는데. 가성비 보고 사는 범위인 스펙 하위부터 중위는 가성비 망이니..', 13, 3), ('돈 받아 처 먹고 기사 쓰냐~~~ 광고다~~ 젠장', 2, 8), ('그래도 난 VAIO 이상의 노트북을 본 적이 없다. 그 기술력이나 디자인. 노트북의 선두주자였다. 망해서 아쉽지만, 참 가격만 좀 낮췄어도..', 3, 3), ('이가격이면 노트북이나 삼성,애플쪽 패드간다', 7, 2), ('가격보면 정신못차린거맞네ㅋㅋ', 14, 2), ('89만원 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 태블릿 두개 사겠당', 5, 1), ('태블릿이 왜 방수에 집착하지?', 2, 2), ('소니 헤드폰, 이어폰, 헤드폰 앰프 등도 말만 요란하지 별볼일 없더군요. 소니? 예전의 소니가 아닙니다.', 6, 1), ('요즘 살아나고 있는데 장난?', 2, 6), ('이미 망한 회사 홍보하는 이유가 뭐냐?', 10, 3), ('노트북사라 어떤호구가 89만원주고 저걸사겠냐', 16, 3), ('이 기사를 쓰는 정신을 삼성 엘지에게도 좀 발휘해보시길요! 그럼 기자님 덕분에 대한민국이 바뀔 겁니다 아마. 근데 그런 정신은 못 봤네요 이제껏.', 5, 3), ('스냅 810짜리는 일본에서도 문제라고 잘 안사던데ㅋ 누가 화룡이라고 지었는지 정확하네', 6, 0), ('어쩌다 소니가 이꼴 된거지... 애플보다 더 혁신적인 기업으로 마이웨이를 외쳤었는데', 5, 1), ('소니놋북도 배터리귀신이 살고 있기하지..ㅋ 소니도 떠났는데 너무 비쌈..어차피 안드로이드 운영체계면서..as도 그닥...해외에서는 잘팔렸나?', 0, 0), ('소니~ 이제 슬슬 이유가 없어도 추락할듯', 1, 1), ('사용방법에 약간.문제가.있는듯... 키보드 문제는 맞지만. 휴대성을 논하기 전에 거치형과 키보드를 결합한 고정령도 고려를....', 1, 1), ('소니 엑스페리아 타블렛도 있었다는게 더 신기하네. ㅎㅎㅎ 갤럭시 타블렛도 추락하던데 소니 타블렛에게 진짜 애도를 표한다. ㅎㅎ', 53, 16), ('요즘 소니 전자제품은 옛날의 그 소니 퀄리티가 아니지.. 안 팔리는 데는 다 이유가 있는 거야..', 93, 8), ('홍보성 기사보다 이런 신랄한 비판이 담긴기사가 훨씬좋다.', 203, 7), ('저가격이면 노트북으로ㄱㄱ', 126, 3)]</t>
+  </si>
+  <si>
+    <t>[('일본은 왜 순위에 없음?', 3, 2), ('IT 강국은 무슨...', 4, 1), ('자칭 IT강국 대한민국이 이정도임ㅋㅋㅋ', 4, 1)]</t>
+  </si>
+  <si>
+    <t>[('참 간단히 해결될 문제인듯.. 대기업의 공공SI 참여를 허락하고 대신 하도급 금지 시켜라. 개발자들이 대기업과 직접 계약을 통해 공공기관에 바로 연결되도 아무런 문제 없다. 중간에 하도급 업체 사장들만 손해 보고 개발자 입장에서는 중간에 떼이는 돈도 없고 손해 볼게 없는데 .. 중간에 돈 좀 먹으려는 하도급 업체 사장들이 문제임. 대기업과 직접 계약하면 처우 또한 대기업꺼를 따라가니 자연히 개선 된다.', 1, 0), ('대형SI 업체들이 일을 따도 하청 줌... 하청 업체가 또 다시 재하청 줌... 물론 관리자는 대기업 업체 직원임... 건설업과 똑같은 구조임...', 2, 1), ('기사 재목 똑바로 달아라 ^^생태계에 약영향?지금 대기업 발주구조 때문에하도급이 하도급 줘서 국내 sw가 개판인겁니다^^', 5, 3)]</t>
+  </si>
+  <si>
+    <t>[('공부만한 등신들이 나라망친다', 6, 0), ('공부해서 명문대 간 애들이 공기업, 대기업가서 관리직 하고 있으니 나라가 이모양 이꼴이지. 머리좋은 애들이 돈도 안되고 긴 시간을 필요로하는 연구, 과학 분야에 종사하지 않고 의사,약사,판사,변호사만 하려고 하니 나라가 이모양 이꼴이지. 창조기술은 자신이 하고싶은 일은 할때, 여러번의 실패를 거듭하고 기나긴 시간을 투자할때 비로소 나오는 것인데 이게 이윤을 추구하는 대기업의 성격에 안맞지. 대부분 이런 창조기술은 소기업 또는 개인에서 나오는데.. 우리나라는 대기업 중심 나라라서 창조기술은 가뭄에 콩나듯 나올수 밖에 없다. 알간?', 4, 0)]</t>
+  </si>
+  <si>
+    <t>[('한자는 부수를 먼저 배우고 그 부수와 연관된 한자끼리 모아서 외우면 쉽고 빨리 배울 수 있음.한자를 어렵다고 하시는 분들은 한자를 제대로 배워보지 못한 분4급 수준의 천자를 알면 중학 공부가 이해가 되고 3급 수준의 1800자를 알면 고등 어휘가이해가 됨. 법대나 한의대 공부는 1급 수준의 3500자의 한자 공부가 필요함', 1, 0), ('???? 열단어 되는데', 0, 0), ('자바2명 트럭에타요~ 오늘 C는 않구합니다', 0, 1), ('서카포 연고 서성한빼고 대학 다 갈아버리면안되냐?안쪽팔리냐?', 1, 1), ('또 삽질시작이네 풋ㅋ 불쌍하다 애들 ^^', 3, 0), ('한자는 우리나라 말의 기초라 알아두면 도움되고 한국사는 이완용같은 친일파가 안나오게 하기위해 배워야함', 6, 1), ('먼저바늘구멍만도못한 한문교사임용이나늘려라', 0, 0), ('Sw대신 컴퓨터 기본원리 넣어주지', 2, 0), ('취지는 좋으나 얼마나 현실성있게 반영될지 의구심이 든다 수능 국영수탐을 없애고 창의적인재를 뽑을수 있는 제도를 만들던지 기승전수능 현실에선 답없다', 4, 0), ('이과애들한테는 중국어 부담주지마라', 2, 2), ('초.중은 그렇다쳐도 고등수업 갑자기 저리바뀌면 수능은 어떻게 바꿀건지. . . 대혼란이 예상되뮤', 4, 0), ('너무 문자로만 배우는거 같다.. 영어 일주일에 8시간 들었는데 말하는건 1간도 없음..외국인들 만나면 어떻게 말해야될지 머리가 멍해진다..이거 문제아닌가?ㅠㅠ', 2, 0), ('한자 극혐ㅡㅡ 난 진짜 한자쓰기 시키면 머리속엔 오직 세종대왕의 위대한 업적과 감사함밖에 없다.', 5, 4), ('교육바꾸는거신경쓰지말고 고등무상급식 고등무상교육이나힘좀써주세요 언제무상교육되나요?????', 4, 1), ('그냥놔두지 이과문과는왜통합ㅠㅠ이해가안간다 사교육시장을정부가도와주는거같네ㅠㅠ제발그냥놔두고 고등무상교육이나신경좀써주세요 무상교육', 8, 1), ('올해 고3 인데 저 일과는 나랑 무관하기를...', 3, 1), ('한자는 어릴때 간단한 거만 배우고 독서 많이하면 몰라도 상관없는 듯. 저 어린이집 다닐때 쉬운 한자만 배우다 말있고 초등학교 저학년때는 책을 1년에 600권 이상 읽게 엄마가 시키셨는데 그래서 그런지 지금도 국어는 공부안해도 모의고사보면 1~2등급 나와요. 책만 많이 읽으면 언어공부는 다 되는 듯. 생전처음 보는 단어도 한자는 모르지만 뜻 유추해서 자연스럽게 알게되더라구요;; 또래보다 어휘력 좋다는 소리도 많이 들었어요. 애들 모르는 단어 해석가능하고 그런게 있는 거 같아요. 차라리 한자보다 간체자(중국어)를 가르치는게 나을 수도', 9, 3), ('주요과목 이수단위를 줄이면서 공부해야할 것은 줄이지않으면 결국 지금도 날아가는 수업진도가 더 날아갈까봐 걱정이네요. 지금도 선행 안한 아이들은 고교 수학과정을 따라갈 수가 없는데...선생님은 "다 알지?" 라며 문제 몇 문제 풀고 다음단원으로 휙휙 넘어가고 개념이해를 위한 시간? 이딴거 없습니다. 그런데 안그래도 오히려 수포자 양산한다는 개정교육과정에서 이수단위만 줄인다면......공교육 파괴로 가는 결말밖에 남지않는다고 생각합니다. 도대체가 교육정책 만드는분들은 일선의 상황을 좀 알고 만들었으면합니다.', 8, 0), ('아 시 발 좀 그만바꿔 어쩌라고 매년달라지는데 짜증나게 어느장단에맞춰서 공부하라고 나01년생인데 우리때까지 문이과여서 재수도못하게생겼네 개짜 고만좀갈궈라 너네가학교수업저따구로 해봤자 학원만 더 돌린다', 16, 1), ('휴 늦게안태어나길잘했다', 6, 0), ('쓰잘데기없는 한문배울바에야 그시간에 영어중국어일본어를 하겠다. 대체 왜 배우는거임?', 9, 6), ('교육의 틀을 바꾸긴 해야 겠지만 좋은 아이디어라고 우리나라 현실에 맞지 않는 식으로 준비 없이 바꾸다간 정치가아닌 교육현장모두가 고통받게 되고 시행착오를계속하고 후퇴하게 된다 수행평가나 자유학기제가 현장에서 얼마나 무의미하고 힘든지 정부당국은 이해를 못하고 무리하게시행하는거 같다 대통령바뀌면 또 바뀌지 않을까..제발 현장의견 을 잘수렴하고 실험하고 확신이 설때 국민 투표로 고쳐라', 7, 1), ('내가 학교다닐 때 제일 싫어했던것이 한자인데 다행이다^^', 1, 3), ('한자가 우리말에 70%를 차지하는데 안배우는게 이상한거 아님?', 3, 3), ('모든 과목의 질적 수준은 이미 낮아질대로 낮아졌는데 더이상 낮아질 곳도 없다. 우리나라는 지금 보이지 않게 망해가고 있다는 증거다', 10, 0), ('대학생이 전공한자를 못읽는애들이 절반이 넘으니 한자를 배우던가 한국어로 알기쉽게 바꾸던가 일본식 표기한자를 안쓰던가', 3, 0), ('청소년분들, 이공계, 특히 공대 지망하시면 한자 필요 없습니다ㅋㅋㅋㅋ 공대는 걍 대부분 영어 원서 씁니다ㅋㅋㅋ 글고 교수님들도 거의 다 해외파라서 용어도 다 영어로 사용합니다ㅋㅋ게다가 대학원 지망하신다면, 기술개발은 영어권이 주도해서 영어논문을 죽도록 읽어야 해요ㅋㅋㅋ 한글책을 써도 한자몰라도 괜찮습니다. 단어를 몰라도 개념은 책에 설명되어있습니다. 무조건 영어에 올인하세요ㅋㅋ중국인들도 비즈니스에서는 영어를 주로 씁니다.우리보다 더 잘하는 사람도 많고요. 또한 엔지니어들이 쓰는 영어는 간단하니까 조금만 잘해도 충분합니다ㅋㅋ', 19, 3), ('통합과학 하더라도 난이도 낮추자. 고딩 가르치는 사람인데. 내가 보기에도 과학 난이도 너무높다.', 3, 1), ('음 저때 고3이네 (눈물)', 0, 0), ('그래서 2018년 고1들 대입은 어떻게 하는건가.이게 같이 나와야지.완전 2018년 고1만 마르타네', 0, 0), ('영어문법말고스피킹을더가르치는쪽으로는고민안해보시나', 3, 1), ('자 살 추천....', 2, 1), ('그놈의한자는없어졌다부활했다수십년동안 문제네', 14, 2), ('됐고!! 뭐이리 요구하는 과목이 많은겨!! 애들도 부모도 힘들다...ㅠ', 7, 1), ('한국사, 한자, 영어스피킹 이렇게 시켜라.', 4, 0), ('왜 다들 한자가 필요하다 그러지 한자 모르고도 잘사는데.. 독서 많이 하면 한자 없이도 어휘력 많이 향상됨 한자 외울 시간에 영어단어나 외우겠다', 5, 7), ('기초 3000단어, 일상의사소통 1만 단어, 대학 수준 2만에서 3만 단어, 원어민처럼 막힘없이 구사하려면 5만 단어 이상... 이거 한자 얘기가 아니다. 영어 얘기다. 알파벳 숫자가 적다고 쉽게 익히고 한자 자수가 많다고 어려운 건 아니라 본다. 한자 1800자 외우는 공력은 영어단어 외우기의 10%에도 못 미친다. 방학 때 바짝 해도 한자3급은 딴다. 그러니 한자에 대한 거부감은 접어두고 한두 달 해봐라. 세상이 달라진다', 5, 4), ('다필요없고 롤이나없애라 인성망치는주범이저겜이다', 8, 0), ('솔직히 중학교 고등학교는 왜 필요한 지 몰겠다 사회나가서도 업무볼때 실제로 쓰이는건 초딩때 배운 수학이 다인데', 1, 6), ('잘했는데 뭐. 내신 때문에 사교육비 증폭된다는건 영?? 수능이 국영수탐한국사인 이상 뭐 그렇게 달라질거 있나?? 학교에서 후에 도움되라고 한자 소프트웨어 인성교육 예술 교육 강화한건 난 충분히 잘한 일이라 보는데ㅋㅋㅋ', 2, 0), ('한자와 한문은 다름한자는 영어로 치면 영어단어. 한문은 영어문장이라고 이해하시기 바람한자는 지금 이세상에 남아있는 유일한 표의문자. 즉 뜻글자한글이나 영어는 소리글자 즉 표음문자한자를 배우게 되면 음과 뜻. 두 개를 동시에 배우게 되기 때문에좌뇌와 우뇌 동시에 개발됨.어린 시절 한자를 잘 배우게 되면 중국어. 일어. 영어 쉽게배울 수 있음', 8, 3), ('짱깨 말 안배우고 말지 ㅉ 냄새풀풀나는 쓰레기억양 귀건강에 좋지 않을듯', 0, 1), ('근현대사 재미있게 가르치자.', 4, 2), ('반영하면 머하냐 나는 2017년 입학생인데...', 1, 1), ('영어교육이나좀 바꿔라 교과서 지문에다가 빈칸 몇개 만들어 내지말고 시험자체를 주제한게 던져주고 그주제에 맞게 영어로 대화하는형식으로 해야지 사회나가서 영어교과서 연설할일있냐', 5, 0), ('10년간 영어 배워서 말한마디 못하는건 니네가 못하는거지 한국이 문제가 아님. 한국만큼 영어교육관련 서적과 학원 자료가 많은나라 없다 진짜로. 텝스924 토익 990이다. 말 아주 잘된다. 니네가 공부를 덜해서 못하는거고 점수 높은애들이 낮은애들보다 말못해도 외국 한두달만 보내놓으면 훨씬 정확하고 다채로운 표현으로 회화함. 남탓그만해라', 1, 2), ('진짜 어이가 없네 대체 소프트웨어는 왜 배우는거내 차라리 선형대수 같은 수학과목을 선택적으로 들을 수 있게 늘리던가 니네 코딩의 기본이 논리력에 바탕을 두고 있는거는 아냐 쓸데없는 짓 하지 말아라 제발 아 진짜 다 죽이고 싶네', 4, 2), ('실행되기전에 졸업ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ', 3, 0), ('프로그래머 대우나 더 잘해주세요', 4, 1), ('국한혼용은 반대하지만 한자교육은 찬성한다 전부는 아니더라도 한자어 비중이 무시해도 될 수준은 아니니 한국어 사용에 도움은 되겠지... 그리고 밑에 분 뭘 모르는 모양인데 라틴어 영향 많이 받은 유럽은 학생한테 라틴어는 가르친다', 5, 5), ('대한민국 역사교육도 필수로 해주세요', 2, 0), ('다른건 그렇다치고, 고등학교 문.이과 통합은 잘못된거라고 보는데요. 문.이과 학생들의 머리가 다른데 통합되면 어케될지.. 참 걱정이네요', 8, 5), ('그냥 배우는 과목이 늘어나서 학생들만 고생할듯...', 3, 0), ('한자는 국어의 어근일뿐이고 어근의뜻만 알면되는거지 왜 한자를 알아야되냐? 국가의 국이 무슨뜻인지 도덕의 덕이 무슨뜻인지 그것도 감이안오냐? 한자 안배우면? 영어단어를 어근에따라 배우고 그어근은 라틴언데 한자 배우자는건 라틴어를 배우자는 개소리다. 그냥 그 어근이 무슨뜻인지만 알면 된다. 그리고 그어근은 아예 뜻과 통합시켜서 외우는거고. 그게 언어의 원리인데 한자좋아하는사람들은 양심을 버린건지 정말 모르는건지 한자를 배우자고 난리치는거다. 그게 어리석은짓이라 이거고', 3, 2), ('지들이 배우는거 아니라고 안그래도 애들 피말라 죽을라고 하는게 뭘 또 늘려?', 2, 0), ('선택이 아니라 필수를 만들어 버리면 애들이 또 얼마나 힘들겠냐... 에효 애들을 잡네잡아', 3, 0), ('왜 나 학교 다닐 땐 한자 안 배웠냐 ㅠ 한자가 진짜 영어보다 우리나라 살면서 쓸모 많다고 본다', 12, 2), ('국어도 제대로 모르면서 한자..? 풉', 2, 2), ('나3학년인데 체육없고 음악.미술없음 그리고 3년과정중에 생활과윤리 과목은 배우지도않음 교장죽었으면좋겠다', 4, 1), ('경제교육부터 늘려라 고등학교 문과란게 경제신문 어렵다고 손도 못대는 애들 천지다 이게다 경제 수능 안친다고 고등학교에서 안가르쳐서 그런거다', 3, 1), ("우리말은 다 한자로 돼 있다? 아니다 다 한글로 돼 있다. 어떤 언어든 다 어원이 있다. 영단어도 결국 라틴어 뿌리다. 그렇다고 라틴어 모른다고 영어를 못하는가? 미국인들이 라틴어 배우던가? 그냥 한자어가 우리 고유어가 된 것처럼 쓰면 된다. '사전' 이란 단어를 보라. 이 사전이란 뜻 모르는 사람? 근데 한자로 써볼 수 있는 사람? 없을 거다. 그냥 사전은 사전으로 알아들으면 된다. 동음이의어는 어쩌냐구? 영어에도 동음이의어가 있다. 그들은 문맥으로 파악한다. 영어 괄호 치고 라틴어 쓴 거 본적 있는가?", 3, 3), ('통합과학 통합사회 재밌겠네 다시 돌아가고싶다', 5, 0), ('한국사 한자 왜배우냐?? 조센징으로 태어난게 죄라서 그딴 쓰레기과목들 배워야되냐? 진짜 시간 개아깝다', 1, 6), ('토익 900에 한자 1급 있지만 정작 국어 띄어쓰기도 모르고 맞춤법 다 틀림. 이게 현실.', 14, 2), ('교육은 백년대계 라고 했습니다!', 1, 1), ('중국어를 가르치는건 어때?', 2, 1), ('이때가 졸업인데..ㅋㅋ', 0, 0), ('역사충들 오늘도 발정나서 주체를 못하네 정작 한중일 역잘알들은 왜곡때문에 쪽팔려서 아무 말도 안꺼내는데 말야', 0, 0), ('한자 주장하는 인간들은 왜 한글로 써서 주장을 하냐? 다 한자로 변환해서 쳐라. 한글이 편한 건 지들도 인정하나봐. 어원같은 소리하지마 그럼 영단어도 라틴어 어원 같이 공부해', 2, 1), ('결국 세종때문에 문자 두개 공부해야되는 꼴이네ㅋㅋㅋㅋㅋㅋ 백성들만 고통받는다', 3, 4), ('중국의 학자들도 자국의 발전을 가로막는 요소중 하나가 한자라고 이야기한다. 우리말에서 통용되는 한자어를 우리말로 바꾸는 작업을 활성화하고 통용되게 하는 노력이 필요하다고 생각한다. 그리고 한국사와 세계사의 심도깊은 교육은 반드시 필요하다!', 8, 1), ('새누리당의 문자 역주행이네. 자국의 자랑스러운 고유 문자를 가지고도 아직도 한자타령이라니... 순우리말을 늘려가진 못하고.. 후.. 어원이 한자라 어쩔 수 없다? 영어도 라틴어 어원같이 공부했어?', 8, 1), ('뭐 이리 밑세대 애들한테 요구하는게 많아. 왜 한국어도 없애버리지 글로벌시대라고 영어, 한자, 소프트웨어교육 강화. 그럼 첨부터 한국어 없애버리고 공용어로 영어, 중국어하면 편하잖아. 우리나라 한국어 문법도 공부 제대로 하려면 머리 뽀개짐. 이러니까 한곳으로 특출화된 인재가 없어서 과학계열 노벨상이 안 나오는거지. 뻑하면 모든영역 다 잘하래 노답들. 옆나라 일본만 해도 과학계열 노벨상 수상자 벌써 20명인가 나왔다 반성좀하세요 교육부 나으리들', 4, 0), ('인정할건 인정하자 중국어교육 대놓고하긴 그러니 밑밥깔아놓는거잖아;;', 1, 4), ('이렇게 한자사교육 열풍이 붑니다. 신문과 뉴스는 한자를 모르면 읽기힘든 세상이 되어가고. 정보는 일부 기득권의 것이 됩니다. 이것이 새누리가 노리는 거임. 국민 문맹률을 높여 노예로만들려고', 7, 2), ('소프트웨어가 다 영어아녀~~!!결국엔 영어교육(컴퓨터용어) 강화 정책이 될판이네~~!', 2, 1), ('인성교육은 누가 가르치지 인성이없는데 죄다 국영수에 목을멘 사람들뿐인데 애들을 조커로만들지나아닐런지 음ㅎㅎㅎ', 1, 0), ('문이과 구분 사라졌다고 의대,공대 쉽게 가는거 아니다. 공대,의대는 분명히 선택수학 요구할 것임', 2, 0), ('한자는 알아두면 좋지만 굳이 의무로 끼워가는건 아이들의 자유시간이 더더욱 사라지고.. 난 일본어 전공은아니지만 그래도 나름 읽고 쓸줄아는 한자가 꽤 되는데 정말 학교시험에서 다른과목점수 신경쓰면서 한자 점수도 만족할만큼 따내기엔 암기가 너무어렵습니다.. 나도 계속 잊어먹고 다시외우고하는데ㅡ.ㅡ 부수적인 선택이되야할듯 한자는...', 7, 1), ('sw무조건 해야지... sw모르고 어떻게 앞으로를 살아가나?', 2, 1), ('어찌보면 순우리말을 늘려가는 북한이 자기민족성이 더 투철한 거다.', 7, 0), ('현재 있는 컴퓨터 과목도 그냥 컴퓨터 게임하기 바쁘고 배우는것도 쥐뿔도 없는데 무슨 소프트웨어?ㅋㅋㅋ 공무원 새키들 생각하는 수준이 초등학생 수준이네', 2, 0), ('한자? 하안자? 유교나치 찍어내려고?', 4, 1), ('영어를 제2외국어로 돌리라니까!!', 5, 2), ('국어랑 한국사 그리고 윤리나 필수적으로 가르치길 수학 영어 레벨좀 낮추고 말입니다. 사교육업자 배나 불리는 행태는 그만 할 때가 되었다고 봅니다. 민생경제악화 내수시장축소의 주범---&gt;사! 교! 육!', 4, 2), ('한자고 뭐고 주요 과목 이수 단위를 줄이면 배우는 내용도 줄여야지...진도는 어떻게 나가냐ㅋㅋㅋ', 3, 0), ('국문과다녀도 한자 하나도몰라요ㅜㅜ 전혀필요없습니다. 교양한자는 중문과가 캐리하지 국문과는 한자랑 아무관련없어요', 6, 2), ('영어 잘하는 사람들은 영어의 근원인 라틴어도 다 알고 있는 건가요?', 4, 1), ('법을 가르치면 더 좋을텐데 ㅋㅋㅋ 그래야 폭행당해도 어떻게 대처할지도 알고 알비할때도 불이익이 없을거 아냐.', 10, 0), ('슬기로운생활바른생활탐구수업으로다시돌아가자모든게 아이들인성에도움된다', 3, 0), ('정말 잘한거다. 한자교육 강화시키는게. 우리나라는 한문 없이는 안된다. 한문이 없다는건 뿌리가 없다는거나 같다.', 1, 9), ('한자충들 노답이네. 영어단어도 다 라틴어 어원이있는데 영단어는 닥치고 외우면서 국어는 한자어원을 알아야만 한당께ㅋㅋㅋㅋ', 4, 2), ('잘 사육해....완전한 사육', 0, 0), ('한자가 아니라 국사나 강화해라 ㅂㄱ들아', 3, 2), ('인생설계하고 재무설계하는거나 가르쳐라 적어도 신불자은 안될테니', 2, 1), ('드디어.바램이 이루어졌다. 초등과목에 안전생활이 생겼다니 안전공학도 로서 매우 기쁘다. .', 3, 4), ('어째서 노동법, 경제 이런건 안가르치냐??', 6, 1), ('한자교육 늘리자는것들은 왜 댓글 쓸 때 한자로 변환해서 안 치냐? 어원? 근원? 영어단어도 라틴어 어원 찾아가며 외웠냐? ?', 2, 1), ('한자는 왜 강화해? 애들 한자 외우는게 얼마나 끔찍한줄 알아?', 20, 7), ('한자 빼고 세계사 강화가 시급', 2, 1), ('한자교육이 뭐 중국 편입 이런게 아니라 국어 단어 8~90%가 한자어인데 무슨 중국업니까 고등국어를 구사할려면 한자 필숩니다 에어컨 실외기지 에어컨 시레기가 뭡니까 한자만 알아도 쉽게 알 단어인데', 3, 6), ('안전교육? 진로설계? 아니죠. 교과수업하고 대학가라 다그치겠지~', 2, 0), ('어자피 기본 과목만 가르치면 다양하게 해보는 것도 나쁘진 않다고 보는데 (학생 땐 나도 싫었지만 ㅋ) 외국처럼 고등학교부터 전공 정해서 선택형 과정으로 하는 것도 좋을 것 같네요 이렇게 애매하게 배울바엔 한개 제대로 한것만도 못 함', 4, 0), ('영국이나 미국에서 라틴어 따로 배웁니까? 자기 말을 가지고도 언어의 근원을 배운다는 데 어불성설. 영어도 다 라틴어 근원이다 . 근데 영어 뜻 해석할 때 라틴어가 항상 필요하더냐?', 3, 0), ('Sw 나 한자나 사교육 개쩔어질듯.....', 8, 1), ('신문에나오는 한자도 못읽으면 공부하라고? ㅋㅋㅋㅋㅋㅋ 신문에 한자를 안쓰는방향으로가는게 맞는거 아니냐?', 7, 3), ('한자는 쓸데없이 왜넣냐...한자대신 술쳐먹고 지은 옛 국어시들없애고 국어교육이나 강화해라', 5, 1), ('공부빡쎄게 시켜도 뭐라고 안할테니까 교육 제도 그만좀 바꿔라..미국은 평생 1-2번 바꿀까 말까하는데뭔 놈의 나라가 1년에 한번씩 제도를 바꾸냐', 1, 2), ('인성은 꼭 제대로 가르쳤으면 좋겠어요. 예전 교련이나 그런 과목처럼 적당히 떼우지 말고, 아무 선생님이나 맡지 말고... 물론 훌륭한 선생님들도 많으시지만, 전문 지식도 확실히 있고 인성을 말할 자격 있는 더 훌륭한 분들이 열심히 궁리해서 잘 가르쳤으면. 정말 중요한데 교육 방법이 관건일 것 같네요.', 2, 0), ('..18년도면 나 고딩되는 년도인데..망햇다', 0, 1), ('일단 대학입시위주의 교육시스템부터 바꿔야 함. 대학도 순수학문을 공부하고 싶은 사람만 가게하고, 실제업무 경력을 쌓고 싶다하면 해당업무 전문교육을 시켜야함. 그러기 위해서는 고졸출신을 홀대하는 것, 4년제 대학졸업자 우선선발같은 사회 분위기를 바꿔야지.', 3, 1), ('공부안될거같으면 조금이라도 어릴때 자신이 하고싶은거나 잘할수있는거로 갈아타시길 이젠 공부로는 못먹고삼;;;', 2, 0), ('본인이 원하고 잘하는것에 초점을 맞춘 교육체계로 왜 바꿔주지 못하나 국영수 과탐 사탐 한국사까지 왜 다 잘해야만 하는건대? 어린아이를 쥐어짜야 하는 이 현실...엄마가 미안해...우리딸', 0, 1), ('한자????ㅋㅋㅋ 중국편입준비 하시나??', 4, 2), ('순우리말을 늘릴 생각은 안 하고 한자교육 강화...? 미친것들..', 3, 3), ('또 바꾸내ㅋㅋㅋㅋㅋㅋㅋㅋ', 1, 0), ('이렇든 저렇든 비판만해대는넘들 진짜 보기싫다...', 1, 3), ('소프트웨어 좀 가르칠 필요가 있다. 할줄 아는거없는 문돌이새끼들은 좀 지들이 쪼르는 게 얼마나 말도 안되는 건지 알 필요가 있음.', 3, 1), ('원래 한자 컴퓨터 시간있었고 그 짧은 시간동안 it실무자 될 만큼 교육받지도 못 합니다 그냥 교양 수준인거지 고등수준에서 실력자되는건 디미고 선린고 이런 얘들이지 일반고얘들이 하긴 뭘함 ㅋㅋ', 2, 1), ('저기 추가하는것들 한문은 호불호가 갈리지만 일단 배워서 절대 나쁠것 없는 과목들이다.하지만 공부량이 늘고 학생들의 자유시간이 줄어드는것은 어쩔수가 없다.이 문제를 어찌해결하는거지', 3, 1), ('아니 한자교육을 왜 강화 하냐 한자몰라 의사소통 안되는 사회도 아니고 ㅋㅋㅋㅋ 앞으로는 영어 배울려면 중세 프랑스어 라틴어 배워야 하겠네', 2, 2), ('차라리 금융이나 회계적 지식이나 경영을 가르쳐라. 경제지식에 대해서 개념 없는 인간들이 너무많다. 실용학문을 가르쳐야지 두루두루 도움이 된다', 3, 0), ('맞춤법이나 띄어쓰기도 제대로 모르는 국민이 태반인데 뭐? 한자?', 3, 0), ('실용한자 정도는 가르쳐야 한다고 봅니다. 저도 어렸을때부터 서예학원 다니면서 한자 급수 자격증 계속 따왔는데 확실히 어려운 단어라도 한자로 뜻 추측해서 이해한 적이 많았어요', 2, 3), ('됐고 교과서수준이나 바꾸라고 6차때학습시켰던수준으로~~!!!!지금초등교과서보면 장난아닌거 댁들은아냐고~~?!!!!', 1, 0), ('에휴~~할게 더 많아진 느끼이네요 답답합니다', 1, 0), ('ㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇ', 0, 1), ('역사교육은??? 역사가 제일 중요하다고. 다른 나라는 거짓을 꾸며 진실로 가르치기까지 하는데. 우리는 진실도 가르치지 않는다. 인터넷에는 "역사는 모르지만... 어쩌고 저쩌고" 이게 교육의 현실이다. 부끄럽지 않은가!!!!', 4, 0), ('소프트웨어 시간은 백타 컴터실에서 스타하는시간 될듯', 7, 0), ('대학에 목메는 사회인식이 바뀌면 자연스레 사교육도 느슨해지겠죠 한국사회는 고졸자가 떳떳이 사회생활하기 어렵더라구요 당장 나부터...대학이 필수가 되다보니 입시에 목메게 되고 그럼 교육을 아무리 개혁해도 제자리걸음이 아닌가 싶어요', 2, 0), ('한자...? ? 미국에서 영어 근원인 라틴어 배우더냐? 한글만 알아도 충분하다. 뭔놈의 한자냐. 어떤 나라든 동음이의어는 있고 다 문맥으로 파악한다.', 8, 2), ('가장 중요한 것은 역사와 수능 따위를 위한 죽은 영어가 아니라 외국인과 대화할 능력을 기를 수 있는 회화가 중요한 듯 싶습니다만? 노땅 꼰대님들;', 1, 1), ('그런데 세상이 그대로라...', 0, 0), ('It교육을 고등과정까지 받는다- 미국에 간다 :)', 1, 0), ('솔직히 인성교육같은게 필요없다고 보는데 매일 한시간 주고 그시간에 책만 읽게해도 성격 좋아진다', 0, 3), ('우리는 영어권 국가가 아니다 / 한번에 다 먹을 수 없다 / 오히려 해당 부문에 성숙도가 낮아질 우려가 있다', 1, 0), ('중국이 강해지면 중국어과 갈 사람만 한자하면 되지. 전국민이 왜 외국어를 잘 해야 되는데. 일본 가 봐라. 일본사람 일본어만 잘 한다. 약소국가 티 내냐.', 5, 2), ('ㅋㅋㅋㅋ 헬조센 교육시스템자체가 근본부터 썩었는데 거기에 한자 it교육시킨다고 뭐가 달라지겠니?', 3, 1), ('오늘날 우리사회가 이지경이 된것은 인성교육이나 예절 한자교육같은 것을 포기한 댓가다 늦게나마 잘 한거니 빨리 시행하라 특히 한자교육으로 동양사상의 효부터 가르쳐라 일본 중국 북한얘들보다도 한자를 모른다 교육당국 너그들이 아이들을 바보들로 만들었다 아그들이 너무 싸가지 없이 커서 어른한테 덤벼들고 부모한테도 대드는 것이다 반대하는넘들은 지도 지자식한테 당해봐야 맛을 알거다 지자식은 안그럴줄 알겠지 컴퓨터만 백날 가르쳐봐라 냉혈인간 사이보그나 되겠지 명심해라', 1, 1), ('맞춤법은 국어시간에 가르쳐주지만 진짜 별 도움안됀다. 혼자하는게 더 좋음', 2, 1), ('한자를 왜 하냐고 ㅡㅡ... 차라리 한국사 특히 근현대사를 좀 봐야지 지금 우리나라가 다른 동아시아에 비해서 한자실력이 부족하다 그러는데 이 나라는 한글 문맥으로 충분히 뜻을 구별 한단 말야 굳이 애들한테 부담을 지워놓을 필요가 있나?', 2, 3), ('국어줄이고 일본어 늘려요', 4, 8), ('교육이 정방향을 찾기 위해서는 시대에 따라 학교에서 교육을 주 교육할 수 있어야 하는데, 이렇게 바꾸는 것도 중요하지만 공교육도 같이 강화해야 한다고 생각합니다.', 2, 0), ('현 입시제도가 계속 존재하는한 무한경쟁 및 주입식교육은 계속될것이며, 결국 인성을 교과목화 시킨다는 것은 인성도 주입식 교육이 될게 불보듯 뻔하다. 나도 지금 현 교직에 있지만 이런식의 교육은 진정한 의미의 교육이 아닌것 같다.... 우리 아이들이 너무 안쓰럽다....', 7, 0), ('그시간에 한글 교육 더시키지', 3, 0), ('중국이 강해지니깐 한자배우기??우리말은??? 우리는 이렇게 빌붙어 사는겨??영어..한자..', 4, 0), ('더 나은 방향으로 바뀌는건 좋은데... 이게 제대로 시행되려면 사범대나 교대의 교육과정도 바껴야 되지 않을까요?', 1, 0), ('좋아요~하지만 사교육 안없어지면 해도 도로묵!', 0, 0), ('고등학교 한문 별로인데..', 10, 4), ('한자가 왜 필요하냐? 애들 교육 부담을 줄여야지.', 12, 6), ('제발 학교에서 학습만 책임져주면 인성교육 체력단련 모두 부모가 다할수있다.정작 학교가 공부를 제대로 안가르치니 부모들이 사교육비용 버느라고 자식하고 오순도순 마주할 여력이없다.세계어딜가봐도 세금을로 교사연금 충당하는 나라는 드물다.근데 왜 학습을 책임지지않니?!', 4, 1), ('국영수하기에도 바쁜데 뭘한자까지 ㅋㅋ', 4, 0), ('한자보단 한국사, 영어듣기/독해보단 영어회화!!', 1, 1), ("뜬금없는 이야기인데 '되'랑 '돼', '안'과 '않' 좀 통합하면 안 되냐??? 왜 불편하게 구분짓는 거임", 0, 4), ('저런거는 강화하더라도 초딩이나 중딩때나 해야지.. 수험생들은 수능과목 하기도 벅찬게 현실이다ㅠ', 16, 0), ('그런대 이런과목이 뭐가중요해요?? 결국은 진로가 중요하잖아요 그러면 자기능력을 개발할 시간을 줘야지 무조권 교육바꾸면 괜찮아 지겠어요? 자기가 잘하는것을 개발해야지 자기가 못하는거 계속하면 공부할생각 나겠나요? 공부는 어느정도하고 자기가 가장 잘하는것을 개발시킬생각을해야지', 5, 0), ('역사를 잊어버리는 국가는 우리나라가 유일할거다', 1, 2), ('나라꼴잘돌아간다.이나라에서 더 살 가능성이 안보인다.', 4, 1), ('컴퓨터 교육학과도 생기려나', 5, 0), ('한자가 왜 필요하냐? 기초 과학에나 올인해라. 쓸데 없는 노인네들아', 8, 5), ('그 시간에 한글 맞춤법이나 표준어 교육 좀 강화해라. "않되" 이것 좀 그만 보고싶다.', 21, 0), ('경남 서술형 100% 어쩔끼고', 2, 1), ('통합 과목도 좋지만...수업 시간 과 내용을 줄여 주신다면...정말 좋지 읺을까...', 3, 0), ('배워서 나쁠 건 없다지만 이것저것 잡다하게 하다보니 이도저도 아니게 된다는 게 문제다.', 4, 1), ('애낳기싫다 10자.', 5, 0), ('교육과정을 아무리 잘 만들어도 입시제도가 개선되지 않는한 공염불이 될 것이라 생각됨.인성교육의 근본은 영유아 시절에 부모의 생각과 행동을 보고 이미 결정되므로 교육과정에서 추구하는 인간상은 교육을 통해서 변화시키려는 발상이 잘못된 생각이며 결국은 유대인처럼 어릴적 가정에서 부모를 통해 자연스럽게 인간성이 형성된다고 생각함.', 3, 0), ('한자를 교양으로 알면 좋은거지 굳이가르쳐야 할 필요는 없다고 봄. 책도 신문도 심지어 법전도 다 한글인데 뒤돌아서면 까먹는 한자를 왜 외우냐', 12, 6), ('진짜 이민가고싶겠다', 7, 0), ('백년대개인 교육이 수장이 바뀔때마다 이리저리 바뀌고 혼선만 초래하고 우리 학교 다닐 때 한자교육 했다 안했다 아이고 도대체 어떤 장단에 춤을 춰야 하는지...', 2, 0), ('시민 의견 전달하는 뭐 시민의소리? 거기다 썩은놈년들 다 내려오라하면 내려오냐? 그게 나라를 위한거다.', 0, 0), ('소프트웨어는 이제 필수적이어서 어느정도 다룰줄 알아야 한다. 그리고 한자도 국어에 있어서 필요한것이고 일본에 뒤지지 않도록 배울 필요가 있지.', 2, 1), ('인성교육을 할만한 인성을 갖춘 교사가 드문데 교과목에 인성교육시간을 넣고 체육시간에 시간만 때우는 현실은 무시한체 체육시간을 또 늘리고..결국 모든 학습은 사교육으로만 해결가능하겠구나.', 8, 0), ('영어하나도 힘든데 한자까지..ㅋ 진심 앞으로 고딩될 애들 불쌍타..', 16, 3), ("주입식교육의 그'주입'도 안한놈들이 현 교육제도 체제비판하는게 난 존나웃긴다 맨날 쉬운거만 고집하다가 수학과 과목에서는 결국 문과생은 삼각함수를 배우지않게됫고 앞으로 교육과정에서도 문이과 통합으로인해 수학은 더욱더 쉬워질텐데 이러면 중위권부터 분별이안되 무너지게될것이다. 맨날 노력은안하고 쉽게하라는놈들이 나라망치는 주범이아", 1, 3), ('인성교육은 꼭 비중 있게 다뤘으면 좋겠어요.한글과 영어 스피치도 그랬음 좋겠지만... 어쨌든 인성은 꼭!', 3, 1), ('한자는 무슨 시발 얼어죽을 퇴보시키냐?', 6, 5), ('교육제도를 이딴식으로 할거면 차라리 집에서 가르치겠다 000들아 정치인이라고 대거리에 뭐가들어있냐? 뭐하냐? 툭하면 비리에 부정선거한것들이 뭐가 잘나서 갑질인지멀쩡한 우편번호는 왜바꿨냐 일일이 다시검색해서 써야되는게 편리한거냐?생각없는인간들 싹다내려와라', 2, 1), ('똥싸고 앉아있네...', 7, 2), ('사교육비 더 들겠네요.', 5, 3), ('왜 배워야하는지 부터 알리는게 먼저아니냐', 6, 0), ('날이갈수록 시대에 역행하는구나, 한자교육을 하기보다 정부부터 한글사용 확장시켜가면서 한글,국어,국사를 강조해야하는거 아닌가.. 세상에 이렇게 과학적이고 세계에서 최고라는 한글을 냅두고 영어나 한문만 강조하고 인성을 키울생각을 안하고 경쟁시킬생각만하니....', 15, 7), ('한자는 필수과목으로 해야한다고교용어 대부분이 한자어인데 한자도 모르면서 공부만하면 머리에 들어오는게 없다', 2, 6), ('SW 해서 뭐해..', 5, 2), ('한자도 필요하긴 한데 왜 굳이 강화한다는건지 sw랑 같은 급으로 현대사회에 필요성이 증가한건가?', 3, 0), ('소프트웨어 기본 c언어 교육시킨다음에 값 산 코딩쟁이들 미리 육성 시킬려는거보소', 4, 1), ('한국사 며칠후에 시험봐서 공부히는중인데 필수도 무조건 해야한다', 0, 1), ('역사과 교육이 보수적 어쩌구해도 사실 한국사 보면 나라에 대한 자긍심은 무슨 맨날 얻어터지기만하고 500년 중국 속국에 거의 반백년 일본 속국에.. 오히려 나라에 대한 특히 정부에 대한 충성이 아닌 불신을 갖출거 같은데요', 6, 2), ('1년이 다르다하고 교육이 바뀌니 할말이 없닼ㅋㅋㅋ 어떻게 1살 차이나는 동생이랑 배우는게 천지차이냐', 22, 1), ('수능보는 애들은 한자수업 저런거 해봤자 눈에 안들어올텐데 언수외탐하기 바쁘지.. 수업을 안들을수도 없고 수험생 입장에서 저런거 난감하다ㅠ', 10, 1), ('영어시간을 쪼개 다른 외국어도 배울기회를 줘야한다..영어가 국어수학이랑 동등한게 현시대와서는 어폐가 있다', 4, 1), ('애초에 한자는 어릴때 국어 배울때 같이배워야 한다고본다..그래야 우리말 어휘력이늘지 허구언날 시에서 이건 죽음을암시한다~ 이건 영탄법이다~ 이짓거리 하고있으니.. 정작 그 시를 쓴 사람에게 문제를내면 틀린다더라...', 8, 1), ('지금 현장수업들을 보고 말씀하시죠? 대통령 교육부장관 관계자들. ebs교재와 교과서와 교과과정이 따로 노는 이상한 대한민국인데? 아실까요..?', 2, 0), ('수업과목 늘릴생각말고 교육체제 바꿀생각해라...노답...', 25, 0), ('한자를 배우라고 주장할 것이 아니라 일본에서 급하게 따다 쓰느라 말도 안되고 어려운 한자 전문 용어를 우리말로 바꾸어야지. 실제로도 그 작업이 현재진행중이고. 용어가 어려우니 한자를 배우라는 건 학문체계를 일반이 접근하기 쉽게 고치고 다듬을 노력은 하지않고 모든 책임을 후손에게 전가하는 무책임한 발언일 뿐이다.', 10, 1), ('한자 인성교육 존나 쓸데없는거 가르치네', 10, 4), ('한국사가 기초교과라... 나쁘다는 것은 아니지만 조금 정권을 타는 경향이 보인다. 노무현 정권 이후 이명박 박근혜 정부를 거치면서 나라가 보수화 되면서 역사과에만 집중하는듯 보인다. 진정한 민주시민의식을 바탕으로 비판적인 민주시민을 양성하고, 정의로운 공동체와 배려하고 공감하는 인간을 만들어 내기 위해서는 사회과교육과 윤리과교육이 뒷받쳐줘야 한다고 생각하는데 요즘을 보면 역사과교육에 치우친 느낌이다. 정치나 법, 윤리 과목도 골고루 필요하다.', 3, 0), ('한자배우면 진짜 조아요///', 2, 5), ('아니 할꺼먄 좀 빨리하자18년도 는 누구 머리에서 나온거고수학어렵다고 줄여줘어제보니 과학도 어렵다고 풀어줘이런 소프트웨어나 한자 한국사는 필요하다 싶으면 좀 빨리해라ㅡ진짜 답답하네', 3, 0), ('인성교육 이나 제대로해 ‥ 학생이나 교사나 특히 교장들', 2, 1), ('이왕이면 한문교과는 실용성있게 중국어 일본어 등 제2외국어를 가르쳐야', 3, 1), ('대학의 로비가 잘 먹혔군. 이제 대학장사를 4년에서 6년동안 해쳐 먹겠군요. 2년을 더 대학에 바치는 군....', 4, 0), ('어릴때부터 영어나 미친듯이 교육해라', 2, 3), ('우리나라 고등학생들은 해를 거듭할수록 공부할게 많아지니 참 힘들겠네요 ㅜㅜ 문과생들이 미적분을 공부하고 한국사가 수능필수가 되고 이제는 한자마저 공부하라니 정말 박터지겠습니다', 3, 1), ('조선족 한테는 한국어 가르쳐 한국인한텐 한문 가르쳐 참 반대로 하기도 힘든데 니들 정치인들의 머릿속이란 참~개보다 못하구나 조선족을 한국인인냥 만들고 좋냐~? 난 이제 이나라 민족성도 없다 하도 뿔뿔이 제 멋대로 정치라서중국 조선족 키우고 양성하는 한국 머저리 정치인들', 5, 0), ('주입식 교육으로 자주적 창의적 도덕적 교양있는 사람을 만들겠다는 목표를 세우다니 놀랍다.....그냥 우리는 살아있는 기계를 만들겠다라고 하시지...', 1, 0), ('ebs연계교육과정부터 바꾸시죠? 고3수업에 들어가보시고 말씀하세요.교과서는 그냥 버리고 ebs교재만 구입하고 수업하는 이런교육 아시나요? 대통령.교육부장관.관계자들 좀 현실을 보고 말씀하세요. 네?', 4, 0), ('학벌중심사회.... 강남8학군중심의 기득권지키기 수단인 학벌중심사회가 타파되지않고는 아무효과없다 인간의 인성과 다양성 개성이 존중되는 사회로가야 한국이 한단계 업그레이드된다', 0, 0), ('중고딩이 코딩을 한다참. 천재. 한두명 빼고 그냥 자는 시간', 1, 1), ('가르칠 인재가 있으려나.', 0, 0), ('그래서 수능 국영수는 몇점인데 그리고 인성교육은 수능에 있냐.없으면 안해. 오로지 수능이야 수능 수능이최고야', 1, 0), ('고3들도 하나? 고3때는 분명 학교에서 ebs교재만 할텐데', 1, 0), ('한자보가 중국어교육이.시급하다.', 1, 1), ('대한민국에서 한자를 가르쳐야 한다고 주장하는 사람은 한자 학습지 판매원이나 관련자들뿐이다. 한자는 이제 죽은 문자다. 배우고 가르쳐야 할 문자가 아니라 우리 생활에서 하나씩 지워내야 할 문자인 것이다. 이에 대한 필요성을 인식하고 교과서 신문 법전에서 한자 지워내기를 진행해 왔던 것인데 이제 와서 한자 교육 강화는 시대의 흐름에 역행하는 시대착오적 정책이다.', 27, 19), ('한국사를 전 국어처럼 가르쳐야한다고 생각함.미래를 짊어질 청년들에게 우리나라에 역사는 반드시 알고 깨우치는게 맞다고생각드네여.', 3, 0), ('한자교육 강화는 호불호 가 갈릴것 같은대 일단 좋은점은 열심히 한자를 공부하면 한국어 단어가 한자어가 많기 때문에 이해 할수있어서 일상생활에도 사용할수 있음 반면 단점은 다른과목도 공부해야하서 한자 공부를 안할수있어서 시간낭비가 될수도 있슴 결론은 자기가 마음을 잡아야 잘하지 안하는 사람은 안됨', 6, 1), ('Sw를 왜 배우냐? 전국에 삼성컴퓨터 깔아서 내수 살리게? 매년 업그레이드도 해야겠네? ㅋㅋ', 54, 5), ('난 대학에서 우리나라 근대 문학에 대한 교양 과목을 들었는데 국어가 이렇게 재미있는지는 처음 알았음... 고등학교 때는 그냥 지문 읽고 문맥보고 객관식 푸는 게 다 였는데', 16, 1), ('국사는 하지마라... 시험문제에 연도 순서나열 같은거로 학생들 흥미만 떨어뜨린다.... 차라리 나중에 수능끝나고 한국사능력검정시험이나 보게 해라...', 7, 3), ('머한민국 헬조센 교육과정을 믿으면안되지. 도덕이라는 과목도 암기과목으로 만들어버리는 나라인데. 저거 두개 생기면 오히려 학생들만 죽어나간다.', 6, 1), ('애들다 빡대가리만들생각인가 지금수학영어에서 뭘더 없애고 줄이겟다고 난리인지ㅋㅋㅋㅋ 지금수능도 충분히 쉽고 영어는 역대급으로 쉽다고 언론에서 떠들어대는데 공부하기싫은애들이 인터넷에서 맨날 수학 영어 왜배우는지 모르겟다고 찡찡대고 심지어 문과는이제 삼각함수도 안배운다매? 우리나라 걱정이다참', 1, 0), ('우리나라 선진국중에서 수업시간이 가장 많다는걸 알고도 늘리고싶을까...', 2, 0), ('한자는 우리 말이랜다 금문은 중국발음으로는 해석되지않고 우리말로 해석된다고 한다. 우리 문자와언어가 있어 한글도 창제 가능했던것이라고 봄', 3, 0), ('한문은 배워서 나쁠거 없다 시ㅣ발 내 예측 다맞네 5년전부터 한국사 한자 거의 필수 될거 같아서 햇는디ㅋ 이미 한국사는 필수 댓지?', 2, 4), ('문이과 통합은 바보같은 일, 학생 스스로 자기 진로에 맞는 교과과목을 선택해야.. 국수주의적 역사교육 개혁해야.. 한자 역시 미래 중국어와 일본어를 배울 학생들을 위해 중문 혹은 간지를 배우게 해야..', 3, 3), ('교육이 정립이 안되니 교육제도 죽어라 따라가봤자 인간으로써 성장을 못하는거다. 그저 남는건 학벌이라는 허울 뿐이지. 개뿔 바보처럼 성장해놓고 좋은 대학 나왔다고 유세만 부리는게 현대한민국 교육의 주소 ㅋ 그리고 여전히 그걸 맹목적으로 추종하는게 대한민국 클라스 ㅋ 이러니 다들 죽어라 뭐 열심히하는거같은데 발전이 없는거다.', 2, 1), ('사전 찾아보면 되는데 뭔 한자를 알아야 그 용어 의미를 알 수 있다 그러냐? 참 웃긴다', 14, 3), ('인성교육도 좀 시켜라', 21, 1), ('초등학교에서 한글 가르치나요??', 2, 0), ('해킹 교육 강화 예정임?????', 3, 0), ('소프트웨어 교육?? ㅋㅋㅋ그게 교육한다고 되냐??ㅂ. ㅅ들....', 12, 2), ('학생들만 더 힘들어지지...', 3, 0), ('역사도 모르는데 그것만 강화하면 뭐함?그거를 강화하기전 역사에 관련되있는국사 부활과 한국사 강화를 해야지 에휴답닥', 1, 0), ('뭘 더 하려고 하지 말고 뺄 거를 생각해 OOO들아.', 2, 0), ('ㅅㄱ ㅋㅋㅋㅋㅋㅋㅋ', 0, 0), ('2017한국사 필수 2018 한자 뭘 자꾸 꾸역꾸역 처넣냐갈수록 더 불쌍하네 한포자 나올듯', 34, 7), ('한자는 초딩때가르쳐야지 늦게와서무슨~', 5, 1), ('답답한게 저렇게 갈수록 학생들의 학습부담만 늘어날 뿐.. 국어 영어 수학을 좀 쉽게 만들어.. 대학수준에 어울리는건 대학으로 보내고 고교 과정을 더 쉽게 해야지. 한국사도 지금 내용이 너무 많다. 아무리 절대평가제라고 하지만 한국사 내용 자체가 과도하게 많다. 수업 단위수를 줄이고 대신 불필요한 내용 좀 빼. 한국사 내용보면 너무 많아 적당히 압축할 내용은 압축하고 생략할 수 있는 건 생략해. 무슨 고교 교육과정을 사학과 처럼 가르치려고 하니..', 15, 4), ('네 다음 자는시간 or 자습시간', 1, 0), ('아니뭐하러 문이과를통합하는지..ㅉ 자기가 잘하는거살려야지', 20, 2), ('한자는 뭐하러 배우냐;; 정작 우리가 배우는 한자 중국은 쓰지도 않잖아 ㅋㅋ 기껏해야 일본에서 쓰는데... 나중에 일본어 배울땐 편하겠네 ㅋㅋㅋㅋ 한자를 배우자는 놈들은 친일 매국노 새끼덜이다.', 5, 3), ('교과에서 국영수 비율을 30%이하로 낮추고 특기교육과 인성교육에 치중해라.', 1, 1), ('고등학교부터는 할게 너무 많다. 시험치는데 과목이 10개가 넘어가고 그것도 치고나면 몇주후에 다 까먹고 차라리 문이과에서 탐구과목 선택이 아니라 고1때부터 하고싶은과목 몇개를 골라서 하는게 더 효율이 좋다고 생각한다. 공부좀 하다보면 좋아하는과목은 재밋게 공부가 되는데 나같이 물리 생물이 잼병인 놈한테는 공부하는게 고통스럽다 그러니 과목을 선택으로 하고 남는시간에 책을 읽게 해야한다.지금같은 교육을 받는 아이들은 생각이란것을 잘 못한다.책을 읽기만 해도 많은 생각이 가능하고 인성도 좋아지는데 그것을 간과한다.', 3, 1), ('우리나라아이들이만능맥가이버도아니고...무조건추가할게아니라ㅠㅠ과목을스스로선택할수있도록해주어야하는거아닌지참....학교안다니시는분들이책상에앉아행정으로만정책을만드시는거라너무하시는군요아이들지금도많이힘듭니다예전같지않아서체육이면체육예술이면예술안하는거없답니다제발!!!!본인들이먼저행동으로옮길수있는지생각해보시고정책을만들어나갔으면합니다!!', 18, 0), ('직업학교다 실용학교다해서 고등교육이 세분화되고 실용화되도 모자랄판에 우리 선비의나라는 역시 공자왈맹자왈부터 깨쳐야 코딩하고 설계하고 투자할수있다. 안그래도 인구적은나라에 영어로거르고 한문으로거르고 수능으로거르고... 거르고걸러서 직장들어가면 일배우기전에 사내정치부터배우고, 어쩌다 재능과 노력 그리고 운이 맞아떨어진 지디나 박세리같은 천재가 나오면 그때서야 국가의 자랑이네 어쩌네하더라.', 4, 0), ('한자극혐.ㅡㅡㅡㅡㅡ', 4, 2), ('솔직히 바보 아닌이상 기본 맞춤법은 초등학교 받아쓰기에서 마무리하지 한자 교육 유무에 달라지는게 아니다.', 6, 1), ('다른건몰라도 한국사교육은 철저하게시켜라', 5, 4), ('안전교육 심폐소생술 수영 기타응급상황 대처법 도 강화되면 금상첨화일듯 융합으로가는 건 방향을 잘 잡은듯!!', 2, 0), ('실외기를 시래기로 적는 무식자들이 늘고있다 허나 한자교육을늘린다고 공부를하냐?? 중국인도 안하는걸...', 1, 0), ('쓸모없는 한자는 왜 가르치냐? 중국한테 먹힐때 대비하냐?', 4, 4), ('노예양산 시스템 업데이트 ㅋㅋ', 6, 1), ('우리나라의 언어 국어나 제대로 가르치는게 좋을듯', 68, 3), ('한자쓸데없다 다 배울 필요없다란말이다 기본만하고 한국사나 공부시켜라 과거를모르면 미래도없다..', 17, 12), ('개인적으로 미술 음악 이두개할바에 그냥 책읽게하는게 낫다봄책만 읽어도 인성이 좋아지는데 책을 안읽지 요즘 애들은고등학교부터는 읽고싶어도 읽을시간이 잘 안나고', 14, 9), ('공부할거 또 늘엇다 고딩들아 공부하자.. OOO', 5, 0), ('제발 중학용 900 고등용 1800 이딴 것좀 없애라 전국에 한문과도 몇개 있더만 이런 인재들 모아서 정말 실생활에 필요한 한자를 먼저 가르쳐라', 4, 2), ('노동법 같은 살아가는 데 도움이 될만한 법과목도 채택해주면 좋을텐데', 4, 0), ('인성교육이나 해라~~~', 12, 4), ("한자 몰라도 단어 뜻 다 안다 난 '예술' 한자로 어떻게 쓰는지 모르지만 대충 뜻은 알지", 4, 4), ('아니 sw는 걍 현역들한테 잘해주고 한자는 책읽을 시간만 충분히 나도 어느정도 매꿔지는데 이걸 또 사교육시장 열리게 만드네', 8, 1), ('괜찮넹 부럽다ㅠㅠ 저게 또 대학으로만 연결이 안되면 취지는 좋지..', 1, 2), ('재수생의 스트레스는 쌓여만간다', 20, 1), ('그런 뻘짓하지 말고 국어, 예절교육, 국사나 가르치라고.. 지금 SW랑 외국어가 중요한게 아냐 머저리들아..', 29, 7), ('새로운 사교육 시장의 등장!!', 67, 2), ('저 올해 고3수험생 학생입니다 정말이해가 안되는게 있습니다. 저는 문과라 수학을 수학1과 미적분과 통계기본을 배워서 수학A형을 수능에서 쳐야합니다 근데 왜 이과 학생들도 A형을 칠수있게 만든겁니까 문과학생들만 죽어가는 겁니다. 이과학생들은 B형 점수안나오니깐 A형쳐서 점수잘받아냐지 이 마인드입니다. 밸런스맞게 국어도 이정도 차이가 날수있도록 만들거나 수학A B형을 없앴으면 좋겠습니다.', 46, 10), ('영어 맨날 문법만 쳐 가르치지 말고 말하기 스피킹좀 시켜라 문법도 중요하지만 외국나가면 그닥 그래 안중요하다', 9, 4), ('한자 폐기가 마당하다 그림 문자 없어저야 한다 중국도 사용 안한다 너무 어러워서', 4, 4), ('한국사도 좀 강화하자', 63, 8), ('솔직히 이제 세계구도가 중국이 크고 있어서 한자 배우는 게 더 도움 된다고 본다. 결론은 고딩들아 수고행^^', 0, 6), ('ㅎㅎㅎㅋㅋㅋㅋㅋㅋㅋㅋ', 0, 0), ('자유학기제는 ㄹㅇ쓸모없는거같음', 84, 9), ('우리말 70퍼가 한자어고 한자를 알아야 우리말 생활하기가 더편하다 의미차이에 의한 오해도 줄어들고', 6, 5), ('국어 수학 영어 한국사 이렇게 묶어서 수업시간 50프로 미만으로 지정하면...한국사 수업시간을 줄일듯한데?', 36, 0), ('은근히 한자 많이 쓰더라 고등학생때 이런걸 왜배우지 싶었는데 한자를 아니까 중국어 공부할때도 도움됐었음물론 중국어를 배우려면 중국어를 배우는 게 낫지만 한자를 배워서 나쁠거없음', 4, 3), ('한자를 왜 가르치냐고? 비행기 타고 1시간 바로 옆동네 중국이 세계 제1의 경제대국이다. 인터넷에서 중국 비하 하기 비쁘지! 중국 함 가봐라~', 2, 5), ('컴퓨터공학과 학생인데요 sw보다 컴퓨터 구조나 작동원리를 가르치는게 더 낫지 않을까요? 코드는 조금배워봣자 아무 쓸모 없는데..', 71, 12), ('언어생활 중 대부분 언어들이 한자어에요.. 한자배우면 모르는 말이어도 음 듣고 어느정도 뜻 파악가능하고, 언어적 소양 기르는 데에도 도움됩니다..', 2, 7), ('한자 사용 줄이고 우리말 바꿔서 쓰게해야되는거 아니냐? 중간에 시행착오가 있더라도 한자사용 줄여야지. 교육이 어째 거꾸로 가는지 모르겠다;; 애들한테 되도않는 sw 로 부담주지말고 즐겁고 실질적인 교육을 해줘라', 15, 7), ('한자를 그냥 외우게 하는 게 아니라 현대국어에서 어떻게 한자가 쓰이는 지를 중심으로 교과과정을 편성했으면 좋겠다. 그 이상은 전공자들이 공부하게 하고.', 108, 8), ('야 안그래도 빡샌데 쓰잘대기없는 한자땜시 시험기간에 얼마나 사간낭비 하는줄 알고 말하냐', 19, 8), ('영어스피킹이나 가르쳐라. 십년넘게 영어공부해봤자 외국인이랑 대화한마디는하냐?', 1281, 115), ('한자 외우는거 진짜 토나옴', 21, 14), ('애들은 다 ㅂ;ㅅ 만들어 놀려고그러나', 45, 2), ('한자를 획그어가며 쓰질 않아서그렇지 알게모르게 많이 도움되는데 왜 소용없다그러는거지.. 영단어외울때 어원알고 외우면 오래암기되고 모르는단어 만났을때 유추가능한거처럼 한자알면 한국어배우고 쓸때 도움많이되는데', 63, 18), ('한국어가 기본적으로 한자어와 고유어로 이루어져있는데한자교육이 왜 불필요하다는건지 오히려 실생활에 불필요한건 수학이죠', 2, 6), ('무엇을 배우는거보다 지금은 어떻게 배우는지가 더 중요한듯.', 578, 19), ('그래봤자 특히 고등학교에서는 교과서는 장식이고 문제집으로 문제풀이 수업만 주구장창 될것 같네요.... 수업 방식부터 바뀌어야 할듯!', 69, 5), ('교양 없는 놈들이 한자 무쓸모라고 하고 공감하는거에 소름', 4, 8), ('한자도 한자지만 한국사는 필요하다', 1379, 76), ('암기과목이 더 늘어났군', 11, 2), ('2018년도 학생들 GG', 2, 2), ('수학이나어떻게좀....', 3, 6), ('한자가 왜 쓸데없어 고등학문용어 대부분이 영어 아님 한자구먼. 이건 잘한거다', 1082, 299), ('중국어열풍..중국에서2년정도 살다오는게 더나을듯', 519, 86), ('솔직히 한자는. . . 그닥 회사에서나, 대학에서나 거의쓸일이 없음', 158, 152), ('소프트웨어 가르치는건 이해하는데 한자는 왜 가르치는지 이해 안됨.', 100, 104)]</t>
+  </si>
+  <si>
+    <t>[('어차피 보충수업으로 국영수 80프로 채울듯...', 85, 2), ('교육과정 백날 바꿔도 아무 소용 없다.수능과 대학서열이 있는한 말짱 도루묵이다.', 83, 7), ('허...그럼 소프트웨어도 시험봐?또 명칭같은 거나 쓰는 방법 죽어라 외우는 거겠지..사교육 못하는 아이들은 죽으란 거네', 60, 5), ('수능이 바껴야지... 맨날 교육과정 바꿔야 수능 어려우면 다 학원가지....에휴', 41, 6), ('대통령선거 언제 하지?', 9, 1), ('아마 인성교육도 사교육으로 하겠지? 사교육 천국...', 8, 1), ('6차 교육과정으로 회귀하라 진심으로. 대한민국 교육계 역사상 이보다 더 좋은 교과과정이 나올 수 없다', 7, 2), ('말로는 멋진 정책이지선생님이 인성이 부족하시는 분들이 태반인데 인성 수업이 가능할지 의문만 드네요!!', 6, 1), ('이건 또 뭔 개소린지... 아니 국영수 파는게 낫지 저런걸 왜해... 빨리 졸업하고싶다 산으로 가는 교육 겪어보고 싶지 않음', 5, 0), ('지금현재중학교 진로시간이나 보건성교육시간은 컴퓨터자유시간이거나 영화보는시간입니다.말이 진로 인성교육시간이지 그냥 자율학습시간만 늘어났군요', 4, 0), ('다들 왜 수능이 바뀌어야 된다고 하는지 모르겠음 솔직히 그런것보다 대학가는걸 인생의 목표로 삼고 좋은대학 가도 취업 더럽게 안되는 새태가 더 문제라고 생각되는데.. 더불어 학원 죽어라 다니게 하는 교육과정도.. 총체적난국이네 그냥', 4, 0), ('왜 쓰잘데없는 국영수에목을메는지 ㅉㅉ.인성 도덕이 더중요한데.판 검사 변호사 교수 교사 의사 할것없이 우리나라 국민모두가 인성도덕을 못배워서 이모양이꼴이데.수능이최고 죽어라공부만 한 사람들', 4, 8), ('대체...평가는 누가 한다는 건지...자칫하면 학생성격과 학부모활동에 따라 평가될 수도 있지않을까 걱정이네요...내년부터 학교 쫓아다니면서 안하던 학부모짓을 해야하는건가...진짜 싫은데...', 3, 0), ('교양예술 소프트웨어같은소리하고있네ㅋㄱㅋㅋ 다 자는시간이다. 애들 쌤오시면 첫마디가 이거시험범위에요? 이과목도시험쳐요? 이거고 아니라그러면 다 잔다 레알나 01년생인데 우리때까지 문이과있어서 재수도못함 시 발 너네는 걍 앉아서 삐까뻔쩍한쪽으로 바꾸면되지만 우리는 어쩌면 인생이달린일들인데 매일변하는 제도때문에 진짜 어느장단에맞춰야될지모르겠다', 2, 1), ('자원도 없는 조그만 나라에서 전국민 닭만들기 왜 할까?사람이 똑같아야하는 이유가 뭔지???누군가는 뛰어나서 무능한 나라 세워야 할 것 아닌가?제발 아무것도 하지마라!!!지금 아이들 충분히 게으르고 나태하다.', 2, 1), ('융합과학 진짜 싫은데...수능도 안보는데 물화생지 다 수박겉핥기식으로 들어가있음..', 1, 0), ('자리만 주면 나라를 구할 듯 일 벌이는 인간들 ~전 국민들은 기억하고 세금가지고 선심쓰는 애국자들 잊지맙시다!!! 그들의 손발을 묶어야 우리가 삽니다!', 1, 0), ('그만 좀 바꿔라 교과서 매번 바꿔서 출판사 배 채우기만 하냐?', 1, 0), ('교육과정을 신뢰할 수 없으니 대학이 면접에서 거르고 기업이 자체시험을 보고 하는거 아니겟나? 무조건 쉽게가 능사는 아니다.', 1, 0), ('우리나라 교육은 수능이 결정 그냥 수능에서 배운 과목 모두 보게 해라 그러면 국영수 과목의 중요성도 희석되고 다 방면으로 알게되어 좋고 학력고사 시대지만 그때 배운 공업 기술 물화생지 과학 과목으로 여러 사회과목 모두 도움이 된다', 0, 0), ('문제가 뭐냐면 자사고는 국영수한국사시수50%제한이 권장사항일 뿐이라는거. 결국 공립만 국영수 시수가 줄어들고, 자사고는 여전히 국영수 위주로 수업을 진행할테니 학력격차는 더 벌어질테지.', 0, 0), ('븅sin 야 개짖는소리좀 안나게해라', 0, 0), ('물리1 역학화학1 양적반응 주기율생물1 유전 가계도지구과학1 천체파트이렇게 25퍼센트씩 하는게 좋을듯 합니다', 0, 2)]</t>
+  </si>
+  <si>
+    <t>[('SI시스템통합의 가치를 인정하는 문화가생기면좋겠습니다 독일쿠카로봇회사도1천명내외의 sw통합인력이 있어서 로봇운용시스템간의 이질성을극복한다고 하던데요 일종의 미들웨어성격의 직종분야가 로봇산업뿐만아니라 스마트도시망 스마트그리드에도 사물인터넷에서도 양자암호통신과 연셰할때도 필요할텐데요 정부의 스마트공장시스템에서도 역활할테고요 이기종 plm mes 전력운용제어관리시스템연동할때도 필요할테고요 왜 시스템통합부분이 계륵이되야하는건지 이해를못하겠습니다 정부의 초중고와 대학sw교육에서도 이부분을해결할인재육성이 필요할텐데요', 3, 2)]</t>
+  </si>
+  <si>
+    <t>[('외국 이야기지 우리나라 이야기가 아닙니다 여러분', 0, 0)]</t>
+  </si>
+  <si>
+    <t>[('과연 교대 출신 사범대 출신 선생들이 몇개월 교육받은걸로 소프트웨어를 교육할수 있을까?그리고 현재 우리나라 소프트웨어 산업에서 프로그래머들의 처우 조차도 개선 못하고 있는데 저렇게 교육한다고 해서 누가 소프트웨어쪽으로 진로를 잡을까?미국이 왜 강국이겠냐 애플 인턴이 우리나라 대기업 몇년차 사원보다 연봉이 더 쎄고 사회적인 대우도 높은편이니깐 우수한 인재들이 고민하지않고 소프트웨어라는 분야를 선택하는거다우리나라 프로그래머들 처우개선부터 하지 않으면 저 교육은 하나마나다', 16, 1), ('운전도 지하철도 비행기도 앞으로는 컴퓨터가 스스로 알아서 하는것이 당연하고 농사도 배달도 제조도 컴퓨터가 자동으로 생산 가공할것이 분명한 가까운 미래에 소프트웨어가 모든 서비스업을 대체할거고 일자리를 뺏어갈탠대 지금 일자리를 지킬게 아니라 가능한 더빨리 대응해야 한다고 봅니다. 기존 산업형명때를 잘생각해보면 기존일자리의 대부분이 사라졌습니다. 조만간 산업혁명이 올것이라 생각되고 지금의 아이들은 그에 맞는 교육을 받아야 합니다.', 16, 3), ('백년제대계 예측 가능한 교육 교원양성 전문성이 관건 교육부의 제역할을 바란다', 2, 0), ('소프트웨어 개발자 단가 낮추려고 온 국민을 소프트웨어 교육을 시키구나. 어짜피 고용주들 자식은 유학보낼거니 정책에 꺼리낌이 없네.', 13, 4), ('실무자입니다 사고력 알고리즘 제일 중요한건 커뮤니케이션 능력과 자질 입니다 이런게 뒷받침안도면 그냥 코더양산 입니다 단순 소프트웨어 교육은 위험합니다', 1, 0), ('그리고 수십만의 창의력을 잃은 전산돌이가 육성될 것이라 합니다. 끽해야 엑셀 워드나 부여잡게 시킬텐데...', 1, 0), ('코더들 양산 시키려 하네... 현재 it업계를 인정해주고 대우해주면 자연스레 따라올텐데...', 1, 0), ('얘네 하는 소프트웨어 정책보면 어떻게든 소프트웨어 의무교육 시켜서 경쟁심 유발시키고 자동적으로 학부모들이 자녀를 소프트웨어 학원다니게 유도하고 그냥 꽁돈으로 소프트웨어를 양성하겠다는 전략이네. 그러다가 소프트웨어 개발자가 늘어나면 싼맛에 골라서 쓴다는 거냐? 어쨋든 지금이나 미래나 소프트웨어 개발자 처우 안좋으면 실패는 뻔하다.', 1, 0), ('정말 코딩하는걸 가르킨다는건지 멀 가르친다는건지 구체적인 내용은 없는건가요? 현직 개발자15년차 입니다.. 지금도 신기술 나오면 계속 공부를 하는데.. 설마 .. 아니겠지요? 중고등학교에서만 영어를 6년 가르키고 있지만 영어를 하줄 아는 사람이 얼마나 될까요?', 1, 0), ('아이고 이런 대단한 계획을 만드시는 분들..... 도데체 베타기간이 9개월정도나 되는 윈도우10 하나는 왜 지원 못하는건가요...? ㅋㅋㅋ 1주일도 아니고 9개월인데... 누가 누구를 가르치는 건지...', 12, 4), ('ㅎㅎ 웃고갑니다. 조선교육에서 대학입시하고 상관없는데 애들이 할 리가 없잖아? 인터뷰 하는 사람은 중학교 기술수업 한번도 안들어가본 모양이지?', 12, 4), ('사고력ㅋㅋㅋㅋㅋㅋ지잡공대 컴공 2학년 B+받고 다니는 내가 봐도 좀 기가 차네 ㅋㅋㅋㅋㅋ사고력도 중요하다만 문제를 받으면 그걸 해석해서 알고리즘화 시키고 그 알고리즘을 코드로 이어가게하는 능력이 제일 중요하다. 문제해석만 할줄알면 뭐하냐, 알고리즘 못짜면 조트망인데 ㅋㅋㅋㅋㅋ아주 기가 막히네 그냥ㅋㅋ걍 고딩때 C나 자바언아 도입하고 중딩까진 스크레치 무한반복 시켜라 애들 플밍 이해시키게 하려면 그렇게 하는 편이 백배낫겠네', 0, 0), ('또이거에 대한 과외가 성업하겠군요 시험보면 그냥 코드외어서 쓰고', 0, 0), ('개또라이 정책. 영국은 폭넓은 의미에서Art 괴목이 있지. 그 중에 친근한게 컴퓨터를 활용할 수 있다는 취지에서 스크래치를 개발해서 교육은 한다만 그거는 전인적 사고 관점에서 접근한거야. 나도 프로그래머지만 교육의 목표를 제대로 정립하고 그 틀에서 하위 커리큘럼을 짜야지.', 5, 3), ('늦은 감이 있으나 훌륭한 정책이다. 세상이 변하면 교육도 그에따라 변해야지.', 2, 11)]</t>
+  </si>
+  <si>
+    <t>[('김한준기자 놈놈놈 무리수. 더 헷갈려. 기사같지도 않고 이거 뭐 -,.-', 0, 1)]</t>
+  </si>
+  <si>
+    <t>[('요새 저 키 없어진 키보드들이 더 많은지 오래다.. 쓸데없음..ㅋ', 0, 0), ('IT 강의실이라고 안 보이냐? 저능아들아? 니들이 클릭해놓고 기자 욕이냐. 한심한 놈들.', 1, 1), ('도스 이것만쳤는데 dir&gt;*.exe 추억돋네', 1, 0), ('다음 이시간에는 Home End 키에 대해서 기사 써봐 평생 해먹것다.', 0, 2), ('이걸 꼭 알아야되나???인터넷에 쳐보면 웹문서나, 블로그에도 많이 올라와 있던데......기자분도 참........', 0, 3), ('윈도우키 + pause break 이것도 가끔 유용함', 2, 0), ('이런게 기사지. 쓸데없는 기사쓰는 기레기들보다는 낫다.', 5, 1), ('맨날 뻘글 쓰는 기레기들 글이 아니라 진짜 유익한 기사다 감사함돠', 1, 0), ('정말 좋은 정보 알아가네요. 저도 위의 3개의 키를 처음엔 캡처용으로 둔건줄 알았음ㅋㅋㅋㅋ. 그래서 이거 다른 용도는 없나, 싶었는데 원래 캡처가 아니더라고요?ㅋㅋㅋ', 1, 1), ('좋은 정보 감사합니다. 특히 윈도우키 + pause 조합 :-)', 0, 1), ('윈도우키+pause 눌러보시라자주 쓰이는 단축키', 0, 0), ('스타할때 pause키로 포즈겁니다', 0, 0), ('하나만 쓰고 있네요.', 0, 0), ('이거 선생님한테 물어봐도 모르더란거..', 0, 0), ('알트 + 프린터 스크린하면 활성화된 창만 캡쳐한다는 정보도 하나 남겨요.', 3, 1), ('94년도인가 삼성컴퓨터윈도우3.1깔리는거 샀었는데 지금이랑 다르게 컴퓨터가르쳐주는 무료강습도 해줬었음ㅋ 당시엔 도스랑 혼용해서 써야해서 더어려워서 안배우고는 지뢰찾기밖에못하는수준ㅋ 세상참 많이 변했음ㅋ', 1, 0), ('그래도 잘 안쓰지만, 저 3개키 없어서 곤란한 경우 겪오보면 안다.. 얼마나 필요한지.', 1, 0), ('지금 보고 있는 노트북엔 그나마도 없네...', 1, 0), ('자판을 보니 위 세개키는 먼지가 빼곡히 앉아 있고, 수많은 키중에 엔터키의 엄지 누르는 부분만 반질반질하게 닳아 있네', 1, 0), ('마우스 고장났을때 스크롤락 유용함', 1, 0), ('ㅋㅋㅋㅋ 요즘엔 윈도우 배경이나 테마로 꾸미지만 예전에는 autoexec.bat 로 개잉여짓들을 참 많이 했었지...', 3, 0), ('윈도우+포즈 키 써봤네. 오호 좋은데요 ㅎㅎ', 0, 0), ('오랫동안 프로그래머로 일해왔는데 sysReq에 대해선 처음 알게 되었네요 좋은 기사 잘 보고 갑니다', 2, 0), ('내가 처음 썼던 컴퓨터가 486펜티엄이었는데 ㅋㅋ', 0, 0), ('안 읽고 걍 내린 1인', 0, 2), ('쓸일없는 키는 키설정 변경해서 다른용로도 사용중...', 1, 0), ('저키들 자리만 찾이하고 차라리 캡쳐키나 만들고 저 세키들 없어지면 좋것다~', 1, 0), ('M설치하고, 오토엑스 파일에 시작프로그램 추가삭제하고, 게임 하나 설치하겠다고 5.25인치 플로피 디스크 (약1.45mb)에 분할압축해주고, 시스템 종료버튼이 없어서 파킹해주고 끄고, 프린세스메이커 공주님 탈의시키고..', 3, 1), ('잉 나는 PrtScr, ScrollLock, Pause/Break키는 많이 사용하는데. ㅎㅎㅎㅎScroll Lock엑셀등에서 사용하면 의외로 편할때 많은데...그리고 Pause/Braek프로그램 강제 중지 시킬때 자주 씁니다. ㅎㅎㅎ', 2, 1), ('마지막 브레이크는. 도스를 배운.사람이라면. dir/p. 를. 쓴단다. 멍청한.기자같으니라고', 2, 5), ('결론은 쓸일이 거의없다. 몰라도 된다.', 6, 2), ('XT 컴퓨터 부터 배웠는데 스마트폰 이라니 세월 참ㅠㅠ', 1, 0), ('옛 기억이 새록새록하네요 ^^', 0, 0), ('저기에 Sleep키도 있지 않았나? 뭐 하다가 Sleep눌러버리면....', 1, 0), ('M없으면 불편..ㅎㅎ arj랑 rar압축도 참 많이 썼는데.. 디스켓한장짜리 v3랑', 0, 0), ('컴텨가 뭔지도 모르던초딩 저학년시절... 286 40메가짜리 흑백모니터 부모님 졸라 대충 80만원에 샀던 기억... 사기만하곤 암것두 안하고 몇년후 그냥 쓰레기... Dos dbase lotus... ㅋ', 0, 0), ('커맨드창 잠깐 멈추게 할 때 ctrl+s 로 했었는데 pause 버튼으로도 가능하군요.', 2, 0), ('이게 뭔내용이지.....', 1, 0), ('좋은정보 감사합니다~ 근데 저는 쓸일이 별로없는게 함정ㅠ', 2, 0), ('와 옛생각난다 dir.... 슬래시하고 명령어도 많이 알았었는데 기억이ㅜㅜ', 3, 0), ('커세어 k70 적축 vs 덱헤슘 중에 머가낫냐 하나살라그러는데;;;', 0, 2), ('지금까지 알고있었던건 캡쳐 키밖에 없었네요.. 유용한 정보 감사합니다', 2, 0), ('영타는 스타로 배우고 alt f4는 엄마덕에 배우고', 18, 2), ('컴책이 따로 잇나여?', 0, 0), ('여기 애니악 써본친구들 있습니까', 0, 6), ('주옥같은 정보 감사합니다 참주옥같아요', 1, 0), ('2001년생 중2학생은 DOS와 플로피디스크는 책으로만 봤답니다.', 4, 1), ('atdt 01433아는사람 추천', 1, 1), ('컴터 키보드 책을.. 따로 만들어야 할 듯ㅋㅋㅋ', 0, 0), ('나는 이글을 읽으면서도 무슨말인지 모르겠군....(ㅜ.ㅜ)', 9, 1), ('가..갑자기 난독증이..ㅋㅋㅋㅋ모르겠다ㅋㅋ컴퓨터 어려워요어려워', 1, 0), ('거의 스샷 찍을때만 사용하지않나...?', 0, 0), ('난 그 밑에 있는 6개 키도 delete 빼면 게임에서 밖에 쓴적이 없다... insert는 캐릭터정보, Home은 인벤토리, Pgup 스킬창, Pgdn 유저찾기, End 파티정보, Pgdn 게임종료 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ', 1, 3), ("기자님아..미치겠네...타자기에 무슨 리턴 키가 있어. 지렛데ㅜ같은걸로 줄바꿈 했다고 !!!' 알지도 못하면서 아는척 하지 마세요", 0, 3), ('용용프로그램??????', 0, 0), ('386컴퓨터 도스에 mdir깔고 바이러스가 가득한 5.25" 플로피에 깔린 고인돌 하던시절이 있었는데 ㅋㅋ', 11, 0), ('그렇군요.......', 1, 0), ('80년대생인데 도스하니까 컴퓨터 부팅되자마자 시스템종료 -&gt; MS-Dos 모드에서 시스템 재시작 -&gt; m enter 이게 생생함.. 도스게임 한다고 저랬었는데. ㅋㅋ', 1, 0), ('예전에 크아2p때 쓰는데...', 1, 0), ('포즈 브레이크는 알컨델 단축키로 사용할수 있게해줌 좋을텐데 도스때 뭐 이상하다 싶으면 일단 브레이크 걸고 프로그램재시작하면 된단말이지', 0, 1), ('뭔소리인지 모르겠다는 사람 (1/50000000)', 21, 13), ('네 잘압니다. 열자', 1, 0), ('없으면 허전한 수많은 버튼의 세계...', 5, 1), ('dir/w /p이거 뭔지 아는 사람? 최소 30대중반..ㅋㅋㅋ', 16, 4), ('아~~멀고도먼 컴맹의길...', 3, 1), ('알면 편하게 써먹을 수 있는 키들으었구나스크린샷말고는 완전 잉여였는데', 3, 0), ('수십년 뒤에는 키보드 자체가 추억의 물건으로 소개될듯 ~', 3, 1), ('좋은 정보네요~ 궁금해도 궂이 찾아보진 않을 정보인데 이렇게 알게되니 좋은 것 같아요! 물론 유용한 정보는 아니었지만 모르는 일이죠~', 2, 0), ('아..그렇구나...내가이해력딸리나보다...몇군데는 이해가안가ㅠㅠ', 2, 0), ('결론은 Prt scr 말고는 다 잉여다', 6, 3), ('스크롤락은 아이온 자동보행. 자동비행할때 써봤다.', 1, 0), ('결론 모두 쓸일없는 키들이다.', 4, 6), ('도스-M아는사람~~', 15, 3), ('차암~~~!! 지 잘났단 소릴 길게도 나열했네!!ㅉㅉ 니나 많이 써라!', 0, 11), ('국민학교 , 초등학교 3학년때인 1995년부터 컴퓨터 배웠는데 벌써 20년이네.. 그때 보글보글 하며 서로 컴퓨터 할려고 동생과 싸우던 시절이 그립네.', 1, 2), ('모르던 걸 알아서 기분이 좋네요. 더군다나 윈도우에서도 쓸수 있는 기능을 같이 올려주셔서 좋네요 ^^ 감사합니다.', 3, 2), ('읽기싫어요....아하하', 1, 2), ('스마트폰때문에 키보드 본지가 오래임;;', 0, 0), ('재탕이건 뭐건 똥싸면서 잘보고갑니다', 1, 0), ('프린트 스크린만 알고있었다 쩝', 1, 0), ('저는 키를 잘못 눌러 스크린 샷 찍이던데 SysRq때문이였군요. 좋은 정보 감사합니다.', 1, 0), ('치트쓸때유용하자나10자', 0, 2), ('난 안철수의 용도를 당췌 모르겠음..', 3, 7), ('솔직히 설명 듣고도 무슨 기능인지 모르겠당...ㅜ.ㅜ', 8, 3), ('윈도우키+pause = 시스템정보prt scn = 현제 화면을 클립보드에 복사(그림판같은거에서 붙여넣기 하면 나옴)알트+ prt scn = 현제 활성화 된 창 클립보드에 복사', 2, 0), ('굳이... 뭐... 알필요는 없을꺼 같은데...', 2, 0), ('컴으로 킹오브파이터할때 2p 키로 썼었는데', 1, 0), ('컴알못들은 몰라도돼', 2, 0), ('Printscr은 스샷 찍을 때 사용', 0, 0), ('기껏해봐야 롤이나 해대는 일반사용자들은 몰라도 된다.', 3, 1), ('쓸 줄 아는데요..?', 0, 2), ('한마디로 리눅스 쓸때 자주쓰는 키', 0, 2), ('좋은 기사지만 유용하진않네ㅠㅠ 너무 저 키들을 안쓰다보니', 6, 3), ('실제로 컴맹인 사람들 의외로 많다고 함.......... 컴퓨터로 인터넷 서핑이라던가 게임만 할줄 알고 정작 저런 기능에 대해선 알지 못하는 사람들 상당히 많음', 30, 7), ('Dir 오랜만에 듣네.', 8, 0), ('훗... 키보드 본체 하나로된 8088 프로세서 애플컴 쓰다가 키보드 분리된 Ibm 보고 감탄한 적도 있었는데... 플로피 부팅하다 20메가 하드 쓸땐 경이로웠슴.. ㅎㅎ', 5, 0), ('dir 옛날 생각 나는 군요... M도 기억이 나는 형형색색의.. ㅋ', 2, 0), ('던파는 스샷 동영상찍을때 쓰는디', 0, 0), ("다들 많이쓰는 버튼은 바로 'ㅋ'다 ㅋㅋㅋㅋㅋㅋ", 26, 8), ('근까 필요읍는것이네', 1, 3), ('스크롤 락은 바람의나라 궁수 할때 많이 사용했던 기억이...', 0, 0), ('메플 보스 솔플할때 스샷찍는거밖에 안쓰는뎀', 0, 1), ('무슨말인지 모르겠다......', 1, 1), ('예전에 도스 컴퓨터를 사용할 때는 간단한 도형 하나 만드는 것도 몇 시간씩 걸렸는데...격세지감이다 참고로 대우전자 아이큐 2000을 초딩5학년, 88년도에 나의 공부를 시킨다고 어머니가 아버지 월급을 다 털어서 50만원에 샀던 가슴 아픈 기억이 있었고...너무 어려워서 오락만 가끔씩 했던 기억이 있다', 1, 0), ('감사합니다 좋은정보알아갑니다 ^^', 4, 1), ('Ms dos 윈도우 3.14 한창 쓸 때 잘 모르는 영어 붙잡고 명령어 줄구 외웠는데 이젠 뭐 쓸 때가 거의 없네..ㅎㅎ', 1, 2), ('1q2w3e4r 비번으로 많이 쓰였을 듯 ㅎㅎ', 1, 2), ('Copy *.* a:아련하다..ㅠ', 11, 1), ('키보드 떨어져 키 하나 잃어버리면 스샷빼구 둘중하나 빼서 잃어버린데 끼워씀 아 나의 절약정신 흐뭇', 31, 7), ('후... 리눅스 서버 만지면 저 지긋지긋한 터미널 아직도 만지는데 저 키들이 저런 용도가 있는진 나도 몰랐네. ㅋㅋㅋ 집에 가거든 해봐야지', 2, 0), ('Dir/w cd .. Format c:', 5, 0), ('컴퓨터를 PC방에서 배웠습니다....', 433, 41), ('저거 매이플버프돌릴때쓰는 키인대', 0, 1), ('엑셀이나 워드 쓸때도 유용한데 말이죠', 0, 0), ('여전히 도스커맨더가 존재하는한 포즈/브렉은 유용하죠. 프린트스크린은 원노트로 대체하면 편하죠.', 5, 5), ('솔직히 여기서 쓰는건 캡쳐할때 쓰는SysRq 밖에 없다 나머지는 필요가 없어', 532, 79), ('저는 스크린샷을 찍을 때 사용해요......', 854, 35), ('바이오스에서화면이 멈추는게 UEFI 바이오스에서도 가능한지 쓰셨으면 좋았을텐데요...', 8, 12)]</t>
+  </si>
+  <si>
+    <t>[('소프트웨어는 기술력이 아니라 창의력이 우선인데. 창의성없는 주입식교육으로 될지 모르겠다.', 2, 0), ('액티브엑스도 퇴출 못하는데, 무슨 SW가 미래냐.', 1, 0), ('blog.naver.com/jykim4685 에 오셔서 이미지에디터를 다운로드 해주시면 감사 물론 무료입니다', 0, 0), ('세미나 필요있나? 안하믄 몽둥이루 먼지나게 패뿌면 간단하게 해결될걸 왜 고민하지?', 0, 0), ('창의력을 차단하는 반민주적 사고의 한국에서는 그냥 물건 만들어 파는거에 만족해야지. 삼성이 자기발로 찾아온 안드로이드를 차 버린게 한국의 수준을 말한다. 눈에 보이는 가치만 따지는 천박한 경제국가.... 이게 한국이다.', 0, 1), ('SW 교육? 어린애들한테 이런거 왜 가르키는지 모르겠다. SW 가 기술 교육 받으면 나오는 거라고 생각하는가 보다. 그래서 기술 배우면 코딩은 하겠지만, 창의력 없으면 세계적인 SW 나올 수가 없다. 애들 사색하고 사고할 수 있는 시간을 만들어 줬으면 좋겠다.', 1, 3)]</t>
+  </si>
+  <si>
+    <t>[('클라우드자체가 일반사람들이 쓸일이없지않나 ㅋㅋ 야동모으는사람들아니면', 3, 5)]</t>
+  </si>
+  <si>
+    <t>[('20년 전까지만 해도 학교에서 컴퓨터 프로그램도 가르치고 알고리즘도 가르치고 해서 경진대회도 나가고 했는데.. 방과후 컴퓨터 들어온 후로는 방과후에 컴퓨터실은 방과후 교실 강사에게 뺏기고, 이제는 가르칠 곳도 없고, 가르칠 실력이 있는 교사도 없는데... 무슨 컴퓨터 알고리즘이나 프로그래밍이 하루 이틀에 되는 줄 알고 있네..', 5, 0), ('정부에서 최종 산업모델에 실제투입되는 sw를 분석해서 거기에들어가는 알고리즘이나 네트워킹지식모듈을 도출해보면좋겠습니다 그런다음 초중고 sw교육에서 지향해야할 초기 중간 단계의 sw교육이 어떻게연계되야할지를 연결모델을 고민해보면좋겠습니다 그리고 기존산업공정용sw의 유사도와 업종별 공정sw의 유사점과 차이점도분석해보고난후에 새롭게정부에서 미국p_tech를모방한 전문대교육과정개선에 접목해보면좋겠습니다 스마트공장단계의 4단계과정과도 연계해보고요 포항시의 엑사와트레이져단지에 투입할sw인력도 연계화고민도해보고요', 0, 0)]</t>
+  </si>
+  <si>
+    <t>[('한국에선 절대 있을 수 없는 세습제아닌 능력에따라 부여받는 직위...하..', 1, 0)]</t>
+  </si>
+  <si>
+    <t>[('물론 개인적으로 사용안해서 그렇지 한글워드프로세서는 보전해야하고 자랑할만한 프로그램이다.정부가 조금이라도 생각이 있다면 새로운 워드를 만들어서 국민들에게 무료로 사용할 수 있도록 해줘야 한다.수년전에 한글과 컴퓨터는 HWP 포멧을 공개했다. 한글과 컴퓨터와 협의를 하든 협의를 하지 않고 만들든해서국민들도 자연스럽게 HWP를 쓸 수 있게 하면 되는거다.관공서에서는 계속 한컴오피스를 쓰면 되는거고 (사실 관공서에서도 MS 오피스를 더 많이 쓰겠지만)세금은 이렇게 쓰는거다.', 0, 0), ('무려 2016년인데 관공서에서 hwp를 쓰게 만들고 있다.네이버 워드에서 변환하면 개판오분전이다. 옜날에 구입했던 한글워드가 어디있는지도 못찾겠다. 찾아도 설치하고 싶지도 않다.', 0, 1), ('인프라 웨어 대박 나세요 ^^*~', 1, 0), ('한국에만 유일하게 자국 워드프로세서 한글이 있어 MS에서 워드를 싸게 공급하고 있는 유일한 나라중 하나임.사실 공공기관에서 한글 사용하지 않았으면 옛날에 한글과 컴퓨터는 망했음.일반 사용자 중 대부분 불법copy... 슬픈 IT강국의 현실', 4, 1), ('PDF 쓰면 안되나. 꼭 프로그램 깔아야 하나', 1, 2), ('공공기관에서 국산 SW쓴다고 HWP를 밀어주기 때문에.. 나도 사실 워드나 엑셀보다는 한글이 편하긴 한데(초중고교 내내 사용해왔기 때문. 현재 대학생) 프로그램을 따로 구입해야하는게 문제.. 그래서 HWP과제는 학교에서 다 끝내고 MS오피스과제만 집에서..', 7, 0), ('도데체 한글을 밀어주는 이유를 모르겠어.호환성도 없지, 버그는 많지, 보안성도 꽝이지, 쓰는사람도 없지. 진짜 정부에서 쓰레도 쓰기 싫은 물건.', 11, 6), ('hwp 걍 안쓰는게 답.. 관공서 새퀴들 공공기관이면서 국민혈세로 특정 기업 밀어주는지 모르겠다...', 8, 4), ('한국의 최악의 프로그램 한글,알집.... 회사다니면서 저 파일로 된거 받으면 개빡침...', 16, 8)]</t>
+  </si>
+  <si>
+    <t>[('56000원씩만 잡아도 2조5천억 ㄷㄷㄷ', 5, 0)]</t>
+  </si>
+  <si>
+    <t>[('어짜피 피파온라인3 종료되봤자 피파온라인4로 이어진다. 근데 2때부터 느낀거지만, 2나 3이나 4가 나오면 4나 각자 다 냅두는게 나을거같다. 엔진이나 게임스타일이 같을수가없는데 서로 유저들마다 취향이 다틀린데', 1, 0)]</t>
+  </si>
+  <si>
+    <t>[('성추행 이사장 질책한 교사를 구속하다니!', 4, 1), ('어디서 깨소금 볶나?', 0, 0)]</t>
+  </si>
+  <si>
+    <t>[('대박 나시길 기원합니다~~^^기훈형 홧팅!', 1, 0)]</t>
+  </si>
+  <si>
+    <t>[('좋은 기사 잘 봤습니다!!', 0, 0), ('와 기사 내용도 좋네요궁금증이 확 풀리네요 ㅎㅎ감사욤', 3, 0)]</t>
+  </si>
+  <si>
+    <t>[('반도의 컨버팅 아님 현지화? 누가봐도 스크래친데?? 개발은 무슨...- -;;;;', 1, 0)]</t>
+  </si>
+  <si>
+    <t>[('컴투스게임 참 재미있지요. 그 뭐야 버튼 하나로 다 되는게임 ㅋㅋ', 0, 1)]</t>
+  </si>
+  <si>
+    <t>[('그래서 만삭의 배는 가짜라는건가..', 8, 0), ('멋있는 어머니 !!나두 열심히 사는 모습을 보여야겠다.', 6, 0), ('어머니가 완전히 엘프내', 0, 0), ('배에 수퍼펀치 한방이면 애기놀라서 도망가겠지??', 0, 2)]</t>
+  </si>
+  <si>
+    <t>[('한국 게임과 다르게 개념운영 한다기에 파판 14시작했어요~~ 캐릭터, 스토리, 스킬이펙트, 던전 등 여러가지면에서 훌륭한 수작입니다 파판으로 오세요!!! 요시다 나오키 짱~!!그리고 모든 한국인이 컨텐츠 소비가 빠른게 아니란 점 알아주시고 , 너무 빠른 업데이트 는 하지 말아주세요~~ 여유있게 스토리와 함께 파판의 모든 걸 즐기고싶어요', 1, 0), ('날로먹으려고하네 아래', 4, 0), ('플레이 레벨제한없이 무료, 상점 유료 했으면 좋겠어요', 0, 22)]</t>
+  </si>
+  <si>
+    <t>[('월 사용료 책정을 높게 하고 패키지는 판매하지 않는다는건.. 단기적으로 하는 사람들은 손해량이 적을지는 모르겠으나.. 이번 게임 끝까지 가보겠다면.. 오히려 악영향을 줄 이유가 태반인대..차라리 국내에도 가격 동일하게 책정하고 패키지로 하는것이 더 좋아보입니다.. 초반 입장 플레이어가 적을수는 있으나 회사가 재대로 관리하고 재미있다는 소문이 난다면 구입해서 할겁니다..결국 핑계일뿐입니다..', 0, 0), ('글로벌의 경우 게임을 즐기기 위해 반드시 패키지를 구매해야 하며 이 가격 역시 함께 포함하면 더 비용이 증가하게 된다. 하지만 한국에서는 패키지를 제외한 다운로드 가격으로 만 책정이 되어있기 대문에 이를 감안하면 오히려 외국보다 저렴한 편이다.ㅎㅎ 단기적으로 그럴지는 모르겠으나.. 후에가면 막대한 손실 발생하는 방식인대..ㅡ.ㅡ;;그리고 외국에서 패키지로 시작하는 온라인게임은 기본 1~3달 무상플레이권을 주는 방식이므로..그렇게 차이도 안나고.. 기본 시디및 설정집, 설명서, 아트북도 주는 경우도 많기 때문에..', 0, 0)]</t>
+  </si>
+  <si>
+    <t>[('좋은 정보 감사합니다.', 3, 1), ('토렌트의 기술/개발자 강좌는 여기에 있습니다. http://cafe.naver.com/cozmos &gt; 프로그래밍일반 일반인보다는 개발자를 위한 강좌이므로 참고하세요~', 8, 1), ('토렌트에서 불법파일을 공유하지 말라고 하지만... 토렌트에서 합법파일 비중이.. 1%는 될까??', 33, 2), ('오늘도 그녀들에게 집(HDD)을 무상으로 제공해줍니다.', 20, 1), ('뮤가 아니라 마이크로겠지..초기에 비트토렌트가 무거워서 마이크로토렌트로 나온거다..', 7, 8)]</t>
+  </si>
+  <si>
+    <t>[('사골무쌍이 그 끝을 지켜봐라 그건가 인데.... Ps3는 한글자막 지원은요...ps3가 소니한테 해준게 얼마인데...ㅠㅠㅠ', 0, 0), ('진삼국무쌍은 명실상부 최고의 게임인듯ㅠㅠ 진삼국무쌍8이 아니라 진삼국무쌍864812486가 나올때까지!!', 1, 0)]</t>
+  </si>
+  <si>
+    <t>[('90년대 pc통신시절 그리우신 분...그때 천리안 대화방 100개가 전부였고..나우누리 자료실에 용량 큰 자료 다운 받으려고서초동 나우누리 본사가면 운영자가 커피 타주고 들고간 하드에 자료 넣어 줬음 ㅋㅋㅋ아......', 0, 0), ('시작은 사카린 금수저에서, 건희 &amp; 재용', 7, 1), ('COOOOOOOOOOOOOOOOOOL~!', 2, 2), ('zzzzzzzzzzzzzzzzzdddddddddd', 0, 2), ('djdkdjfkdjfkdjfkdjfkdjfkdjfd', 0, 2), ('1930년대 미국인이 차고를 가지고 있다는 것을 우리나라 설정으로 바꾸면 1960년대에 텔레비젼을 가지고 있는 집정도로 비교 될듯하다.결코 가난한 집안에서 시작된 게 아니란 거다.그만한 자본금 그만한 교육을 받은 집안이였다는 거야.', 7, 8), ('우리나라에서는 죽어도 못할것', 11, 4), ('헬좃산이었으면 인분 교수가 휴렉과 패커드에게 똥물을 막이면사 월급을 착취했겠지', 23, 4), ('역시 현대 문명을 이끈 서양인들과 그 뒤를 따르는 동양인들,,', 5, 5), ('돈이거의 없이차고에서 시작해서 오늘날 세계를 주름잡는기업이 됬어도 세습하지않고 전문경영인이 잘이끌어가는 회사와 일제시대 엄청난 부를 축적한 부모로 부터 엄청난 사업자금으로 일제시대 산업시설을 헐값에불하받고 그후로도정경유착으로 커온삼별그룹은 3대가 세습하며 21세기 봉건국가에서 짱이되었다..', 32, 8), ('다 좋은데 a/s서비스가 진짜 쓰레기다 더욱이 최근에 노트북을 맡기면서 느꼈다그 센터뿐일지는 모르겠으나...', 1, 9)]</t>
+  </si>
+  <si>
+    <t>[('캐슬히어로즈 운영자 개입 비리사건 있는회사 증거자료 보유 및 개인 조정신청햇으나 쌩깐 회사', 0, 0)]</t>
+  </si>
+  <si>
+    <t>[('몬길이 다른겜보다 잼슴 몬길굿', 0, 0)]</t>
+  </si>
+  <si>
+    <t>[('그럼 한국은 100% 망하겠네... 주입식 말고 할 줄 아는 게 없으니까...', 23, 1), ('암기주입식 교육하면 실무에서 Ctrl_C+Ctrl_V 할바에 뭣하러 SW 교육하냐............................한심한 인간들이네...', 16, 0), ('주입식으로 할 바에야 안하는게 나을지도. . .', 2, 0), ('국내 SW 기술자이 하는 일은 아메리카 형님들이 만들고 정해주시는 거 그냥 가져다 약간만 고쳐 사용하거나 그대로 Ctrl C + Ctrl V 하는 게 전부. 국내 SW솔루션이라고 해서 보면 죄다 미국에서 만든거 그대로~~~ 따라 만든 것들 ㅋㅋㅋㅋ 즉 국내에서 SW를 잘하려면 학교 선생, 회사 선배고 나발이고 양키 형님들 말을 잘들으면 됨. 그리고 구글이 최고의 SW선생이고 사수임!!', 1, 0), ('암기보다는 이해를 하는게 제일 중요한데.. 그리고 비슷한 유형의 문제를 계속 짜보면서 응용시키는 능력도 늘려가는거고 어떻게 돌아가는지 이해를 하고', 1, 0), ('프로그래밍은 암기로 하는게 아니라 많이 응용해 봐야 늘게되있음. 암기로 배워봐야 배열에서 막히고 컴파일에서 막힌다에 한표건다 프로그래밍 배워봐서 아는데 나랑 동급생들도 if for while문 까지는 잘 배우다가 배열부터 막히더라? 나도 예외는 아니었고 그래서 암기식 교육이 아닌 직접 강사들이 던져준 과제를 직접 짜보고 해결하게 유도하는 학습이 가장 좋았다는 사실 프로그래밍은 이렇게 자신이 직접 응용해봐야 빨리는다. 이걸로 본인도 효과를봤지만. 근데 국내의 엿같은 환경 때문에 프로그래머 길 때려치운게 현실이지만.', 1, 0), ('여기 댓글 처음 다는데 이 제도가 진짜 실효성이 있을지 의문입니다. 소프트웨어 개발자는 계속 자기계발하고 자기가 하는 일을 즐길 수 있어야 하는데 과연 주입식으로 교육을 시킨다면 더 잘 클수 있는 인재마저 꺾이지 않을까 우려가 되네요. 차라리 그 예산과 인력으로 이미 진로가 정해진 소프트웨어 학도들을 지원하는 정책이 더 실효성이 있지않나 생각됩니다.', 1, 0), ('소프트웨어에 대한 교육을 통해서 학생들이 그저 이 상황에서는 이런 방법을 써야 한다는 공식만 외우고 있지는 않을까 걱정이 됩니다.', 0, 0), ('코딩은 수단일 뿐이라고 인문OOO들이 OOO하는데...그 코딩을 니가 한번 해보지? 클래스 한번 만들어 보고 sql 한번 짜봐라... 코딩이 수단이면 니가 취미로 하지 기술자 뭐하러 키우냐?', 0, 0)]</t>
+  </si>
+  <si>
+    <t>[('보름정도 사용하고있는데 동영상 재생 빵빵하게 잘만되여 ㅋ 답답한 와이파이보다 나음', 0, 0)]</t>
+  </si>
+  <si>
+    <t>[('무쵸취소같은개소리하고있네 교묘하세 헷갈리게약관집아두고 24시간도안되서취소했는데 주말걸리고 어쩌고저쩌고 5일전이라며 30프로제하고주더라 눈뜨고 진짜 도둑맞은기분 지들맘데로 코에걸면코걸이 귀에걸면귀걸이 아주됴묘하게 소비자 우롱하는 말도안되는약관 미친거아냐', 0, 0), ('무슨 무료취소 취소 예약날자 8일전에 추소했는데 취소 시간과 주말은 빼고 취소3일전이란다 이런경우는 처음이라 월래 이런건지는 모르겠지만 실제 날자따져8일인데 수수료40이란다 어딜봐서 무료취소냐?', 0, 0)]</t>
+  </si>
+  <si>
+    <t>[('3개샀지만1개는3보급34번에서수류탄2개째도5번61번에서수류탄3개째는2번보급34번에서50일캬칭호', 0, 0), ('6만원써서 퍼즐못채우고 50일 하나도못뽑고 겨우 1일씩 50일겨우채웟네요,,,,', 0, 0), ('걸그룹(특히 aoa)는 캐릭터로 만들지마세요.그 캐릭터 죽으면 마음이 아파요ㅜㅜ', 1, 1), ('이로써 서든 유저 늘어났겠네.. aoa라니', 10, 1)]</t>
+  </si>
+  <si>
+    <t>[('모여....', 0, 0), ('국정원이 해킹하면 안드로이드폰은 암호해도 소용없음~~ㅋㅋㅋㅋ', 0, 2)]</t>
+  </si>
+  <si>
+    <t>[('넥슨지티 네이버 증권게시판가보면 넥슨이얼마나 양심엄는 회산지 알수있읍니다.네티즌 90% 가 비판하는 글들이 게시되어있읍니다.', 1, 0), ('양아치 회사 양치기소년 일본넥슨 2분기 매출 126억인데 한국거 다피빨고 일본에서만 배당하는 일본상장회사', 2, 0)]</t>
+  </si>
+  <si>
+    <t>[('안중근 의사가 고작 게임 아이템 선물 주시러?안중근 의사께서 게임 아이템을 선물로 주실려고 이토를 처단 한 것이 아닌데, 개인적 사리사욕을 위해 한나라의 영웅이 고작 게임 아이템이나 팔아서 되겠는가? 묻고 싶다. 적어도 안중근 의사를 아는 성년이라면 그 분의 위신을 실추 시키는 일은 안했으면 한다. 그리고 적어도 이 3가지는 생각해 보았는지 묻고 싶다.안중근 의사의 의중은 생각해 봤는지?대한 민국국민의 의사는 어떨 것인지?제 3자의 입장인 한국 이외의 사람들?한 나라의 영웅이 개인의 이득을 위해 사용되어도 되는지 알', 0, 0)]</t>
+  </si>
+  <si>
+    <t>[('역시 비젼있는 티업스크린 골프 ^^항상 연구개발하는 티업과 마음골프골프존을 넘어 진정한 스크린업계의 종합엔터테인먼트로성장하기를 ~~문대표화이팅 ★★', 2, 0), ('티업비전을 애용하고 있는 유저로서 마음골프를 응원합니다 문대표님의 계획대로 가상현실에서 펼쳐지는 골프를 즐길날이 빨리 왔으면 좋겠네요', 2, 0)]</t>
+  </si>
+  <si>
+    <t>[('걍 피해의식환자들같층', 0, 1), ('블랙픽 ㄱㅅ.ㄲ들 쌤통이다 ㅋㅋㅋㅋㅋㅋㅋ', 0, 1)]</t>
+  </si>
+  <si>
+    <t>[('게임내 버그의예로 스트리트화이트를 들었는데 그건 버그가 아니라 게임사에서 일부러 만들어 놓은겁니다.기사 수정 해 주세요', 1, 1), ('일명 가일의 그림자집기 라고 불렸었죠', 1, 0), ("Y2K 관련 기사에는 항상 소문만큼 큰 피해가 없던 호들갑이었다는 내용이 적히는데.. 잘 대비해서 '아무 일 없이 넘어간'것과 '오작동 했지만 예상외로 피해가 없던것'과는 전혀 다른 이야기..", 3, 0), ('캐릭터들이 이상한 움직임을 보이는 오류인 겟단 역시 버그의 일종이죠. 이 버그는 한 일본 여가수에게 뜻하지 않은 인기를 안겨주었습니다.', 1, 0), ('컴퓨터안에 저렇게 큰 벌레가 있구나 오늘 열어서 잡아야겠다', 10, 3), ('라덲구~~~~~~~~~~~~~~~~~~~~~', 3, 1), ('블루스크린 뜨면은 진짜 개빡ㅊ미', 0, 0), ('버그가 없는 소프트웨어는 없습니다. 보통 아무리 겉으로는 완벽하다고 해도 1000-4000줄의 코드당 1-2개씩 버그 또는 보안 취약점이 발견된다는것이 정설입니다. 숨겨져 있을 뿐이죠. 해커들이 어떤 프로그램의 보안 취약점을 분석할때 소스코드를 분석하거나 오픈소스가 아니여서 소스코드가 없을때는 저급언어 단계에서 리버스 엔지니어링을 해서 프로그램이 어떻게 작동하고 어떤 구조로 구성되어있는지 치밀하게 분석을 하죠. 보통은 그쪽에서 치명적인 결함이 많이 나타납니다. 이세상에 버그가 없는 프로그램은 존재할수 없습니다.', 0, 0), ('게티스버그 전쟁때 남군은 버그처럼 몰려오는 북군에게 패배하고 말았다.', 0, 2), ('쪼매 기둘리면 인공지능 컴퓨터가 완변학 프로그램 만들어 낼거야. 프로그램 개발자 덜 다 짤림 ㅋ양자컴퓨터에 인공지능 넣으면 짧은 시간에 완변한 프로그램 나온다. 워~', 1, 8), ('버그가 없는게 버그', 13, 1)]</t>
+  </si>
+  <si>
+    <t>[('블루투스는 법용성와 호환성 그리고 무선통신중에서는 저전력이 가장장점이지... 속도 + WIFI와 주파수가 겸침(2.4GHz)가 문제이기는 하지만...', 0, 1), ('블루투스가 나중에 대박나는거 아님?', 2, 0), ('이러다가 진짜 이빨에다가 푸른색 물감 들이는 것이 유행하는 것 아니냐', 1, 3), ('아이폰에서 와이파이로 인터넷 풀로쓰면 한 10시간 할 수 있는데(동영상 제외 인터넷만) 근데 블투는 와파보다 전력소모 적어서 안심하고 써도 된다. 안드유저는 와이파이로 인터넷만 해도 6시간 넘기기 힘드니 어찌될 지 모르겠지만 ㅎ', 0, 6), ('전력소모 너무 커서 충전하는게 짜증날 정도다...아무리 싸고 사용하기 편해도, 사용시간이 짧으면 말짱 꽝이다.......휴대용기기에 블루투스 제발 소비전력 획기적으로 개선못하면 소용없다', 4, 5), ('전력소모량이 엄청나기 때문에 크게 메리트가 없음.', 1, 6), ('전자파 개쩔어서 난 안쓴다 니들이나 많이많이 마구마구써라', 2, 7), ('블루투스 대기전력 장난아님... 장치 하나 만들면 AA 건전지로 한달 조금 더 쓰려나', 3, 7), ('10m 벗어나면 페어링 다시해야합니다 ㅋ 100m 짜리 규격도 있는데 일본의 폐쇄적인 몇몇기업 빼고는 만들지를 않아요', 0, 6), ('초장기라고 해야 하나 몇년 전(갤1시절)에 블루투스로 놋북에서 10M 파일 전송하다가 짜증 제대로 였다. 케이블이나 와이파이다이렉트로 연결했으면 순식간에 전송할 파일을 뭐 그렇게 오래 걸리는지... 그 때 이후로 블루투스는 이어폰(통화), 키보드 등 연결 외에는 그닥 쓸모 없다고 느꼈는데, 그새 많이 발전했을려나?', 6, 3), ('블루투스는 아직 멀었다... 최소 10년은 더 발전해야 쓸만하다', 2, 7), ('블루투스는 사용자의 접근성이 너무 불편하다. 페어링 10번에 3-4번 성공이다. 원샷원킬이 없다.', 3, 12), ('블루투스보다 전기를 더 많이 먹는 무선 연결방식은 없다. 와이파이와 LTE가 훨씬 더 저전력임', 4, 8), ('블루투스 모르는 사람 너무많음', 17, 5)]</t>
+  </si>
+  <si>
+    <t>[('본질적인 문제는 해결안하고 사장들의 첩질놀이를 위해 인력감축하는게 위기탈출이냐? ㅋㅋㅋㅋ 이딴것도 기사라고.. 한국에는 진정한 보안업체가 없단다. 죄다 정통부시절부터 로비질로 뒷돈먹이고 인증서 장사하다가 전국민들 신용 싹 털려버린 쓰레기들뿐이지.', 5, 1), ('인력감축은 물런 회사 통채로 다른 회사랑 합치고, 문제는 실력 좋은 애들이 먼저 관둔다. 우리나라 보안은 정말 후진국 수준인대 그 이유는 정부, 기업이 그렇게 만들고 있다. 세상에서 해킹되기 가장 쉬운 나라 1위가 될듯 싶다.', 3, 1), ('인력감축하면서 위기탈출을 꾀하는건 경영학적 측면에서 봤을때 맞다고 생각하고실력 좋은애들이 먼저 그만둔다는 어느업계나 그런거고결과적으로 이런 문제가 계속되는 이유는 우리나라 IT업계 관행상 걍 무조건 싸게 먹고보자하는 문화가 제일 크게 작용하는듯..갑입장에서는 제발 제대로 가격주고 서비스,상품을 이용하고 을입장에서도 오늘 하나 먹겠다고 단가후려쳐서 들어가지마라..', 0, 0), ('소프트웨어 불모지의 보안업체는 역시 신뢰가 안가', 0, 1)]</t>
+  </si>
+  <si>
+    <t>[('개발자 자유이용권 포괄임금제부터 없애라', 11, 0), ('"미래 SW 인재 육성"…\'코딩스쿨\' 인기"라고 쓰고 ""미래 SW 노예 양성"…\'코딩스쿨\' 인기"라고 읽는다.', 17, 4), ('예전에 2000년대초 IT붐이 일었을때 그당시 정통부가 SW교육에 많은 예산을 지원해줘서 IT학원 우후죽순처럼 생기고 자격미달의 개발자들 많이 양성되었다. 그 결과가 어떤가? 개발자 임금은 오르지 않고, 개발자는 넘쳐나는데 정작 쓸만한 사람은 몇 안되는 웃기는 상황이 벌어졌다. SW개발자에게 제대로 된 대접 해주면 자연스럽게 고급인력들 몰릴텐데 왜 정부는 SW개발을 자꾸 3D 업무로 묶어두려고 하는가?', 5, 1), ('가르치면 뭐하나?? 처우가 개같으면 일을 안할껀데.', 1, 0), ('공부 못 하고 하고 싶은건 따로 없고 편하게 살고 싶어서 된 교사들 많다.그 머리로 코딩 배워서 가르치겠다? 개가 웃겠네. 코딩은 본래 독학하는거다. 가르치는건 의미가 없다. 또 다른 국영수가 될 뿐. 정부는 좀 알고 해라. 블루 하우스에서 시키니 어쩔 수 없겠지만은...', 27, 9), ('이게 다 프로그래밍 언어만 알면 멋진 소프트웨어를 만들 수 있을거라고 생각하는 sw개발에 대한 이해도가 낮아서 그렇다. 제대로된 sw개발하려면 얼마나 알아야 하는것들이 많은데. 포토샵에서 컬러 흑백으로 만드는것도 일반인이 짠것과 고급개발자가 짠것의 속도차이는 수십배다. 또 어느정도 규모가 있는 개발은 sw프로세스를 배운 개발자들도 한찹 헤메가며 협업하는데 저렇게 겉핥기로 가르쳐서 sw인재가 참 잘도 나오겠다. 니들한테 간단해보이는 프로그램들도 수천~수만줄의 코드가 필요하다. 윈도우같은건 수십만줄이다.', 0, 0), ('미래의 개노가다 치킨 쟁이를 육성하는구나..,저런 거 할 시간 있으면 겅무원 공부해라', 17, 6), ('걍 노예학교일뿐 ㅌㅌㅌㅌㅌㅌㅌㅌㅌㅌㅌㅌ', 2, 1), ('누군가에게는 평생가야 1분도 안쓸 컴퓨터언어를 배우는거다.... 쉽게 생각할 문제가 아니다....', 6, 3), ('SW경쟁력이 코딩에서 나온다고 생각하는 무식한....코딩은 인도 같은 나라에 외주 주면되는거야. 중요한 건 상품기획과 설계능력이지...', 2, 5), ('와 굉장히 멋있네요', 2, 10)]</t>
+  </si>
+  <si>
+    <t>[('굳이 그래야 하는건가', 317, 29), ('1. 교사들부터 가르쳐라. 2. 콘텐츠도 개발하고. 3. 애들이 기기 조작에만 혈안이 되지 않게 해라.', 331, 48), ('학생과 교사의 입장이 모두 돼 보았고 영상이고 그림이고 온갖 자료 활용해 봤지만 학습자도 교사도 가장 선호하는 수업 방식은 강의식 수업이고 그게 학습효과도 제일 있다. 공부의 기초는 암기고 하기 싫어하는 것도 배움을 통해 익숙해 지는 거다. 디지털 기기 만화 같은거 잠깐은 흥미를 끌수 있으나 정작 학생들이 암기해야할 부분이 되면 학습효과 없어진다', 486, 102), ('야 솔직히 공부는 책이 밑줄 쭉끄으면서 연필이랑 볼팬으로 공부해야 공부하는맛이나지 저거 전파땜에 머리띵할텐디ㅈㄴ허튼데 돈들이는 사스가 대한민국', 359, 69), ('공부는 책으로 하는게 최고다 손으로 직접 써가면서 그래야 머리에 더 잘들어가고', 56, 11), ('스티브 잡스는 아이들에게 아이패드도 안줬고 집에선 독서를 시키고 빌 게이츠도 아이들이 학교 숙제할때만 컴퓨터 허락했다는데 뭐가 좋다고 스마트교육하는지 알수 없다. 중학생 큰애가 초등저학년때만해도 다들 손에 책 많이 갖고 다녔는데 작은애(4학년)보면 스마트폰 있는 애들은 다 게임. 책도 인 읽고 눈만 나빠지고 좋을 선 하나도 없다. 학교까지 컴퓨터나 태블릿 쓸 이유를 모르겠다.', 18, 2), ('부모의 통제가 힘들기 시작하는 사춘기가되면 기계로(스맛폰 컴퓨터)인해 얼마나 싸우게되는지 모른다 방에 박혀 너무재미있게 기계와 놀고있는 아이들을보면 정말걱정된다 기계는 필요한것만 부분적으로 활용하고 사람과사람이 소통하고 놀수있게하여 인간미 넘치는 성년으로 자랐으면 좋겠다', 6, 0), ('인지발달이란게 왜 생겨났는지부터 생각해 보는게 어떨까요? 물론 스마트 좋습니다. 가상증강현실 좋죠. 하지만 뛰어놀고 체험하고 이게 진정 먼저라고 생각하지 않나요? 손으로 쓰면 기억력이 30%높아진다는 연구결과도 있지요.', 5, 0), ('요즘은... 학교에서 한글도 안갈킵니다...선행학습으로 배워오는게 당연시 되어있습니다저소득층이나 조부모밑에서 큰 아이들은 한글때문에 애먹고수업을 따라가지 못해 왕따까지 당하는걸 봤습니다스마트교육까지 등장해서 애들이 연필잡고 글쓰는걸싫어합니다 워래 1학면 2학년은 한글 배우던 학년 아닌가요? 초등학교 4학년 과학책 보니 우리 중1 내용이던데요... 우리나라기 문제인건가요 교육이 문제인건가요!!!', 5, 0), ('미디어에쉽게노출되어문제점이많아지는요즘학교에서까지꼭스마트교육을해야만합니까?', 5, 0), ('다 그만두고 직접.종이에 쓰고 종이에.쓰여진 책을 읽고 스피커의 녹음된 육성이 아닌 살아 있는 교사의 목소리로 수업해라.', 37, 11), ('세금 낭비하지말고 이런돈으로 선생님들 자질과 인성 교육이나 똑바로 교육해서 좀더 부모들이 안심하고 보낼수 있는 선생님도 아이도 부모도 모두 행복한 학교를 만들어라', 4, 0), ('ㅎㅎ 태블릿 무용 ㅋㅋ 공부는 어렵게해야 기억에 남음 ㅋ 손으로 터치 몇번에 정보 얻은들 터치몇번 더할 시간에 까먹음 ㅋ', 4, 0), ('스마트 교육이 타블릿 제조회사를 위한 정책인지 아이들을 위한 정책인지 모르겠다. 정작 아이들에게 필요한건 선생들의 관심이고, 선생들에게 필요한건 자료개발 하고 아이들과 의사소통할 시간 아니던가?쓸데없는데 돈 들이지말고 선생과 아이들이 양질의 시간을 가질수 있게나 해라...', 18, 5), ('빡대가리 3종세트 1엄마스마트폰없으면공부안되 2절대 손으로 안씀 3책볼땐 이어폰 꽂고 뮤직스타트', 6, 1), ('타블렛 업체들 저거 로비 장난아니겠죠. 개인이 타블렛 구매 안하니까 학교에 대량구매. ㅋㅋㅋㅋㅋㅋ 근데 저 돈이 결국 누구 돈이다? 무상급식 할 돈도 없다고 학교 시설비 다 빼버렸는데 ㅋㅋㅋㅋㅋ', 3, 0), ('학교가 발전을 안하고 아날로그에 머물러있는 후진 교육수준에 뭔 스마트교육이야. 학교가 풀인데', 3, 0), ('쉬는시간에 2G폰 써도 뭐라하는데 스마트교육은 개나주셈', 3, 0), ('지금 미국도 점차 저렇게 바뀌어가고 있는데... 지금은 비효율적으로 보여도 점차 발전하겠지', 3, 0), ('수업시간 빈둥거리거나 방해하는 것들은 교사가 그 즉시 퇴학시킬 수 있는 권한 부여해라', 3, 0), ('스마트폰때문에 쉽게 음란물을 접하고 빠르게 성에 눈떠서 초등학생이 임신하는 사고도...', 5, 1), ('디지털좋아하시네. 아무리 시대가 발전했다고 해도그렇지 걍 칠판써라. 직접 눈으로보고 만지고 느끼며 아날로그감성을 느끼며 펜으로 그리고쓰면서 배워야지 애들한테 태블릿갖다놓고 뭐하는짓이냐!', 2, 0), ('저런 전자기기를 사용한다고 학생들의 공부 욕구가 높아지는 게아닙니다. 교육과정을 검토하고 바꿀 생각은 하지 않고.. 연장 탓 하지 마세요.', 2, 0), ('교실밖에서도 하루종일 스마트폰만 하려는 아이들에게 교실안에서까지 스마트교육이 꼭 필요할까요? 지금의 질좋은 책으로도 충분합니다. 이미 쌤들도 미디오교육많이하시구요. 그예산으로 수학 영어 쌤 한명씩 더 보충해주세요. 모르는거 학교에 물어볼수있게. 초딩만이라도 사교육없이 키우고 싶습니다.', 2, 0), ('공부란 것이 연필로 쓱쓱 쓰고, 책 뒤져가며. 해결해야 이해도 되고, 더 오래 기억하는데.. 더치 몇번으로.. 그렇게 되는건 반대.. 미디어 기계에 점점 점령당하는것도 싫고.. 세상이 진화됨에 따라. 교육방식이 달라져야 되는건 맞지만.. 저런식으로 바뀐다면. 반대일세..', 7, 2), ('정말 시대가 아무리 발달해도 저런교육은 아닌것 같다.제대로된 인성교육과 자연위주의 학습이 우선되어야할듯.....선생님들 부터 마인드를 고쳐야 교육이 바로섭니다.', 4, 1), ('일단 네티켓부터 교육을 시켜야한다. 코흘리개들이 넷상에서 패드립치고 다니는 대한민국.', 1, 0), ('나 학교다닐때도 갖가지 별의별 교실 .. 갑자기 원어민수업한다고 외국인하나들어와서 OOO병하질않나 선진형교실이라고 이동수업으로 바뀌어서 개짓하지않나..고3때가 젤편했지.. 완전강의식이 공부하기 제일좋음', 1, 0), ('빚좋은 게살구 말이멋져보여서 디지털스마트교육이지 제발자기정권때 반짝좋아보이는 정책 내세우지좀마라 교육은100년을내다보는거다.', 1, 0), ('스마트교육을 여러가지 관점에서 잘 정리한 기사네요.', 1, 0), ('연구용역에 얼마를 때려박았는데 아직도 디지털 교과서는 코빼기도 안보이냐', 1, 0), ('곰 좃 터는 소리 하지말아라', 1, 0), ('스마트교육 그러지만 여전히 판치는 사교육?누구를 위한 스마트인가..획기적 생각하는 발명가나 예술인은 타나라에 비해 여전히 그 수가 적은 우리나라', 1, 0), ('스마트고 나발이고간에 애들 책무게 줄 일수 있게 일관된 교육정책이나 제대로 만들어라 케리어 끌고 등교 하는 애들보면 느끼는게 없냐 돌대가리들아', 3, 1), ('애들한테 저런거 필요없다 버릇나빠져서 안되고 차라리 다른 콘텐츠로 교육하는게나을듯', 3, 1), ('스마트 교육인가? 게임이지.. 패드 배포해봤자. 게임기로 전략한다. 백프로다.', 0, 0), ('거치대같은거라도 준비해놓지..애 목아프겟다', 0, 0), ('저거 플레이타임에 있는거~', 0, 0), ('역시 겔레기탭은 보이지 않아 ㅋㅋㅋㅋㅌㅋ', 0, 0), ('선생님은 티나라 학생은 하우키', 0, 0), ('중딩이나고딩 남자애들운 야동 관람용으로 쓸듯', 0, 0), ('디스플레이회사 대박터지것네', 0, 0), ('스마트 기기 쓸라면 와이파이가 되야 이용하던 말던 하죠 ㅋㅋㅋㅋㅋㅋㅋㅋㅋ', 0, 0), ('이거 학부모들이 반대서명 올리는곳 없을까요?이건 정말 아니라고 봅니다.과연 누굴위한 교육방침인지.. 다시 생각 해봐야하지 안을까요?', 5, 2), ('교실에서 스마트폰꺼내면 압수인데요?ㅋㅋ 개같은세상', 2, 1), ('쓰레기 같은 선생들이나 없애라', 2, 1), ('그렇게 인간은 기계의 노예로 사는세상 몇몇 직업도 없어진다던데... 로봇..', 2, 1), ('유명 사립초교에서 스마트교육하는데 애들 수준별로문제를 달리준다던데... 이게 진정 좋은건지 의문... 사실상 우열반 아님???', 2, 1), ('그래서 님들은 스맛폰으로 뉴스보고있지 않은가? 모든교가서가 태블릿에 들어있다고 생각해봐라 이어폰을 끼우면 소리로듣는 교가서가 있다고 생가해봐라 언제까지 노땅꼰대 마인드로 살아갈셈인가? 배댓보면 다 원시인같아 그러니 발전이 없지', 2, 1), ('현직 고삐리입니다.Tv에 선생님 노트북 꽂는데 우리학교 스마트교육입니다', 2, 1), ('저런게 있었구나 뭐 중딩인 나는 해택을 못볼걸 알기 때문에 그냥 닥치고 있어야지', 2, 1), ('스마트교육이니 창조교육이니...쓸데없는 짓해서 아까운 세금낭비하지 말고...그냥 냅둬라! 선생은 열심히 강의나 하고 학생은 수업 잘 듣고 예복습하면 된다 남는 시간을 활용하는 방법과 선택할 수 있는 폭이나 넖혀줘', 43, 15), ('태블릿이나 스마트폰이 청소년에게 장애를 일으킨다면서좋지도 않은걸 왜 하나~', 4, 2), ('당연한결과 아니었나스맛폰으로 수업하면뭐하나가르키는선생들이386시대인데..ㅉㅉ', 4, 2), ('나는 자식 낳으면 고향 내려가서 터전잡고 자연환경에서 야 키울건데. 소프트웨어도 내가 직접 가르켜야지.', 1, 1), ('고등교사입니다. 스마트 기기 활용해서 태블릿에 자료 넣어놓고 문학수업하는데, 교장선생님께서 뭐라하시면 어떻게 해야 할까요?... 장감님들 마인드는 티비 틀면 노는 걸로만 생각하심.ㅠ', 1, 1), ('눈 나빠진다잉~ ㅇㅇ', 1, 1), ('일베접속ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ', 1, 1), ('애플처럼 뿌려야지.', 1, 1), ('졸업하니깐 꼭 ㅜㅜ', 1, 1), ('고3책상이나바꿔줘라 중딩애들이랑 똑같은 사이즈주면 좁아터진다 그리고 조그만책상에 문제집.시험지 다들어가기도힘들다', 9, 4), ('활용정도를 적절히 모색해야지 전적으로 태블릿으로만 이루어지면 제대로된 교육이 어렵다. 애들 눈은 민감해서 눈이 더 빨리 나빠질수도 있고.', 6, 3), ('공교육을 OOO만든게 명바기였지. 무뇌의 극치를보여줌.', 3, 2), ('저렇게 해봤자 저희 학교에선 안할게 뻔하죠...하하', 0, 1), ('스마트교육집어치우고 소프트웨어교육이나제대로해 지금살아있는 소프트웨어개발자분들 대우나해줘라 이건머 굴리기만바쁘지 멀대우가없어', 0, 1), ('저럴바에 입시제도나 좀 바꿔 개한민국아', 0, 1), ('에어컨/난방기나 제대로 달아라', 8, 4), ('영어사전이나 기출문제 이런거 빼곤 솔까 나머진 무쓸모 아니냐 스마트는무슨 오감으로 익혀야 공부지 수포자가 왜나오는지알겟다 ㅋ', 5, 3), ('무겁게책안들고다녀서좋겠다', 4, 3), ('우리나라에서 할려면.. 일단 윈도10은 절대 안되고 애들한테 이것저것 엑티브x 깔게하고 시작해야할 듯...', 3, 3), ('이제 한국인은 하나도 빠짐없이 안경잡이가 되겠구만', 3, 3), ('게임하다 쳐걸리기만 혀봐~! 숟가락으로 확~! 대글빡을 조사블랑께~~~', 0, 2), ('나는 한국에서 뭐 한다고 설칠때마다 그걸로 또 얼마나 등쳐먹을지가 더 걱정된다..', 5, 4), ('수업시간에 핸드폰을 한다는 것을 학교 규칙을 어긋난 행동을 하는건데 그걸또 따라서 행동을 하는 교사도 문제가있다 교사님들아 잘들어 학교에 핸드폰이 있으면 교육제도가 넓어지지는 않아 제발 부탁인데 아이들의 인성을 키우기 위해서라도 제발 핸드폰 폐지해라!! 진짜 교사 너네들다 고소한다!! 명심해!!', 5, 4), ('컴퓨터 교육은 컴퓨터 전문가를 채용해서 쓰자. 국사선생 이런 사람들 두세달 연수시키서 자리에 앉히는 이런 밥그릇 지키기 놀음 좀 하지말자. 이 양심없는 섀끽들아.', 2, 3), ('책이 더 공부하기 좋은데...', 28, 12), ('그리고 솔직히말해서 애기들이 공부하는건 얼마든지 재밌게 할 수 있는거고 대부분 선생님을 통해서 얻을수있는것들인데고등학교좀 지원좀 해주지 원..과학실험도 돈없어서 못하고 실험을 통해 이해해야하는것들을 무작정 외우라고만 하니까 효율도 떨어지잖아..', 1, 3), ('잘만되면 좋을꺼같은데.. 학교컴퓨터관리도 제대로 안되는데 과연.. 유지, 보수비가 더들꺼같은데 ㅜㅜ', 1, 3), ('아무리시대가 발달해도 공부는 고전전인 방법이 최고.스마트기기는 두더라도 교과서좀 엷게 만드시오....월별로 한권씩만 가지고 다니게 하면안되나?? 초등애들이 가방에 묻혀다녀...', 3, 4), ('전자파로 다 죽일래?', 0, 3), ('나도 예전에했었는데.. 엄청좋음 ㅜㅜ 쎔몰래 겜하면 얼마나 짜릿한데 ㅜㅜ 아 그리고 떯어뜨려서 부서져도 봐줘서 고마웠음 ㅎ', 0, 3), ('전자교과서는 어찌된거임??', 0, 3), ('한 놈은 쳐박고 자고 있고 한 놈은 구부정하게 고개 숙이고 태블릿하고 있고 완전 개판이구만. 태블릿 저런 자세로 쓰면 사지마비온다.', 10, 7), ('나중엔 눈좋은 사람이 결혼 순위에 올라가는거 아니야 ㅋㅋㅋㅋㅋㅋ', 7, 6), ('베플 꼬라지들... 지들이 책으로 공부했으니 너희들도 책으로 계속 공부해라 이건가? "거꾸로 교실"이라는 다큐좀 찾아서 봐라 니들 생각이 얼마나 편협하고 시대에 뒤쳐진 생각들인지.', 4, 5), ('머하러 전자기기로 돈들여서 공부하냐 ㅉㅉ.책으로 해도 충분하다', 10, 8), ('교사들도 가르칠 실력이 안되는데 뭘 바래', 1, 5), ('가장 큰 문제는 학생들이 스마트기기를 어려서부터 접해왔고 그 용도가 대부분 오락용이라는 겁니다. 평소에 영상보고 게임하는데 사용하다가 갑자기 공부 매체로 활용하려하니 고등학생 때 컴퓨터실만 가면 겁나 좋아하던 우리들처럼 오락기로 생각해 수업을 잘 이어갈 수가 없다는 거죠..', 6, 7), ('국민학교 세대사람들은 진짜 놀라겠다ㅋㅋㅋㅋ', 9, 9), ('스마트교육이 엄청좋지 책은 필요없고 태블릿 하나만 들고다니면 되니까', 2, 8), ('하지마!! 안봐도 세금낭비다. ! 입시위주의 교육정책에 스마트를 입힌다? 개똥 인성교육이나 강화하길 .차라리 무상급식을하던가', 17, 14), ('애가 장시간 저러고 있으면 눈도 나빠지고 어깨도 구부정하게 되겠다 교사란 넘들이 생각이 있는건지 없는건지', 25, 17), ('교육공학전공자로서 학생들에게 IT활용교육이나 소프트웨어 교육 같은건 일반 학업이 어느정도 완성된 이후 해도 늦지 않다고 판단됩니다. 겨우 구글링이나 해서 자료검색하는게 암기식 교육보다 나은 게 뭡니까? 인터넷은 정보의 보고가 아닙니다. 오히려 잘못된 정보를 전달받을 가능성이 월등히 높죠. 창의력은 고등한 사고과정에서 필요한 능력이지 검색만 해도 나오는데 암기는 뭐하로 하냐는 식으로 창의려을 꼼수로 발휘하는 학생들이 늘어나면 나중에는 검색만 할뿐 판단능력이 없는 인간들만 양성되는 겁니다. 남들이 만들어낸 기기활용만 하는건 교육이 아니', 47, 32)]</t>
+  </si>
+  <si>
+    <t>[('정품아닌 불법프로그램도 사용못하게 다 막아줘요~ㅎ', 0, 0), ('무슨 대단한 기능인양듯 선전하는듯이 보이는건 나뿐인가요?', 3, 1), ('7에 있을땐 삭제까지 할려한 프로그렘이죠... 이야~ 이게 유용한 기능??? 똑같은건데!', 2, 4), ('디펜더는 7에도 있었는데 다른건가?', 4, 3), ('나중에 이렇게 하겠지. 바이러스 치료는 유로입니다. 운영체제 만든 회사에서 자체 백신 이라.. 자체 패턴분석 가능하면 차라리 보안 패치나 하지? 시스템 전체 속도나 느리게 하지 말고.', 1, 10)]</t>
+  </si>
+  <si>
+    <t>[('왜 우리나라만...외계인이 쳐들어올까봐 그래. 북한도 중국도 러시아도 우리나라 상세 지도 다가지고 있을걸.', 1, 0), ('구닥다리 지도반출법좀 폐지해 의미도없는거', 8, 0), ('대한민국은 해당사항이 없네요..', 15, 0), ('(GPS가 탑재된 기기에 한해)... 그냥 gps앱 깔면 되죠? 대단한건줄 알았죠... GPS기능 탑제된 렙탑과 데탑이 조낸많죠? 필수요소죠? 엄 켬터사자 하드용량,메모리,그레픽,입출력 USB포트 수 그리고 GPS 유무확인???', 1, 18), ('스마트폰 지도 있죠.. 쥐뿔쓸모없죠... 폰없는데 컴있는 레어휴먼이 몆이나 될지도 궁금하죠(어린애도 폰가지고 댕긴다... 것도 스마트폰말야)', 5, 23)]</t>
+  </si>
+  <si>
+    <t>[('저건 맥OS X에서 계속 있어왔던 기능인데 정말 편하게 쓰고 있음. 윈도우10에서 얼마나 부드럽게 넘어갈수 있는지 기대됨', 2, 0), ('맥북에서 유용하게 썼었는데.. 얼마나 맥북처럼 매끄럽게 되는지가 관건일듯', 4, 0), ('그렇죠... 메모리 한도이죠..! 결국은 성능이 좋아야죠 뭐...', 2, 0), ('이 기술 이십 몇년전 리눅에서 벌써 나왔던 기술인데 뭘 새삼스럽게.. 그 당시 메모리 극혐 때문에 두세개 열면 버벅. 근데 혼자 사용하는 피씨에서는 마구 필요 없는 기능. 아마 explorer 기능을 n분에x로 보호모드 적용. 원도우 테두리만 없을뿐.', 1, 2), ('나만그런지는 몰라도 항상 금융사이트 들어가면 컴퓨터가 다운되더라', 5, 1), ('윈도 10 제어판 아이콘들을 보면 미처 바꾸지 못하고 아직 윈도 비스타 아이콘을 그대로 쓰는게 있다. 출시일에 쫓겨서 급조한 티가 보인다. 인사이더 프리뷰라면 이해하지만 정식판이 이러면 쓰겠나. 일부 아이콘 디자인은 마치 그림판으로 그린 것 같이 투박하고 윈도 비스타/7에 비해 열화...그 밖에도 윈도 8부터 있었던 사소하지만 신경쓰였던 제목표시줄 버그라든가 여러가지 버그들이 아직도 고쳐지지 않은 상태로 출시되어서 매우 실망...', 7, 7), ('우분투:??????', 13, 3), ('바탕화면 늘리는 프로그램이 뭐 였더라,한참 써먹었었는데... 그거 맥도 표절하던데...윈도우도 표절하네. 이런건 대개 남의 프로그램을 표절하지.', 1, 4), ('매킨토시가 나온지 30년이 지났는데 아직도 베끼고 있네.', 2, 8), ('메모리 OOO맞게 잡아먹는건 vmware랑 도찐개찐이죠? 도긴개긴(도찐개찐... 개콘이 망친 단어 중 하나)', 2, 6), ('VMware 있죠.. 하드웨어가 PC,Labtob 이란 조건하에보면 그냥 잉여기능이죠? 그나마도 VMware에 뒤처지죠? 아에 다중모니터를 추천하시죠? 가상윈도우 vs가상데스크탑?(통칭 멀티창)', 2, 6)]</t>
+  </si>
+  <si>
+    <t>[('대중이 왜 현충원에서 추모하노..? 평양에서 해야지', 4, 5)]</t>
+  </si>
+  <si>
+    <t>[('ㅎㅎㅎ.. 놀고 싶냐..??', 0, 2)]</t>
+  </si>
+  <si>
+    <t>[('삼성에서 56세이상까지 근무하는 직원들은 대부분 생산직이거나 단순노무직일 것 같습니다. 실제 대졸 사원이면서 56세 이상은 거의 없습니다. 56세이상의 대졸사원들은 거의 임원들이고, 임원은 계약직인데 이들의 연봉을 줄이겠다는 것이 말이 되는지 헷갈립니다.', 10, 2), ('삼성직원중에50세넘은 직원비중2프로나 되냐??영계삼성 영계삼성하는데는 다이유가있지어느정도수준까지는 진급시켜주고과장선에서정체기 생기면대기발령이나 전배보네서 스스로나가게 만드는회사아님??', 4, 1), ('조삼모사.....투자를 통해 신규 일자리창출이 아름답다. 그렇지않고, 늙은이 밀어내고, 젊은이 채용이 고용해소냐...! 참, 창조적이다..!', 1, 0)]</t>
+  </si>
+  <si>
+    <t>[('솔직히 eshop에 버추얼 콘솔을 발매해줄지가 더 걱정이네요..흠..', 3, 0)]</t>
+  </si>
+  <si>
+    <t>[('컴퓨터 전자파와 블루라이트에는 티파워유 tpowerU를 추천합니다.안구건조증과 시력보호에 좋아요.', 0, 0), ('그런데 마지막막에 쓴굴은 좀이상하네요눈클리어 아닌 히면은 빛이 직접 눈에비쳐 금방 눈이 쎄리던요 그걸 못느끼나요', 0, 0), ('아몰레기는 원천적으로 방법이 없다. 안그래도 채도가 엄청 오버되게 나오고 색상도 엉터리로 왜곡돼 있는데.. 웃기는건 그렇게 엉터리 색상을 쨍하고 선명하게 보인다고 착각 하는 아둔한 사람들..', 1, 0), ('저는 그래서 17인치대 노트북 쓰죠.. 말이 모니터지..TV를 눈앞에 떡 갖다놓으라 하니...;;;', 1, 0), ('모니터만 작아도 괜찮은데 요즘은 모니터 너무 크게 나와서 조금만 봐도 눈아프고 오히려 집중도 안 되고..영화볼때 아니면 그렇게 큰 모니터가 왜 필요한지 모르겠다 조금만 쳐다봐도 눈이 너무 아파 전보다 눈이 배로 아프고 시력도 배는 나빠지는듯 블루스크린 차단 써도 힘들던데', 2, 0), ('좋은 정보이네요.^^.평소에 눈이 나쁘지만 눈의 휴식을 취할 충분한 시간은 없었는데..앞으로 눈을 자주 쉬게 해줘야되겠네요..', 0, 0), ('일할때만 블루라이트만 차단해주는 안경 착용합니다. 일반 렌즈하고 똑같아서 평소에 쓰고다녀도 괜찮구요. 여긴 일본이라 아무데서나 파는데, 한국은 어떤지 모르겠네요.', 2, 0), ('내친구가 그러는데 선글라스 끼면 컴터게임 하루 종일 해도 눈 안 아프다고 하더라.', 0, 0), ('청색광, 플리커.. AMOLED에 다 들어있는거네', 4, 0), ('안경쓰면 블루라이트차단안경쓰는게 모니터쓸때뿐만아니라 일상생활에서도 눈 편하긴하다 다만 외국보다 블루라이트차단안경시장이 작아서그런지 별로 없기도하고 가격도 좀 비싸고 차단률 뻥튀기만하지 믿을곳이 별로 없는게문제', 1, 0), ('눈을 뽑아 버리면 돼', 2, 2), ('탈북자는 니네 나라로 돌아가라', 0, 1), ('직접 경험한 진짜 좋은 방법 1. 창문 통해 멀리 보이는 빌딩이나 산을 바라 본다 =멀리 보는 것 자체가 눈을 쉬게 해줌 .............2. 눈 감고 쉴 때 눈 운동 하기-눈알을 크게 원을 그리며 좌로 한바퀴 우로 한바퀴 돌린다. 그 다음 두바퀴, 세바퀴 등으로 횟수를 늘려 간다 . 무한대 그림 그리기, 8자그리기 등 눈을 굴려 주면 눈 주위 혈관과 근육이 튼튼해져 혈액순환이 되므로 노안방지 시력 강화 효과가 있다. ----안과 가라, 약사먹으라는 광고성 댓글 아니므로 백프로 믿으셔도 된다.', 2, 0), ('요즘모니터 읽기모드라고 해서 블루라이트차단 기능모드 거의다 들어있습니다 웹서핑할땐 이 기능 키고 하면 굉장히 좋아요.', 1, 1), ('방법은 화면을 어둠게하든가 50분 후 10분 휴식......ㅎㅎ 모니터 회사에서 장시간 봐도 눈에 이롭게 만들어달라는게..더 현명할듯...', 0, 0), ('아 다 읽어보고싶은데 중요한 글은 빨간색으로 표기하게 할수있었음좋겠다', 1, 0), ('저반사가 눈에 좋은거지 멍청한 새.끼들. 기자도 한심하네 논글래어가 좋아. 애플에서 미쳤다고 에어2 저반사 해놓은줄알아. 조선 새.끼들은 그것도 모르고 거기다 강화유리필름 부착해서 빛반사되게 원위치 해놓지 멍충한 원시인 한국 일본 새.끼들. 이 미개한 한국 시민 새.끼들 돈도 안받고 인터넷상에서 가르쳐온지도 어언10년. 입금좀해라 정부나 통치자들아 문명화시켜준거애 대해. 이상 길현준 이였습니다.', 1, 4), ('오호 좋은 기사 고맙습니다~', 2, 0), ('잠시 1분이라도 먼곳을 바라보고 있으면 증상이 완화됨.', 4, 0), ('시력보호고 뭐고 젊음이 최고야 이런건 귀에 안들어옴', 0, 1), ('난 왜 시력 1.0 1.0 항상 멀쩡하지??', 0, 2), ('STOP PHUBBING!!!', 0, 0), ('50분동안 모니터 보고 10분쉬면 그 십분동안 님들은 핸드폰을볼것입니다 백프로 !', 7, 1), ('빛이 안반사되게 저반사가 좋음. 논글래어가 눈 안피로해. 강화유리 끼지말고 저번사 팔름 껴라 스마트폰에.', 1, 1), ('야동보는 시간을 줄이면된다.', 4, 2), ('진통제 먹으면 돼. 바부들아', 2, 2), ('그냥 보면서 눈 자주 깜박거려', 3, 1), ('시골 사는 분들이 눈이 좋은 이유늘 푸른 자연을 접하고 멀리 늘 볼 수 있기에... 안경 낀 사람이 없다는 게..특징..', 1, 2), ('컴퓨터 오래볼때 눈이 피로한 가장 큰 이유는 조절력을 많이 써서 조절을 담당하는 눈안 근육이 피로해져서 입니다. 좀 쉬세요..', 2, 2), ('진짜 우리나라에 몇 안되는 기자님다운 기자님..기레기들아..이게 진짜 유익한 기사라는거다..보고 배워라..', 2, 4), ('하루 종일보던 안보던 상관없고 정시퇴근이나 시켜주라. 그게 눈이 살길이다 이긴글 누구보고 읽으라고 요약도 없냐. 기자님 멋지심', 4, 1), ('게임을 100분(1시간40분)동안 한다면 20분동안 눈을 쉬어야하나요?', 0, 1), ('좋은 정보네....', 1, 1), ('물을 자주 마시면 눈이덜 피로하지요.', 4, 0), ('결론이?? 기사는 장황한데 결론을 모르겠음. 그냥 각자 알아서 조절하라는 것을 이렇게 길게 쓰지는 않았겠죠?', 3, 2), ('핵심이 뭡니까 눈안아프려면 뭐하라고요?', 9, 0), ('진짜기자다 기레기들많은데...님은베리굿!!', 7, 4), ('모니터보면서 눈 한번도 안아파봤다', 3, 3), ('저럴바엔 50분지나면 모니터저절로 꺼지게하는게 낫지않나??10분안지나면 절대안켜지게ㅋ', 1, 2), ('스마트폰 은 설정 들어가서 화면모드를 사진모드로 바꾸면 좀 편안해짐 블루라이트 차단 필터는 오래쓰면 진짜 오줌액정으로 변한단 설이 있길래....', 2, 0), ('기자님 힘내시길 ㅠㅠ', 2, 1), ('!^^ !^^ !^^ !^^ !^^ !', 1, 0), ('50분 컴터보고 10분 딴데보려면 결국일을 10분씩 안하는건데.. 회사가 그것을 용납못함..', 18, 1), ('페이커도 안경씀 ㅇㅅㅇ', 1, 0), ('애플 제품들 LCD가 노란색으로 맞춰져 있는 이유는 백인들 눈이 빛에 약해서 블루 라이트를 싫어하기 때문임. 그래서 최대한 블루라이트를 줄이는 방향으로 제품을 개발하고 있지만 불반도 헬조선에선 블루라이트를 선호하지.. -_-', 2, 1), ('새누리당스러운 년놈들이 길거리에 자주 보여서 눈이 너무 빨리 피로해지네요. 새누리당스러운 년놈들을 쫌 사라지게 해주세요!', 4, 2), ('눈감고 타자치기........한맵', 1, 0), ('음..멋진팁이네요.오래 모니터 보는 사람들한텐 좋을듯', 0, 0), ('자외선영역에 가까운 청색광이 시신경세포자체를 손실시킨다........외국에서는 활발하게 논의 되고있으나.....우리는 잠잠........', 1, 1), ('제목보고 기사내용 이따구일거같아서 댓글구경하러왔다 기레기야 ㅉㅉㅉ', 1, 7), ('3줄요약 좀....', 2, 2), ('나도 f.lux깔아서 쓰고잇는데 확실히 밤에 눈에 이물감과 침침해지는게 없어졋다 밤만되면 눈 침침해지는 사람들은 꼭 깔아서 써라', 3, 1), ('글레어랑 논글레어는 가독성차이가 심해서 실질적인 피로도가 차이나는듯.', 1, 0), ('너무길고 가시성없음 표라도만들어서 올려주지.. 시간도없는데 언제다읽어', 3, 1), ('너무 길어 내용이 요약좀', 1, 3), ('글레어나 논글래어는 차이 있는거 같던데. 그리고 예전 소니 노트북이 눈피로 제일 심했음. 옛날 노트북들이 눈피로 적음. 유리 패널 요새 나오는것들이 눈피로 심함', 0, 0), ('결과적으로 니 자랑할려고 글을 이런식으로 쓴거냐? 이게 눈 아프다', 2, 1), ('잡설이 너무 길다... 그냥 필요한 정보만 좀 주라 소설인가.. 보다 눈아파서 안본다..', 5, 2), ('응 길어서 안읽어 기사를.짧게쓰면 읽는사람 눈 안 아프잖아 기레기새끼가 문제야', 5, 4), ('기사가 너무 길다.', 5, 4), ('명암비를 30정도로 하고 밝기를 60정도로 하면 강한빛이 사라져서 하루종일 봐도 괜찮다.', 4, 1), ('야겜하는데 f lux쓰면 그림체극혐이다', 2, 4), ('좋은 기사 감사합니다.', 7, 0), ('3줄요약 A.M.D', 1, 0), ('이 기자 예전부터 지켜봤는데 골수부터 amd팬 암등이임.. amd 살려보겠다고 apu 추천하는 의리남ㅋㅋㅋ 암걸려서 암당이라더만 독자들 암걸리겠네', 0, 0), ('와우 기자가 기자 다워야 기자지! 이렇게', 0, 1), ('컴퓨터를 멀리 하는게 답이다', 1, 0), ('ㅇㅇㅇ. 참고하겠음', 0, 0), ('피안나고 똥 잘싸는 법 있나요???', 1, 1), ('블루라이트차단필터 한번써보세요~ 진짜 차이 확나요', 0, 0), ('모니터에서 보이는 밝기가 균일하지 않은 문제도 있었나 봅니다. 모니터의 좌우측의 밝기가 균등하면 눈의 피로는 훨씬 덜한 듯 합니다. 다만 전기세가 많이 나올 수도...그래도 LED는 예전 형광등 등에 비하면 좋은 편이죠. 혁신적인 기술이 나오기 전까지는 전기세를 좀 더 지불하고 눈을 보호하는 것이 낫겠다는 것이 제 개인적으로 내린 결론입니다. 댓글 거의 안다는데 처음으로 길게 써봅니다. 도움이 되셨으면 합니다.^^아참, 목, 허리 아프신 분들은 서서 일하시는 것도 좋을듯요. 모니터 높이는 정확하게 정면을 응시하도록 하시면 좋아요', 0, 0), ("'아프지 않는'이 맞습니다.", 0, 0), ('이런게 기사다 !!!!!', 0, 0), ('참고하아 무슨 소린지', 0, 0), ('누구나 아는팁을 마치 엄청난 판도라의 상자를 여는거처럼 찰지게 낚시하네', 0, 0), ('2. 모니터 독서모드재작년에 산 LG 24인치 ips쓰는데요, 독서모드가 있네요. 독서모드일 때와 아닐 때와 좀 차이가 있는 듯 합니다. 제 경우에는요. 독서모드 추천합니다.방 밝기가 중요하다는 것은 우연히 알게 됐는데요, 밝은 곳을 좋아해서 사무실에 LED등을 여러 개를 설치했는데, 사무실에서는 눈이 아프지 않은데 이상하게 집에서는 눈이 아프더라고요. 그래서 가만히 봤더니 집에는 30w led 하나 설치되어 있고, 사무실은 여러 개 설치되어 있는 차이가 있더라고요. 또 방 한쪽에만 등이 설치되어 있다보니', 0, 0), ('안경을 써도 효과 있음.', 1, 0), ('ㅋㅋㅋㅋ기자님들힘내세요', 1, 0), ('많이 먹어도 살 안찌는 방법 있나요?', 1, 0), ('귀여우시네요 ㅋㅋ. 유용한 정보 고맙습니다.', 3, 0), ('기자들이 웃겨ㅋㅋㅋㅋ', 2, 0), ('저도 모니터 오래 보고 눈때문에 꽤나 고생했습니다. 제가 찾은 방법은 다음과 같습니다.1. 방을 밝게 한다. 모니터 주변이 어두우면 눈이 아프더군요. 모니터의 좌우측과 가운데에 LED등(30~40w짜리)을 달아서 주변을 밝게 합니다. LED등은 머리 바로 위에 가운데 등을 달고 가운데 등의 좌우측에 한개씩을 더 답니다. 스마트폰 어플로 측정하면 모니터 근처에서 1000럭스 이상 나옵니다. 예전 사무실에서는 600~700럭스쯤 나왔는데 거기서는 가끔 눈이 피곤했는데 지금은 그런 것 거의 없습니다.', 0, 0), ('블루스크린 차단 안경같은것도 괜찮을 듯 싶네요', 0, 1), ('기사 보느라 눈아프다! 요약!!!', 2, 1), ('개발자가몰라어떻게된거야', 0, 2), ('마지막줄만 보면 됨... f.LUX 괜찮음 쓰세욤', 3, 0), ('루테인 먹으니깐 쫌낫더라', 2, 1), ('얼마전에 벤큐 모니터 하나 사서 사용중인데 상당히 만족중 ㅋ 플리커프리는 체감이 잘 안되는데 로우블루라이트는 쓰다보면 생각보다 눈이 편함.. 물론 색이 누래져서 보기엔 별로 안좋지만..', 0, 0), ('이런 기사 좋습니다 ㅎㅎ컬러E잉크 반응속도와 잔상을 개선하고백라이트로 밤에도 볼수있는 디스플레이가 언젠가는 출시되길 기대합니다', 0, 0), ('게임하면 눈 안아프던데 나만그러냐??', 23, 2), ('이거 웃긴게 게임하면 멀쩡한 사람들도 있음', 22, 2), ('우리혈육 안경끼는사람 진짜드문데 나혼자 눈나쁨ㅜㅜ스마트폰,책때매', 7, 1), ('눈이 아프지 않게 하는 다른방법은 눈을 촉촉하게 하는건데 눈을 촉촉하게 하기 위해서 눈물과 비슷한 소금물을 넣어줘야 합니다 소금물은 과포화상태까지 소금을 녹이시고요 눈에넣을때 좀 아파도 참으세요 적응시간이 생겨서 그럽니다 다른방법으로는 인체의 피와 비슷한 이온음료를 눈에 붓는것인데요 파워에이드를 작은병에담아 눈이 아플때마다 스포이드로 한방울씩 떨어트려주세요 다른사람들도 알게 공감 누르시면 좋을거같네요', 0, 14), ('청색광과 눈 피로의 상관관계는 아직 확실하게 밝혀진게 없고 학계에서 인정된것도 아닌데 일본팀 실험 하나 가지고 청색광=해로움이라고 이미 사람들 머리속에 각인됨.. 청색광에 대한 유해 여부는 밝혀진게 없음... 고로 블루라이트 차단 필터 같은거 쓸 필요 없음.', 1, 1), ('기자님 귀여우셔..', 2, 1), ('좋은 정보 감사합니다', 2, 0), ('기자님 아이티 애정남이라고 하셨는데.. 애정남이 뭔지 모르시죠?', 0, 2), ('AMD 까탈리스트..', 2, 0), ('갓벤큐... 편안하기도하겠지만 실제로 게임할때 0.몇초 더빨리 반응할수있어서 좋음', 0, 0), ('눈도 눈이지만 난 머리가 더 아프던데...', 2, 1), ('모니터 보지마 근원을 없에 간단하잖아 최고지', 0, 0), ('좋은 기사 감사합니다!!!!!오늘도 좋은 하루 되세요@@!!!!', 0, 1), ('아픈것보단 시력이너무 낮아진담..그림쟁이라 아직어린데 안경없으면 흐릿흐릿..', 9, 0), ('오래 앉아서 혹은 서서 혹은 한곳을 집중해서 봐야하는 직종이면 많이 쓰는 부분을 운동시켜줘서 단련시키는방법밖엔 없음 그 쪽 근육의 퇴화라거나 기능 저하 속도를 낮춰주는 방법밖엔', 0, 0), ('요즘 대세는 플리커프리와 블루라이트 차단이죠. 플리커프리는 디스플레이에서 지원을 안하면 따로 조정할 수는 없으니 되는 모니터를 구매하시고, 블루라이트 차단은 모니터에서 지원안해도 소프트웨어로도 색온도 조절 가능합니다.', 0, 1), ('눈이 아프지 않은 이거 맞는맞춤법임? 걍 안아픈 방법 이라고하면 안되나?', 0, 1), ('속편하게 벤큐 모니터 사셈! 게임에는 최고', 0, 1), ('눈의피로를 일시적으로 풀려면 AV를 추천한다 그러나 보고나면 더~피곤하다는 안타까운현실...', 3, 1), ('옛날 모니터 TRT? 그건 괜찮던데 요즘 모니터나 티비 오래보면 눈아퍼 다크써클생겨', 2, 1), ('안하고 안보면 됨', 1, 0), ('모니터를 비싼거 사면됨 그럼 다른사람한테는 이거 비싼거라 눈이 하나도 안아퍼 하면서 울게됨 ㅎㅎㅁ', 1, 0), ('네 다음 개뻘짓기사', 0, 1), ('한국은 노랗게 되면 오줌액정이라고 입에 거품물고 달려들어서 푸르딩딩하게 해줘야함', 23, 3), ('어 복잡하다 그냥 50분 하고 10분 쉬어야지', 1, 1), ('스마트 폰도 똑같아요 ~~~', 0, 0), ('가장 좋은 방법은 보안기를 다는 것임. 1센티 두께 보안기로', 0, 0), ('굿ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ', 0, 0), ('유용한 글이네요~~', 0, 0), ('눈이 안아픈방법 눈을 감는다', 2, 0), ('어떠한 취지에서 기사를 올렸는지는 알겠다만, 모니터를 장시간 처다보면서도 눈이 아프지 않기를 바라는 것은.. "우리나라 정치인들이 정치를 저따위로 하는데, 살기 좋은 나라가 될 수는 없는 것인가요?"이런 것에 버금가는 것이라고나 하면, 애초에 저 질문은 불가능하다는 것이 이해가 쉬우려나?', 1, 2), ('그림이나 디자인하는 사람들에겐 쓸모없는 팁... 모니터 감마나 밝기, 색상등을 변경하면 작업물 색감의 정확성이 떨어져서...', 712, 191), ('선글라스 착용하세요 하루죙일 롤해도 눈꼽따위 끼지 않습니다..', 3, 4), ('모니터가 60Hz 교류를 써서 깜빡인다니 대체 이게 무슨 자다가 봉창 두드리는 소리인지...디지털기기는 직류를 씁니다. 외부에 직류변환 아답터를 쓰는 경우도 있고 없어도 모니터 내부에 있습니다.좀 더 잘 알아보고 기사를 쓰시길... 대충 짐작으로 쓰지 말고...', 1, 1), ('그냥 모니터 오래 보질 마라', 2, 1), ('감마를 낮추면 어두워서 겜 할땐 잘 안보여요 제가 월탱 하는데 감마는 중간 이상 옵션으로 돌리고 그래픽은 최상급으로 하고 하거든요 워낙 몰입도가 높아서 겜할때 안구가 박살 날정도로 쉽지 않음 ㅎ', 269, 54), ('수박을 많이 먹어도 오줌 안마려운 방법 있나요?', 668, 185), ('모니터 밝기를 줄인다 끝', 1, 3), ('절라기네... 읽다가 포기함... 좀 요약 정리를 하던지, 리스트 만들어서 핵심 키워드를 뽑아주던지..', 37, 39), ('색감조절해도 큰 차이는 없어요. 물론 있긴한데... 미미한정도에요. 글대로 쉬는게 가장 쉽지만 그게 쉽지않은 한국인들의 현실에 슬퍼지네요. 그러면서 본인도 게임 오래하지만 -_-;', 2, 3), ('그래봤자 하루종일 컴퓨터 보면서 일하면 눈 나빠지더라', 649, 84)]</t>
+  </si>
+  <si>
+    <t>[('뭘 키운다고요? 능력있는 개발자는 떠나는데 그런 개발자를 잡는게 더 낫지 않을까 싶네요~ 문과생 가르치려면 최소 5년은 투자해야 그냥저냥 개판으로라도 만들어 낼텐데.... 뭐하겠단건지 모르겠어요~ 쇼 하는거 같아요~ 전 6년차 개발자입니다~ ㅂㅂ~', 37, 5), ('있는 인력도 관리 못 하면서 문 전사를 키워', 33, 4), ('제목봐라 뭐 소프트웨어 전사? ㅋㅋ 개그하나? 그러니 니들이 생산공장 수준을 못벗어나는거다 지들은 뭘 잘못하고 있는지도 모르겠지', 24, 3), ('ㅋㅋㅋㅋ 차라리 이공계애들 뽑아서 문학적 소양을 넣던지ㅋㅋ 코딩이 저런걸로 뚝딱 나오냐', 12, 1), ('하청업체에서 파견인력이 모자란가보지..병정에서 싼값에 피터지게일할 프리랜서 개발자가 필요한거겠지...', 8, 0), ('전사 다 뒤지겟네', 8, 0), ('하루 15시간씩 컴퓨터앞에앉아서 프로그래밍하고 싶지 않으면 저런데 가지마라', 13, 2), ('ㅋ ㅋ 삼성이 sw는 유치원 수준인데 그수준으로 무슨 인재를 키워 그리고 문과 출신이 언제 고급 개발자가 되냐? 저급 개발자 양산하는거지 그래서 삼성 하청단가 낮추려는 의도지 삼성에 고급 개발자가 없는데ᆞᆢᆞᆢ 그저 갑질하는 관리직만 있을뿐', 7, 0), ('삼성의 주류(하드웨어 사업부 출신임원)가 비주류를 과연 인정해줄까? 그래서 여태까정도 못한거잖우', 7, 0), ('제발 있는 애들 더 키워서 대우해 줘라', 6, 0), ('2004년에발간한 NASA Software Safety Guidebook .pdf 번역좀 미래부에서 해서 오류최적화된 안전성있는 소프트웨어 작성관련 체크리스트기준을 우리모두 인지하면좋겠습니다 안전한소프트웨어를 작성하는 나사의 기준이 지금한국의 굿소프트웨어기준에 녹아있는지도 궁금하구요', 5, 0), ('삼성 6천4백명 정예 댓글부대 전사로 키운다', 10, 2), ('단가후려치고 죽어라 야근하게 만들텐데 뭘 .. "노예 모십니다"겠지', 4, 0), ('그저 웃지요.....ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ언제 소프트웨어 인력이 없어서 못한거처럼ㅋㅋㅋ', 53, 17), ('문과생 입장에서 생각해보세요. 좁은 취업문에서 조금이라도 밟고 일어서려고 꺼낸 칼자루가 소프트웨어 개발일 뿐입니다. 열정없이 소프트웨어 개발에 전문가가 될 수 있을까요?', 4, 1), ('이런식으로 비전공자를 전환하니 SW개발 수준이 떨어지지.SW개발이 만만해 보이는가 보네. 노트북 한대 주면 끝..정부에서 청년 실업 해결한다고 안드로이드 교육 시켜서지금 앱 개발 시장이 개판인것을 모르는가?', 1, 0), ('바다만든 소프트웨어 인력은 어디감? 저세상감?', 0, 0), ('이딴식으로 저품질 인력 양산해서 인건비 낮추려는 수작필거면 대학교 진학할때 전공은 왜 선택하나 모르겠네...', 0, 0), ('조잡한 도구들임. 허접한 1만명이 천재하나 못따라잡음. 차라리 평직원 10배 돈을주고 천재하나 고용하는게 효율적임.', 0, 0), ('일자리 만든 다는 기사엔 아무말도 없다가 조금 건수 나오니까 바로 까는것 보소ㅋㄱㅋ', 1, 1), ('뭐 막노동자 6400명 키운다고?', 11, 5), ('이재용이 닭그네를 빨고 있구나. 그 동안 단통법으로 까이고. 국정원에서 해킹사건으로 겔레기 까이고. 방통위가 아이폰 홍보하고. 죽일맛이겠구만. 닭그네에게 아양을 떠는중, 이재용.', 6, 7), ('그래도 SW전공자는 삼성밖에없다 우리나라는 SW답이 없지만 준비하는 것을 봐선 삼성이 유일...아니면 그냥 하청 프로그래머나 담당하겠지', 3, 8)]</t>
+  </si>
+  <si>
+    <t>[('초대권 http://nantoo.co.kr/?code=ed41d9adc5fafe8fece0dad05a3b2d1bdd13839f05dd897dca9d284491542fe3', 0, 0)]</t>
+  </si>
+  <si>
+    <t>[('80년대에는 우리나라 공고 출신들이 싹 휩쓸었던건데.', 2, 1)]</t>
+  </si>
+  <si>
+    <t>[('이게 진정한 창조경제돈 안주고 유저 테스터로 쓰고 오히려 과금으로 돈을 벌었으니....', 0, 0), ('기존 서버 유저들은 돈내고 테스터 함그리고 테스트 끝날법 하니까 출시 100일 기념으로 기존 서버 버림 ^^', 7, 3)]</t>
+  </si>
+  <si>
+    <t>[('기존 서버 유저들 다 접고 현질 이벤트만 죽어라 해대고 돈뽑아 먹을대로 다 뽑아먹더니 이제는 카카오로 돈줄 땡기시겠다?ㅋㅋㅋ 유저들의 목소리에 귀좀 기울였으면 이렇게 망하진 않았겠지 ㅋㅋㅋ', 6, 0)]</t>
+  </si>
+  <si>
+    <t>[('오픈 오피스...', 0, 0), ('마소 오피스 최고라면서 우기면서 현금출납기능만 쓰는 인간. 돼지목에 진주다. 리브레오피스. 충분하다 AMD APU 가속기능도 된다', 1, 0), ('내 친구중에 오픈 오피스 존나 칭찬하던 놈이 있었지...다만 그놈의 문제점은 오피스고 뭐고 전혀 배울 생각이 없었다는 것', 0, 5), ('요즘은 중국산 킹소프트 오피스(WPS 오피스)가 무료오피스 중 대세임. 아직 리브레나 오픈오피스 쓰는 사람들 함 써봐라.', 1, 4)]</t>
+  </si>
+  <si>
+    <t>[('I7 6700 스카이레이크 내장그래픽 활성회시켜야겠네요 gtx1070과 결합하면 성능이 얼마나 향상될지 궁금합니다.', 0, 0), ('기존게임들도 업그레이드 될까요? 검은사막이나 파판14등이요. 불가능한가요?', 0, 0), ('아 제옹 샀는데 이럴둘 알았으면 i7살껄', 1, 0), ('맥으로 바꾸려다가 윈도우 10이 너무 마음에 들어서 그냥 윈도피씨쓸까 심각하게 고민중 크롬 버리고 엣지 써요. 사티아 나델라이후에 마이크로소프트가 확실이 달라졌어요', 2, 1), ('윈도우 10이 별로라는 분들은 써보고 말씀하시는지 익스플로러11도 사용할수있어서 은행업무 이상없고 오피스니 한글이니 업무상 문제없고 온라인게임도 문제없이 잘돌아가고 속도도 빠른데 대체 멀보고 호환성 호환성 하는지 아직도 윈도우xp때 쓰던 예전프로그램을 말씀하시는지...', 16, 7), ('진짜 윈도우10은 희대의 역작 인듯해요!', 16, 1), ('내장 그래픽을 잘 사용하기 보다는 모니터를 확장해서 2개 사용하면 주 모니터가 자주 맛이 가버립니다...구형 프린터 연결이 안됩니다....등등....아직 윈도우10 문제가 많은데 아주 우수한 것처럼 기사를 쓴 이유가 궁금하네요~ 저는 자주 주 모니터가 꺼져 재부팅을 하는데....절전모드를 해제해도 꺼져 버리는데...대책이 없네요~', 3, 5), ('최신 스카이레이크 내장성능 gtx460급', 14, 2), ('어떻게 깨운다는거야??아무리 읽어도 깨우는 방법이 없네 ㅋ', 0, 9), ('게임을 안해서 난 모르겠다. 기껏해야 철권 킹오브파이터나 하는데... 내장으로도 잘 돌아가니까. 그냥 편한 윈7 쓸래', 0, 6), ('내장그래픽 좋은것도 좋겟는데 마이크로소프트와는 관계는 없지만 이젠 cpu성능업좀해라', 1, 3), ('참 날로 갈수록 엄청 빠르게 컴퓨터 기술이 발전하는구나.. 내장그래픽이 저정도라니..', 13, 1), ('확실히 프레임이 엄청 올라가서 놀랐습니다.', 15, 0)]</t>
+  </si>
+  <si>
+    <t>[('기업용은 유료이고 프로그램 자체에 MAC 어드레스 수집기능있습니다. 그래서 회사에서 깔면 회사에 내용증명서 날라옵니다. 회사에서 쓰시는분들은 라이센스가 없을시에는 유료구매후 사용하셔야합니다. 무료라고 홍보되어있는데 집에서 쓰는 개인유저만 해당됩니다. 회사에서 정말 곤란한 상황을 겪으실수있습니다.', 1, 0), ('pdf 개나주라그래 한국에선 아래한글이다', 0, 5)]</t>
+  </si>
+  <si>
+    <t>[('21:9 그냥 7:3 이라고 해라 스 대 이....아니면 210:90 이라고 해봐라...', 1, 0), ('저사양 본체만 40도 안할건데 모니터값 100만 이상인듯', 5, 1), ('21:9로 만들면서 공간 넓어지니까 그래픽카드도 달고 하드도 달고... 근데 150만원..', 13, 2), ('저 가격에 저 성능이면 아이맥 사지.', 22, 6)]</t>
+  </si>
+  <si>
+    <t>[('G4는 카메라는 좋음........', 2, 1)]</t>
+  </si>
+  <si>
+    <t>[('그리고 웹 표준 안 지키는 업체, 관공서는 시한을 주고, 못 지키면 시스템 운용을 못하도록 배제하면 된다. 아쉬운 사람이 우물을 파는 게 정상아닌가?! 왜 표준도 아닌 이상한 시스템에 전국민이 휘둘려야 되냐??', 0, 0), ('공인인증서 없애라. 전세계 어디에도 없는 이상한 보안시스템이다.', 0, 0), ('모든...일반사용자들은 원하지만...서비스를 제공하는 제공자측에서는 모두 원하지 않는다...자체적인 보안시스템을 누적및 축적하지 못한기업들은....규모별로 상당한 비용을 들여야하고...장소및 관리 개발등....또 제일 중요한...소비자에게 설치 승인만 받아내면...기업이 직접 뚫리지 않는 이상 책임회피를 할수있던 것을 고스란히 기업들이 책임을 져야하기 때문이다...액x만 없앨것이 아니라....보안책임에 따른 법령들도 강화시키고...사고에 대한 패널티도 무겁게 해야...본격적으로 보안구축에 투자할꺼다....', 1, 1), ('공인인증서 업체 먹여 살리기 위해노력하는 kisa로 밖에 안보이네', 1, 0), ('똥 피했다고 피했는데 옆에 똥 지뢰가 있네.', 0, 0), ('공인인증서도 없애고 웹표준과 fds 도입해라', 1, 0), ('ms가 엑티브x 버린다고 한지가 언젠데 그동안 뭐했냐?', 4, 0), ('엑티브X 뿌리 뽑는다. exe ▽ 심는다. 덤엔 더머냐? 저런 모지리들... ㅉㅉ', 4, 0), ('처드신뇌물이 있으니까 업체살릴라고 별의별희안한거 또잔뜩만들어서 이용하는 국민들불편하게하려는 불편한진실 결정적으로 버리지못하는사고방식이사고나면모든책임은이영자가왜일까서비스기관은정부준수사항지키고뇌물먹은회사의쓰래기솔루션도입했으니까책입없다고하는것부터고쳐라 개인정보도유출되면업체에무한책임지워서회사가휘청거리게해라그러면바로고쳐진다', 2, 0), ('참 빨리도 한다 ~ 발등에 불 ~~~~~~~ 윈 10 ~ 불똥 떨어지니 난리 ~~', 1, 0), ('웹 표준 하나만 지키면 더 할 일도 더 들어갈 돈도 필요 없는데 그게 그렇게 힘드냐...진짜 입에 똥이 들어가야 움직일 놈들임...', 3, 0), ('액티브X 뿌리뽑고 그자리에 exe 말뚝을 딱!', 6, 0), ('그냥 지나칠 기사였는데 댓글보니까 답답해서 깔만한 기사가 아님 ★첫번째. 본문에 exe설치하란 말없음 그리고 은향에서나 결제시 하는 exe설치는 보안을 위한 것일뿐 엑티브x랑 상관없음 ★두번째. 호환성을 무시하냐 맥은? 이는 HTML5라는 표준이라면 모든 웹브라우져 윈도우 사파리 안드로이드등등 에서 사용가능함', 0, 0), ('제발 뻘짓 그만하자', 3, 1), ('대통령이 강조한지가 언젠데 인제와서....연관된 기관 정부 부처 모조리 책임을 물어야 한다.', 1, 1), ('EXE다운 설치하라는 말없고 엑티브x를 HTML5등으로 교체하겠단건데 그리고 은행에서 exe설치하란건 정보를 암호화하는 프로그램일텐데', 0, 0), ('이 당연한 일을 왜 세금들여서 하는데?', 2, 2), ('이건 뭐 이름만 바꾼 수준 ㅡㅡ', 0, 0), ('역시 대한민국! 문제의 핵심을 몰라 액티브X 버리고, exe라니.', 0, 0), ('정부 : "엑티브X를 대체할 차세대 엑티브X를 개발했습니다"', 6, 1), ('∙삼성전자 스마트폰 ASP[Average Selling Price, 평균판매가격]: 206$ (23만원)---- ∙애플 스마트폰 iPhone ASP: 698$ (78만원)---- 2014 4/4 ( http://me2.do/GKdoKdub 참조 )', 0, 2), ('짝짝꿍 잘 맞는다.', 1, 1), ('몽둥이 버리라고 했더니 몽둥이 던져버리고 총 뽑는 수준... 이래서 헬조선이지 ㅋㅋㅋ', 10, 1), ('으이구 뷰ㅇ신들아 ms가 엑티브 버린지가 언젠데 지금 와서야 뿌리뽑는다고 OOO이고 진짜.... 증말 니들이 마시는 공기도 아깝다 어휴...', 6, 0), ('맥 os 는 컴퓨터 아니냐?exe로 바꾸면 어찌라고 ㅋㅋ', 36, 1), ('국내 환경이 외국가 다른건 몇몇 이유는 분명 존재합니다.외국은 개인컴퓨터에 해킹이 이루어진것에 대해서 전혀 신경을 쓰지않고 방어하지 않는다는 것이죠. 국내는 개인컴퓨터에도 방어툴 및 방화벽을 설치하여 원천적으로 개인컴퓨터에서도 자료 유출을 방지하려고 한 것이고 이로 인해서 강제적으로 플러그인을 설치하게 되었습니다.물론 장 단점은 있습니다.', 1, 4), ('자발적으로 실행했어야 하는 일을 세금을 들여 진행시키다니벌금을 물려도 모자를망정', 9, 1), ('국민 : 실행파일도 뿌리뽑아라', 47, 0), ('exe 설치 하라고 하지마라.', 68, 0)]</t>
+  </si>
+  <si>
+    <t>[('한국에서도 세계적인 스타트업 기업이 많이 생겨 났으면 하는 바램 입니다.', 0, 0)]</t>
+  </si>
+  <si>
+    <t>[('화이팅하세요！！！기대합니다', 0, 0)]</t>
+  </si>
+  <si>
+    <t>[('Sw교육 중학교 3년동안 34시간으로 무엇을 할수있을런지', 1, 0)]</t>
+  </si>
+  <si>
+    <t>[('수업시수도 중요하지만 지역특화산업의 발전에 투입되야할 sw직군규모를 상정하고 미래직업수요에맞는 스마트시티를 수출한다는 국가적목표에맞는 에너지설비관리용sw는 뭐가필요한지 지능형교통망sw개발과 관리용 sw교육의 커리큐럼은 뭐가되야할지를 중앙정부가 지자채특화산업과연계해서 산업인력규모를 추정해봐야 하겠죠 추정개발인력산정치가 나와야 초중고별대학도 연계한 미래직업관련한 인재가 나오겠죠 특회산업에맞는 산업수학모델이 sw교육과 결합되야만하고요', 0, 0)]</t>
+  </si>
+  <si>
+    <t>[('미래직업100종이 책으로 나왔는데요 그러한 현 초등학교학생세대들이 직업으로 갖게될직군의 미래직업에맞는 ncs기준을 현재 직무능력과 비슷한점 개선될점을 비교예측해서 시나리오플래닝기법으로 산업부와 미래부가 현업직무능력의 sw산업공정분석을해서 교육부의 sw교육에서 삼성의 전자sw sk의 통신sw 네이버의 sw직무능력과 비교해서 비교판단해보면좋겠습니다 항공산업용 임베디드sw투입자원은 어느정도되야하는것이며 스마트시티개발용 sw인력의 량과 질의 규모를 산정해보고요', 0, 0)]</t>
+  </si>
+  <si>
+    <t>[('이런 안드로이드 진영 웨어러블 기기 나오기도 전에 초를 치는…', 1, 0)]</t>
+  </si>
+  <si>
+    <t>[('보컬로이드?보컬로이드으?!!!!!!♡♡♡♡♡♡♡♡♡', 0, 0)]</t>
+  </si>
+  <si>
+    <t>[('휴... 이럴거면 왜 기사를 쓰지? 본인 얼굴과 이름 걸고 쓰는 건데... 적어도 글쓰고 한번 확인은 해야지? ㅇ ㅓ휴....', 0, 0)]</t>
+  </si>
+  <si>
+    <t>[('우물안의 개구리 삼성..', 1, 2), ('돈뽈아 먹겟네여 ㅠ 근데 바꾸고 싶다는점 근디 몇개월쓰면 떠 최신폰 나온다는점 ...', 3, 1)]</t>
+  </si>
+  <si>
+    <t>[('리뷰 감사합니다 아식스 가서 제 님버스랑 비교해봐야겠어요', 1, 0)]</t>
+  </si>
+  <si>
+    <t>[('키타스백 다신 안산다. 너무 구식인 케이스랑 쓰잘데기없는 상품만 들어있음... 재고떨이용으로 하지말고 제대로 해라ㅉㅉ 매표소에서 표살때 직원이 확성기로 번호를 말하는데도 안들림... 이번 키타스는 볼거는 많았는데 몇몇직원분들 비효율적으로 일처리한듯', 4, 0)]</t>
+  </si>
+  <si>
+    <t>[('후.. 당신들이 런칭한 게임 재미있게 하다 버림 받은 사람입니다. 세상 살다 게임사에 버림 받은건 처음입니다. 아직 먹튀짓 하는지 모르겠지만 앞으론 유져 단물빠지면 버리고 그러지 말았으면 하네요.', 3, 0)]</t>
+  </si>
+  <si>
+    <t>[('event.playstove.com/brand/rbBrand/preregist?uc=SHAU1U 사전등록 안하신분들 그냥 게임하지마시구 위 주소로 접속하셔서 캐쉬받고 시작하세요^^', 0, 0)]</t>
+  </si>
+  <si>
+    <t>[('회사 다니는 입장에서 호환안되는 hwp 극혐 개극혐...', 13, 1), ('국산 오피스가 아니라 국산이란 말이 필요없는 글로벌한 오피스면 쓰겠다.', 5, 0), ('진짜 hwp 왜쓰는거지.', 1, 0), ('닥치고 오피스365 미만 잡. 월 8900원이면 1테라 클라우드와 세계제일의 오피스를 사용하실 수 있습니다.', 1, 0), ('6900원에서 300만 빼죠. 그럼 부가세 제외 6천 원으로 진짜 6천원 요금이잖아요.', 1, 0), ('Active X 와 동일... 아직도 바이너리 고집하고 있다니... 관공서 때문에 쓰고 있지, 아니면 OUT', 0, 0), ('그래도 역시 인프라웨어가 가장 매력적 입니다 주가 역대 최 저점 곧 대박나겠군요 ^^*', 0, 0)]</t>
+  </si>
+  <si>
+    <t>[('늘 잘 쓰고 있습니다. 정말 파워풀한 툴입니다.대표님 덕분에 많이 배우고 좋은 분들 많이 알게 되었네요. 감사드립니다.', 0, 0)]</t>
+  </si>
+  <si>
+    <t>[('라이카스토어 백화점 처음은 여기가 아님.삼성동 현대 백화점임.그리고 반도카메라에 비하면 구멍가게 수준', 0, 0)]</t>
+  </si>
+  <si>
     <t>[('와 진짜 긴글인데 집중해서 다 읽음. 설명 너무 좋네요', 0, 0)]</t>
+  </si>
+  <si>
+    <t>[('하지만 소비자는 검증된 컨트롤러와 검증된 품질을 지닌 제품을 필요로합니다. 저는 이게 안되면 가격이 저렴하더라도 고르지 않습니다. os로 사용하는 저장장치의 생명은 신뢰성과 안정성이니까요. 이걸 깬다면 저장장치로서 가치가 없습니다. 더군다나 tlc는 아직까지 확실하게 받쳐주고 검증된 제품이 아직 안나왔습니다. 또한 tlc가 들어간 sd카드 제품들은 원가절감이 되었고 짧은 수명을 보완할 장치가 없었기때문에 신뢰도가 떨어졌던건 사실입니다. 이게 tlc가 욕먹는 이유입니다.', 1, 0), ('블로거들이나 기자들은 자기들도 tlc안쓰고 mlc쓸꺼면서 저런제품을 추천해 주고 싶을까?', 2, 2), ('삼성 tlc제품도 같이 비교해야지?', 4, 2), ('TLC는 sd카드까지만,.,,', 2, 2), ('인터넷 뒤져보면 더싸고 좋은것도 있음', 6, 4), ('좋은글이네요1234', 2, 4), ('애플도 썼다 까인 TLC! 옮기려는 파일의 용량이 크면 잠깐은 빠르지만 하드속도까지 떨어지는 TLC! 물론 MLC처럼 TLC도 시간이 지나면 개선되겠지만 아직은 MLC사는게 좋다. 뭐 가격은 싸네', 17, 6), ('그래도tlc는사는게아님', 12, 5)]</t>
+  </si>
+  <si>
+    <t>[('난투 초대권 http://nantoo.co.kr/?code=ed41d9adc5fafe8fece0dad05a3b2d1bdd13839f05dd897dca9d284491542fe3', 0, 0)]</t>
+  </si>
+  <si>
+    <t>[('기자는 폼생폼사로 쓰는군..피곤하게 남의식하면서 살지마라...실용적이고 편안한게 좋은거야..', 0, 3), ('내 앞에 18명 대기자인데 2시간 걸렸다고 하니깐 혹시 지방 이냐고 하거나 몰리는 오후4시 아니냐고 하는데 아니다. 와 ㅆㅂ 영등포다 ㅋㅋㅋㅋㅋㅋ 강남이면 3시간 걸렸을꺼다. 애플 십장생들 한국에서 벌어 쳐먹으면서 인간적으로 엔지니어 숫자 좀 늘리지', 0, 3), ('와 ㅆㅂ ㅋㅋㅋ 내 앞에 18명 대기자인데 두시간 넘게 걸렸다. ㅋㅋㅋㅋㅋㅋ 리셋하면 되는되요. 호갱님 ㅋㅋㅋㅋㅋㅋ 저 기사님아 왜 리셋해야하는데요? ㅋㅋㅋㅋㅋ 원래 그래요 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 휴우~~~~~~~~~', 0, 3), ('나 애플 매니아인데 엡등이는 아니다 애플 a/s 받아봐 오만정 다 떨어진다. ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 더러워서 애플 안살게', 0, 3), ('전 애플 마니아예요^^사고 싶은 맘..필요한 맘이 자꾸 들어가는 요즘.. 준명품 40짜리 차는데..자꾸 고장나고 짜증나서 버렸는데..후기 보니 빨랑 들여야 겠어요^^ 애플은 고장도 잘 안나고 믿고 쓰는 제품..내용 감사히 잘 봤고 많은 도움 됐어요~^^', 4, 5), ('참! 나도 애플 빠지만 이기사는 진짜 손발 오그라 드네~~ 기자양반 나중에 후손들도 사과 마크 박아주쇼~~', 3, 7), ('1세대 제품은 절대 사지 마세요. 호구 됩니다.', 1, 4), ('전 골수 앱등이인데요 아무리 애플 제품이라도 애플워치는 도저히 못사겠더라구요 샀을때의 효용성이 사지 않았을때보다 커야하는데 그렇지 않으니까요', 1, 5), ('이정도는 사용해보고 기사를 적어야지 맨날 받아쓰기나 하고있고', 9, 4), ('처음출시때 호들갑뜰더니 조용해진 애플워치. 결국 스마트워치 제품군 자체의 한계다. 스마트워치는 팬심이 아닌이상 일반인들이 살 가치를 못느낀다. 굳이 찬다면 그 가격으로 중저가 브랜드 이름있는 아날로그 시계를 사겠다.', 2, 2), ('현지에서도 애플워치 설명할때 자거나 시큰둥하고 비웃었는데 앱등이들은 찬양일색ㅋㅋㅋㅋㅋ 그냥 잡스의 후광으로 구매율이 높은거지 제품은 정말 최악 거지급 ㅋㅋ 진짜 구린데 거기다 줄질ㅋㅋㅋ 줄질하는데 최대 80이 넘어ㅋㅋㅋ 어휴 정신나간것들', 7, 9), ('그냥 앱등이의 전형적인 찬양글! 아무 의미없음~ 수트에 저거 차는 순간 격떨어지는거 한순간이다.', 8, 10), ('삼성따라 하더니 삼성도 망한것을. 삼성보다 성능이 좋아 밧데리가 오래가 아무것도 쓸무없는 쯔쯧. 아 ~~ 아이폰5 밧데리 1시간 간다 우짜지.', 1, 3), ('일단 한국에서 사용하기에 아이폰이 불편함 거기다 as도 불편함 생태계 어쩌고하는데 한국에서 쓰기 전체적으로 안드가 편함 여러가지 따지면 안드중에서 삼성이 제일 나음 그래서 점유율이 삼성이 높은거임 반면 아이폰? 써보면 편하다? 개ㅡ소리 ㄴㄴ 개불편함 내구성도 구리고 as는 최악', 7, 8), ('일기는 일기장에. 애플이 만든것중에 최악의 제품이다. 이제 마케팅도 안한다. 버린자식임', 7, 8), ('애플과 애플충들의 공통점1: 물건품질은 개존망이라도 사진하나는 아주 잘찍는다. 2.주둥이를 아주 그럴싸하게 잘 놀린다.', 6, 8), ('말이 앞뒤가 안맞잖아 ㅋㅋ 첨엔 지가 "이건 시계일 뿐이다." "누가 시계로 메세지 보내고 그러냐" 이러더니 뒤에는 줄줄이 변명은 ㅋㅋ', 4, 6), ('기자는 문자만!!! 사용하는군요. 밧데리가 만족스럽다고? 시간 확인하고 문자 확인하려고 애플워치를 사나요? 그렇다면 애플워치가 아니어도 되잖아요.', 1, 3), ("그냥 알람 오고 문자메시지 보여주고 운동량 체크해주는 '시계'임. 따로 대단한 걸 할 건 없음.. 허핑턴포스트나 인스타그램 앱도 있지만 그냥 알람 오면 폰 보는게 편함.", 1, 3), ('확실히 스마트워치 중에는 제일 이쁘지만일반적인 시계보다는 안 예쁘네요. 글에서 쓰신데로 특별한 장점도 단점도 없는...애플 제품이라 사용하는 그런 느낌', 23, 15), ('기어2, 3일째 저녁에 30%정도 남는데, 반나절밖에 못 쓴다고?중국산 2만원짜리 차보고 한 소린가?', 3, 5), ('많이 많이 쓰세요.. 두고두고 자자손손 대로...', 7, 6), ('기어s 땀으로 인한 부식은 고객 과실 as 비용 30만원대 ㅋㅋㅋㅋ 덤으로 받고 돈내고 고치는 기어 s 엽충이들 많이 사줘라 ㅋㅋㅋ', 10, 10), ('이왕 늦은 리뷰라면 AS도 한번 받아보고 나서 쓰시지..', 36, 19), ('앱등이 기사엔 앱등이가 겨우 7마리 붙었냐? 다들 삼성 기사에 기생충처럼 붙어겠지...ㅋㅋㅋㅋㅋ', 3, 5), ('이딴걸 누가...사냐 애플이면 다되는줄 아는 앱등이들 출동', 16, 15), ('잘봤습니다 앱등일기 쓰레기 이쁘게 포장하냐고 고생하셨슴', 29, 28), ('많이 쓰세요~~ 광고에 나오는 오글오글 스마트폰 연동이러면 말이 좋아 2틀이지 만지작 거리면 하루만에 충전해야 하구 그닥 안끌려!!!', 16, 15), ('스마트워치 처음쓰는 사람이 쓴 리뷰네...다른 브랜드와의 차별성을 얘기해야지...참...', 24, 23)]</t>
+  </si>
+  <si>
+    <t>[('난투초대권 http://nantoo.co.kr/?code=ed41d9adc5fafe8fece0dad05a3b2d1bdd13839f05dd897dca9d284491542fe3', 0, 0)]</t>
+  </si>
+  <si>
+    <t>[('인프라웨어 역시 대박나겠군요 ^^*~ 흠 지금 7년 역대 최고 저점이군요 주식장에 숨은 진주가 확실하군요 ^^', 1, 0)]</t>
+  </si>
+  <si>
+    <t>[('디자인보다는 기능이 더 중요한데..왜 강점을 버렸을까. 예쁘고 불편한의자 오래 앉아있는것보단', 0, 0), ('삼성 이라 삼성동 에서 했나?', 0, 0), ('우리가족은 삼성제품 안써요', 2, 4), ('샘킴 파스타먹으러는 갈만하겠다', 2, 1), ('내가 안사도 하루 25,000씩 판매된다니, 다행이네. 맘편히 다음번 배터리탈착형이나 기다릴란다.', 0, 5), ('댓글다는 수준이 모두 초딩. 드/응ㅡ시.인들.', 1, 6), ('(몇일뒤 반응) "체험해보니 좋은데 사고 싶진 않더라"', 4, 5), ('이래저래 자국민은 봉.....미국은 한달동안 체험을 주고 한국은 안주고 ...아 슬프라 미국에서 살껄..이게 말이 돼냐고???', 1, 2), ('이런거 하지 좀 말고 가격 낮추거나 좀 한국 경제에 도움 되는데 썼으면..', 1, 2), ('어차피 협력업체나 직원들은 살수밖에 없기 때문에 평타는 칠거다.', 3, 2), ('정말 애쓴다 많이 팔려야 될텐데', 1, 5), ('과연 체험하고 좋다고해서 가격보고 사는사람이 몇명이나될까..?', 9, 3), ('애쓴다 . . . .', 12, 7), ('고객님 그렇게 막 누르시면 안됩니다.', 14, 3), ('안 산다고요 가시라고요 좀', 16, 10), ('한국에서는 한달 1달러 체험이벤트 안하나요?', 25, 4)]</t>
+  </si>
+  <si>
+    <t>[('학교장들의 적극적인 의지를 이끌어내는 것은 평가에 넣으면 끝난다. 아무이유없다 학교평가나 교감, 교장 평가에 넣는다고 하면 없던 자리도 만들고 컴퓨터도 살것이다.예전 컴퓨터실이 학교마다 구축하고나서 노후PC교체 지원금이 나가는 초기에는 그래도 교체가 잘 되었다. 어느순간 학교운영비에 포함해서 내려보내는 순간, 목적비가 아니라는 생걱에 PC교체보다 다른 학교사업에 도용래 버리는 경우가 더 많았다. 누구의 발상인지 그때부터 인문계고등학교의 교체하지않은 PC에 모니터는 CRT를 사용하는 학교도 보았다. 휴~~ 변화가 필요하다', 0, 2)]</t>
   </si>
 </sst>
 </file>
@@ -4182,10 +4458,10 @@
         <v>1221</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>1224</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4242,10 +4518,10 @@
         <v>1222</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>1224</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4262,10 +4538,10 @@
         <v>1223</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>1224</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4362,10 +4638,10 @@
         <v>1225</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>1224</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4382,10 +4658,10 @@
         <v>1226</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>1224</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4442,10 +4718,10 @@
         <v>1227</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>1224</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4522,10 +4798,10 @@
         <v>1221</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>1224</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4562,10 +4838,10 @@
         <v>1221</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>1224</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4622,10 +4898,10 @@
         <v>1221</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>1224</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4802,10 +5078,10 @@
         <v>1228</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>296</v>
       </c>
       <c r="F34" t="s">
-        <v>1224</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4822,10 +5098,10 @@
         <v>1226</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F35" t="s">
-        <v>1224</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4922,10 +5198,10 @@
         <v>1226</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>1224</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4982,10 +5258,10 @@
         <v>1221</v>
       </c>
       <c r="E43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>1224</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -5102,10 +5378,10 @@
         <v>1229</v>
       </c>
       <c r="E49">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F49" t="s">
-        <v>1224</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -5222,10 +5498,10 @@
         <v>1226</v>
       </c>
       <c r="E55">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>1224</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -5342,10 +5618,10 @@
         <v>1221</v>
       </c>
       <c r="E61">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>1224</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -5382,10 +5658,10 @@
         <v>1231</v>
       </c>
       <c r="E63">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="F63" t="s">
-        <v>1224</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -5582,10 +5858,10 @@
         <v>1226</v>
       </c>
       <c r="E73">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F73" t="s">
-        <v>1224</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5662,10 +5938,10 @@
         <v>1221</v>
       </c>
       <c r="E77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>1224</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -5862,10 +6138,10 @@
         <v>1221</v>
       </c>
       <c r="E87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F87" t="s">
-        <v>1224</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -6062,10 +6338,10 @@
         <v>1221</v>
       </c>
       <c r="E97">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F97" t="s">
-        <v>1224</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -6082,10 +6358,10 @@
         <v>1221</v>
       </c>
       <c r="E98">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>1224</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -6202,10 +6478,10 @@
         <v>1221</v>
       </c>
       <c r="E104">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>1224</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -6222,10 +6498,10 @@
         <v>1232</v>
       </c>
       <c r="E105">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F105" t="s">
-        <v>1224</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -6242,10 +6518,10 @@
         <v>1232</v>
       </c>
       <c r="E106">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>1224</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -6362,10 +6638,10 @@
         <v>1221</v>
       </c>
       <c r="E112">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>1224</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -6482,10 +6758,10 @@
         <v>1221</v>
       </c>
       <c r="E118">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F118" t="s">
-        <v>1224</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -6582,10 +6858,10 @@
         <v>1222</v>
       </c>
       <c r="E123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F123" t="s">
-        <v>1224</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -6602,10 +6878,10 @@
         <v>1234</v>
       </c>
       <c r="E124">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>1224</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -6842,10 +7118,10 @@
         <v>1221</v>
       </c>
       <c r="E136">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F136" t="s">
-        <v>1224</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -6882,10 +7158,10 @@
         <v>1221</v>
       </c>
       <c r="E138">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>1224</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -7002,10 +7278,10 @@
         <v>1222</v>
       </c>
       <c r="E144">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F144" t="s">
-        <v>1224</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -7165,7 +7441,7 @@
         <v>4</v>
       </c>
       <c r="F152" t="s">
-        <v>1224</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -7422,10 +7698,10 @@
         <v>1221</v>
       </c>
       <c r="E165">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F165" t="s">
-        <v>1224</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -7442,10 +7718,10 @@
         <v>1221</v>
       </c>
       <c r="E166">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F166" t="s">
-        <v>1224</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -7642,10 +7918,10 @@
         <v>1236</v>
       </c>
       <c r="E176">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F176" t="s">
-        <v>1224</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -8162,10 +8438,10 @@
         <v>1221</v>
       </c>
       <c r="E202">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F202" t="s">
-        <v>1224</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -8182,10 +8458,10 @@
         <v>1222</v>
       </c>
       <c r="E203">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F203" t="s">
-        <v>1224</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -8322,10 +8598,10 @@
         <v>1232</v>
       </c>
       <c r="E210">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>1224</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -8342,10 +8618,10 @@
         <v>1221</v>
       </c>
       <c r="E211">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F211" t="s">
-        <v>1224</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -8362,10 +8638,10 @@
         <v>1221</v>
       </c>
       <c r="E212">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F212" t="s">
-        <v>1224</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -8382,10 +8658,10 @@
         <v>1222</v>
       </c>
       <c r="E213">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F213" t="s">
-        <v>1224</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -8442,10 +8718,10 @@
         <v>1221</v>
       </c>
       <c r="E216">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F216" t="s">
-        <v>1224</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -8502,10 +8778,10 @@
         <v>1229</v>
       </c>
       <c r="E219">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F219" t="s">
-        <v>1224</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -8662,10 +8938,10 @@
         <v>1221</v>
       </c>
       <c r="E227">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F227" t="s">
-        <v>1224</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -9225,7 +9501,7 @@
         <v>4</v>
       </c>
       <c r="F255" t="s">
-        <v>1224</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -9262,10 +9538,10 @@
         <v>1221</v>
       </c>
       <c r="E257">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F257" t="s">
-        <v>1224</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -9342,10 +9618,10 @@
         <v>1221</v>
       </c>
       <c r="E261">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F261" t="s">
-        <v>1224</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -9382,10 +9658,10 @@
         <v>1221</v>
       </c>
       <c r="E263">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F263" t="s">
-        <v>1224</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -9562,10 +9838,10 @@
         <v>1226</v>
       </c>
       <c r="E272">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F272" t="s">
-        <v>1224</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -9662,10 +9938,10 @@
         <v>1221</v>
       </c>
       <c r="E277">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F277" t="s">
-        <v>1224</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -9722,10 +9998,10 @@
         <v>1221</v>
       </c>
       <c r="E280">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F280" t="s">
-        <v>1224</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -9742,10 +10018,10 @@
         <v>1237</v>
       </c>
       <c r="E281">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F281" t="s">
-        <v>1224</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -9762,10 +10038,10 @@
         <v>1238</v>
       </c>
       <c r="E282">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F282" t="s">
-        <v>1224</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -9802,10 +10078,10 @@
         <v>1221</v>
       </c>
       <c r="E284">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F284" t="s">
-        <v>1224</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -9885,7 +10161,7 @@
         <v>4</v>
       </c>
       <c r="F288" t="s">
-        <v>1224</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -9982,10 +10258,10 @@
         <v>1222</v>
       </c>
       <c r="E293">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F293" t="s">
-        <v>1224</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -10002,10 +10278,10 @@
         <v>1239</v>
       </c>
       <c r="E294">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="F294" t="s">
-        <v>1224</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -10202,10 +10478,10 @@
         <v>1221</v>
       </c>
       <c r="E304">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F304" t="s">
-        <v>1224</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -10222,10 +10498,10 @@
         <v>1222</v>
       </c>
       <c r="E305">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F305" t="s">
-        <v>1224</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -10242,10 +10518,10 @@
         <v>1232</v>
       </c>
       <c r="E306">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F306" t="s">
-        <v>1224</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -10262,10 +10538,10 @@
         <v>1222</v>
       </c>
       <c r="E307">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F307" t="s">
-        <v>1224</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -10542,10 +10818,10 @@
         <v>1221</v>
       </c>
       <c r="E321">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F321" t="s">
-        <v>1224</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -10842,10 +11118,10 @@
         <v>1221</v>
       </c>
       <c r="E336">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F336" t="s">
-        <v>1224</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -11302,10 +11578,10 @@
         <v>1226</v>
       </c>
       <c r="E359">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F359" t="s">
-        <v>1224</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -11362,10 +11638,10 @@
         <v>1240</v>
       </c>
       <c r="E362">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="F362" t="s">
-        <v>1224</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -11622,10 +11898,10 @@
         <v>1221</v>
       </c>
       <c r="E375">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F375" t="s">
-        <v>1224</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -11942,10 +12218,10 @@
         <v>1221</v>
       </c>
       <c r="E391">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F391" t="s">
-        <v>1224</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -12222,10 +12498,10 @@
         <v>1222</v>
       </c>
       <c r="E405">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F405" t="s">
-        <v>1224</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -12402,10 +12678,10 @@
         <v>1221</v>
       </c>
       <c r="E414">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F414" t="s">
-        <v>1224</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -12502,10 +12778,10 @@
         <v>1221</v>
       </c>
       <c r="E419">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F419" t="s">
-        <v>1224</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -12545,7 +12821,7 @@
         <v>4</v>
       </c>
       <c r="F421" t="s">
-        <v>1224</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="422" spans="1:6">
@@ -12602,10 +12878,10 @@
         <v>1241</v>
       </c>
       <c r="E424">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F424" t="s">
-        <v>1224</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -12762,10 +13038,10 @@
         <v>1242</v>
       </c>
       <c r="E432">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F432" t="s">
-        <v>1224</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -12785,7 +13061,7 @@
         <v>4</v>
       </c>
       <c r="F433" t="s">
-        <v>1224</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -12802,10 +13078,10 @@
         <v>1243</v>
       </c>
       <c r="E434">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F434" t="s">
-        <v>1224</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -13162,10 +13438,10 @@
         <v>1226</v>
       </c>
       <c r="E452">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F452" t="s">
-        <v>1224</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="453" spans="1:6">
@@ -13342,10 +13618,10 @@
         <v>1221</v>
       </c>
       <c r="E461">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F461" t="s">
-        <v>1224</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="462" spans="1:6">
@@ -13402,10 +13678,10 @@
         <v>1221</v>
       </c>
       <c r="E464">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F464" t="s">
-        <v>1224</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="465" spans="1:6">
@@ -13482,10 +13758,10 @@
         <v>1222</v>
       </c>
       <c r="E468">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F468" t="s">
-        <v>1224</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="469" spans="1:6">
@@ -13502,10 +13778,10 @@
         <v>1222</v>
       </c>
       <c r="E469">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F469" t="s">
-        <v>1224</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="470" spans="1:6">
@@ -13522,10 +13798,10 @@
         <v>1226</v>
       </c>
       <c r="E470">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F470" t="s">
-        <v>1224</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="471" spans="1:6">
@@ -13642,10 +13918,10 @@
         <v>1221</v>
       </c>
       <c r="E476">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F476" t="s">
-        <v>1224</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="477" spans="1:6">
@@ -13802,10 +14078,10 @@
         <v>1221</v>
       </c>
       <c r="E484">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F484" t="s">
-        <v>1224</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="485" spans="1:6">
@@ -14002,10 +14278,10 @@
         <v>1226</v>
       </c>
       <c r="E494">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F494" t="s">
-        <v>1224</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="495" spans="1:6">
@@ -14122,10 +14398,10 @@
         <v>1222</v>
       </c>
       <c r="E500">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F500" t="s">
-        <v>1224</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="501" spans="1:6">
@@ -14222,10 +14498,10 @@
         <v>1226</v>
       </c>
       <c r="E505">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F505" t="s">
-        <v>1224</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="506" spans="1:6">
@@ -14502,10 +14778,10 @@
         <v>1226</v>
       </c>
       <c r="E519">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F519" t="s">
-        <v>1224</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="520" spans="1:6">
@@ -14582,10 +14858,10 @@
         <v>1221</v>
       </c>
       <c r="E523">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F523" t="s">
-        <v>1224</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="524" spans="1:6">
@@ -14642,10 +14918,10 @@
         <v>1221</v>
       </c>
       <c r="E526">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F526" t="s">
-        <v>1224</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="527" spans="1:6">
@@ -14862,10 +15138,10 @@
         <v>1221</v>
       </c>
       <c r="E537">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F537" t="s">
-        <v>1224</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="538" spans="1:6">
@@ -14942,10 +15218,10 @@
         <v>1226</v>
       </c>
       <c r="E541">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F541" t="s">
-        <v>1224</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="542" spans="1:6">
@@ -15062,10 +15338,10 @@
         <v>1221</v>
       </c>
       <c r="E547">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F547" t="s">
-        <v>1224</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="548" spans="1:6">
@@ -15445,7 +15721,7 @@
         <v>1</v>
       </c>
       <c r="F566" t="s">
-        <v>1246</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="567" spans="1:6">
@@ -15462,10 +15738,10 @@
         <v>1234</v>
       </c>
       <c r="E567">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F567" t="s">
-        <v>1224</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="568" spans="1:6">
@@ -15542,10 +15818,10 @@
         <v>1221</v>
       </c>
       <c r="E571">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F571" t="s">
-        <v>1224</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="572" spans="1:6">
@@ -15762,10 +16038,10 @@
         <v>1244</v>
       </c>
       <c r="E582">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F582" t="s">
-        <v>1224</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="583" spans="1:6">
@@ -15882,10 +16158,10 @@
         <v>1222</v>
       </c>
       <c r="E588">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F588" t="s">
-        <v>1224</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="589" spans="1:6">
@@ -16002,10 +16278,10 @@
         <v>1222</v>
       </c>
       <c r="E594">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F594" t="s">
-        <v>1224</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="595" spans="1:6">
@@ -16182,10 +16458,10 @@
         <v>1232</v>
       </c>
       <c r="E603">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F603" t="s">
-        <v>1224</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="604" spans="1:6">
@@ -16262,10 +16538,10 @@
         <v>1221</v>
       </c>
       <c r="E607">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F607" t="s">
-        <v>1224</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="608" spans="1:6">
